--- a/validation_rules/Overview_validationrules_DAMO2_2.xlsx
+++ b/validation_rules/Overview_validationrules_DAMO2_2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\Thonus\mijnSoftware\HyDAMOValidatieregels\validation_rules\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9EA96BD-7A6F-4EC7-A3FC-B21626271728}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B7F4BB1-C540-4DDC-B3CF-EF0F75B65213}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{802B16B9-1515-4B6F-AB6D-F7CE1821C892}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Regels" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Regels!$A$1:$I$371</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Regels!$A$1:$I$368</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3339" uniqueCount="528">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3312" uniqueCount="519">
   <si>
     <t>syntax_aantaldoorstroomopeningen</t>
   </si>
@@ -894,685 +894,698 @@
     <t>left=hoogstedoorstroomhoogte, right=hoogteconstructie</t>
   </si>
   <si>
+    <t>Er mogen niet meerdere stuwen op (nagenoeg) dezelfde locatie liggen</t>
+  </si>
+  <si>
+    <t>distant_to_others</t>
+  </si>
+  <si>
+    <t>distance=1</t>
+  </si>
+  <si>
+    <t>leeg of decimaal getal met max 8 karakters en eenheid 'm'</t>
+  </si>
+  <si>
+    <t>leeg of decimaal getal met max 8 karakters en eenheid 'm NAP'</t>
+  </si>
+  <si>
+    <t>type=string, enum=["ja","nee"], maxItems=1</t>
+  </si>
+  <si>
+    <t>type=string, VerwijstNaar=RegenwaterbufferCompart, maxlength=38, pattern=[^[{]?[0-9a-fA-F]{8}-([0-9a-fA-F]{4}-){3}[0-9a-fA-F]{12}[}]?$], maxItems=1</t>
+  </si>
+  <si>
+    <t>leeg of decimaal getal met max 5 karakters</t>
+  </si>
+  <si>
+    <t>type=Point, minItems=1, maxItems=1</t>
+  </si>
+  <si>
+    <t>type=string, enum=["schotbalkstuw","stuw met schuif","stuw met klep","segmentstuw","cascadestuw","hevelstuw","meetstuw","meetschot","stuw met contra-gewicht","inlaat- en/of aflaatstuw","overlaat","drijverstuw","trommelstuw","gronddamstuw","stuwbak","tuimel- of kantelstuw","balgstuw","brievenbusstuw","knijpstuw","conserveringstuw","onbekend"], maxItems=1</t>
+  </si>
+  <si>
+    <t>brug</t>
+  </si>
+  <si>
+    <t>syntax_doorvaartbreedte</t>
+  </si>
+  <si>
+    <t>syntax_hoogtebovenzijde</t>
+  </si>
+  <si>
+    <t>syntax_hoogteonderzijde</t>
+  </si>
+  <si>
+    <t>syntax_soortoverspanning</t>
+  </si>
+  <si>
+    <t>validate_000_hoogtebovenzijde_plausibel</t>
+  </si>
+  <si>
+    <t>validate_001_hoogteonderzijde_plausibel</t>
+  </si>
+  <si>
+    <t>validate_002_lengte_plausibel</t>
+  </si>
+  <si>
+    <t>-8&lt;hoogtebovenzijde&lt;325</t>
+  </si>
+  <si>
+    <t>De hoogte bovenzijde is plausibel (ligt tussen -8  en 325 m NAP)</t>
+  </si>
+  <si>
+    <t>-8&lt;hoogteonderzijde&lt;325</t>
+  </si>
+  <si>
+    <t>De hoogte onderzijde is plausibel (ligt tussen -8  en 325 m NAP)</t>
+  </si>
+  <si>
+    <t>1&lt;lengte&lt;10</t>
+  </si>
+  <si>
+    <t>De lengte is plausibel (ligt tussen 1  en 10 m)</t>
+  </si>
+  <si>
+    <t>altijd decimaal getal met max 8 karakters</t>
+  </si>
+  <si>
+    <t>type=string, enum=["vrije overspanning","overspanning via tussenpunten","overspanning via landhoofden binnen het doorstroomprofiel","overspan. via landhfd. binnen doorstroomprof. en tussenpunten","overig","onbekend"], maxItems=1</t>
+  </si>
+  <si>
+    <t>type=string, default=2, enum=["Aquaduct","Brug","Duiker","Sifon","Hevel","Bypass"], maxItems=1</t>
+  </si>
+  <si>
+    <t>type=string, enum=["Chezy","Manning","StricklerKn","StricklerKs","White Colebrook","Bos en Bijkerk"], minItems=1, maxItems=1</t>
+  </si>
+  <si>
+    <t>pomp</t>
+  </si>
+  <si>
+    <t>syntax_maximalecapaciteit</t>
+  </si>
+  <si>
+    <t>syntax_minimalecapaciteit</t>
+  </si>
+  <si>
+    <t>syntax_opstellingpomp</t>
+  </si>
+  <si>
+    <t>syntax_pompcurve</t>
+  </si>
+  <si>
+    <t>syntax_pomprichting</t>
+  </si>
+  <si>
+    <t>syntax_rioolgemaalid</t>
+  </si>
+  <si>
+    <t>syntax_soortaandrijving</t>
+  </si>
+  <si>
+    <t>syntax_typepomp</t>
+  </si>
+  <si>
+    <t>syntax_typepompschakeling</t>
+  </si>
+  <si>
+    <t>validate_000_capaciteit_gt_0</t>
+  </si>
+  <si>
+    <t>left=maximalecapaciteit,right=0</t>
+  </si>
+  <si>
+    <t>maximalecapaciteit&gt;0</t>
+  </si>
+  <si>
+    <t>De capaciteit groter dan 0</t>
+  </si>
+  <si>
+    <t>altijd 1 tekstwaarde met max 50 karakters</t>
+  </si>
+  <si>
+    <t>type=number, Eenheid="m3/minuut", maxlength=8, minItems=1, maxItems=1</t>
+  </si>
+  <si>
+    <t>altijd decimaal getal met max 8 karakters en eenheid 'm3/minuut'</t>
+  </si>
+  <si>
+    <t>type=number, Eenheid="m3/minuut", maxlength=8, maxItems=1</t>
+  </si>
+  <si>
+    <t>leeg of decimaal getal met max 8 karakters en eenheid 'm3/minuut'</t>
+  </si>
+  <si>
+    <t>type=string, enum=["Gemaal droge opstelling","Gemaal natte opstelling","Overig","Onbekend"], maxItems=1</t>
+  </si>
+  <si>
+    <t>type=string, enum=["Positief","Negatief","Beide"], maxItems=1</t>
+  </si>
+  <si>
+    <t>type=string, VerwijstNaar=Rioolgemaal, maxlength=38, pattern=[^[{]?[0-9a-fA-F]{8}-([0-9a-fA-F]{4}-){3}[0-9a-fA-F]{12}[}]?$], maxItems=1</t>
+  </si>
+  <si>
+    <t>type=string, enum=["Vijzelgemaal","Centrifugaal","Schroefcentrifugaal","Schroef","Diesel","Elektrisch","Wind","Zonne-energie","Axiaal","Halfaxiaal","Radiaal","Ntb","Overig","Onbekend"], maxItems=1</t>
+  </si>
+  <si>
+    <t>type=string, enum=["Versnijdend","Vuildoorlatend","Overig","Onbekend"], maxItems=1</t>
+  </si>
+  <si>
+    <t>type=string, enum=["Enkelloop","Samenloop","Overig","Onbekend"], maxItems=1</t>
+  </si>
+  <si>
+    <t>gemaal</t>
+  </si>
+  <si>
+    <t>syntax_afslagpeil</t>
+  </si>
+  <si>
+    <t>syntax_functiegemaal</t>
+  </si>
+  <si>
+    <t>general_000_aantal_pompen</t>
+  </si>
+  <si>
+    <t>general_001_capaciteit</t>
+  </si>
+  <si>
+    <t>validate_000_aantal_pompen_gt_0</t>
+  </si>
+  <si>
+    <t>validate_001_capaciteit_gt_0</t>
+  </si>
+  <si>
+    <t>left=aantal_pompen, right=0</t>
+  </si>
+  <si>
+    <t>aantal_pompen&gt;0</t>
+  </si>
+  <si>
+    <t>Het aantal pompen is groter dan nul</t>
+  </si>
+  <si>
+    <t>De totale capaciteit is groter dan nul</t>
+  </si>
+  <si>
+    <t>left=capaciteit, right=0</t>
+  </si>
+  <si>
+    <t>capaciteit&gt;0</t>
+  </si>
+  <si>
+    <t>statistic=sum, related_object=pomp, related_parameter=maximalecapaciteit, fill_value=0</t>
+  </si>
+  <si>
+    <t>Bepaal de som van de maximale capaciteit van alle pompen in dit gemaal</t>
+  </si>
+  <si>
+    <t>statistic=count, related_object=pomp, fill_value=0</t>
+  </si>
+  <si>
+    <t>Bepaal het aantal pompen in dit gemaal</t>
+  </si>
+  <si>
+    <t>leeg of decimaal getal met max 8 karakters</t>
+  </si>
+  <si>
+    <t>type=string, maxlength=50, minItems=1, maxItems=1</t>
+  </si>
+  <si>
+    <t>type=string, enum=["Af- en Aanvoergemaal","Noodpomp","Onderbemaling / opmaling","Doorspoelgemaal","Overig","Onbekend","Aanvoergemaal","Afvoergemaal","Opmaling","Onderbemaling"], maxItems=1</t>
+  </si>
+  <si>
+    <t>hydroobject</t>
+  </si>
+  <si>
+    <t>syntax_categorieoppwaterlichaam</t>
+  </si>
+  <si>
+    <t>syntax_draineert</t>
+  </si>
+  <si>
+    <t>syntax_getijdebeinvloed</t>
+  </si>
+  <si>
+    <t>syntax_hydroobjectgroeperingid</t>
+  </si>
+  <si>
+    <t>syntax_krwstromendid</t>
+  </si>
+  <si>
+    <t>syntax_niveau</t>
+  </si>
+  <si>
+    <t>syntax_ontstaanswijze</t>
+  </si>
+  <si>
+    <t>syntax_oppervlaktewaterlichaamid</t>
+  </si>
+  <si>
+    <t>syntax_oppwatervolgnummer</t>
+  </si>
+  <si>
+    <t>syntax_persistentie</t>
+  </si>
+  <si>
+    <t>syntax_ruimtelijkeafbakeningbekend</t>
+  </si>
+  <si>
+    <t>syntax_ruwheidswaardehoog</t>
+  </si>
+  <si>
+    <t>syntax_ruwheidswaardelaag</t>
+  </si>
+  <si>
+    <t>syntax_soortoppwaterkwaliteit</t>
+  </si>
+  <si>
+    <t>syntax_soortoppwaterkwantiteit</t>
+  </si>
+  <si>
+    <t>syntax_vaarwegid</t>
+  </si>
+  <si>
+    <t>validate_000_lengte_gt_1m</t>
+  </si>
+  <si>
+    <t>validate_001_goed_gesplitst</t>
+  </si>
+  <si>
+    <t>validate_002_goede_kruising</t>
+  </si>
+  <si>
+    <t>validate_003_geen_eindpunt</t>
+  </si>
+  <si>
+    <t>validate_004_kunstwerk_op_peilscheiding</t>
+  </si>
+  <si>
+    <t>validate_005_kunstwerk_tussen_hobject</t>
+  </si>
+  <si>
+    <t>geometry_length</t>
+  </si>
+  <si>
+    <t>length=1, statistic=min</t>
+  </si>
+  <si>
+    <t>Hydroobject heeft voldoende lengte voor modelverwerking (minimaal 1 m)</t>
+  </si>
+  <si>
+    <t>splitted_at_junction</t>
+  </si>
+  <si>
+    <t>Een hydroobject wordt gescheiden bij een samenkomst of opsplitsing</t>
+  </si>
+  <si>
+    <t>structures_at_intersections</t>
+  </si>
+  <si>
+    <t>tolerance=0.01, structure=[duikersifonhevel]</t>
+  </si>
+  <si>
+    <t>Hydroobject vormt een consistent geheel, er zijn geen "doodlopende" routes</t>
+  </si>
+  <si>
+    <t>no_dangling_node</t>
+  </si>
+  <si>
+    <t>structures_at_boundaries</t>
+  </si>
+  <si>
+    <t>structures_at_nodes</t>
+  </si>
+  <si>
+    <t>structures=[gemaal,stuw,duikersifonhevel], tolerance=1</t>
+  </si>
+  <si>
+    <t>type=string, enum=["primair","secundair","tertiair","overig"], minItems=1, maxItems=1</t>
+  </si>
+  <si>
+    <t>type=string, default=n, enum=["ja","nee"], maxItems=1</t>
+  </si>
+  <si>
+    <t>type=string, VerwijstNaar=HydroObjectGroepering, maxlength=38, pattern=[^[{]?[0-9a-fA-F]{8}-([0-9a-fA-F]{4}-){3}[0-9a-fA-F]{12}[}]?$], maxItems=1</t>
+  </si>
+  <si>
+    <t>type=string, VerwijstNaar=KRWOppwStromend, maxlength=38, pattern=[^[{]?[0-9a-fA-F]{8}-([0-9a-fA-F]{4}-){3}[0-9a-fA-F]{12}[}]?$], maxItems=1</t>
+  </si>
+  <si>
+    <t>type=string, default=1, enum=["op maaiveld","boven maaiveld","onder bodem/maaiveld"], maxItems=1</t>
+  </si>
+  <si>
+    <t>type=integer, maxlength=10, uniqueItems=true, maxItems=1</t>
+  </si>
+  <si>
+    <t>type=string,  enum=["Natuurlijk","Door de mens gemaakt"], maxItems=1</t>
+  </si>
+  <si>
+    <t>type=string, VerwijstNaar=Oppervlaktewaterlichaam, maxlength=38, pattern=[^[{]?[0-9a-fA-F]{8}-([0-9a-fA-F]{4}-){3}[0-9a-fA-F]{12}[}]?$], maxItems=1</t>
+  </si>
+  <si>
+    <t>type=integer, maxlength=8, maxItems=1</t>
+  </si>
+  <si>
+    <t>leeg of 1 geheel getal met max 8 karakters</t>
+  </si>
+  <si>
+    <t>type=string,  enum=["droog","kortstondig","afwisselend","continue"], maxItems=1</t>
+  </si>
+  <si>
+    <t>type=string,  enum=["ja","nee"], maxItems=1</t>
+  </si>
+  <si>
+    <t>type=string,  enum=["trechtervormige bronnen (limnokrenen)","verticale bronnen (rheokrenen)","puntbronnen (akrokrenen)","diffuse bronnen (helokrenen)","overige brontypes","bronbeken","bergbeken","geultype beken","snelstromende zandbeken","laaglandbeken","veenbeken","duinbeken","kwelbeken","sprengenbeken","genormaliseerde beken","overige beektypes","kleine rivieren","grote rivieren","drinkpoelen","grachten","sierwateren","overige stadswateren","zandsloten","veensloten","kleisloten","overige sloten","zandvaarten","veenvaarten","kleivaarten","droogvallende wateren","overige weteringen en vaarten","scheepvaartkanalen","boezem- en polderkanalen","overige kanalen","zeehavens","jachthavens","overige havens","voedselarme (oligotrofe) vennen","dystrofe vennen","mesostrofe vennen","hoogveenvennen","ringvennen","pingo-ruines","overige vennen","regenwatermeren","grondwatermeren","overige duinmeren","afgesloten, oude rivierarmen","open, oude rivierarmen","wielen","zandgaten","grindgaten","kleigaten","petgaten","afgesloten zeearmen","laagveenplassen","oeveraantastingsplassen","droogleggingsplassen","veenpolderplassen","randmeren","overige meren en plassen","dobben","kreken","inlagen","zoute meren","rivierdelta-estuaria","wadden","overige getijdewateren","zee","bronnen","beken","laaglandbeken bovenloop","laaglandbeken middenloop","laaglandbeken benedenloop","heuvellandbeken","heuvellandbeken bovenloop","heuvellandbeken middenloop","heuvellandbeken benedenloop","rivieren","overige rivieren","stadswateren","stromende stadswateren","brede lijnvormige stadswateren","smalle lijnvormige stadswateren","ondiepe niet-lijnvormige stadswateren","diepe niet-lijnvormige stadswateren","sloten","zure sloten","licht brakke sloten","brakke sloten","weteringen en vaarten","kanalen","zandkanalen","veenkanalen","kleikanalen","brakke kanalen","sterk brakke kanalen","havens","vennen en pingo-runes","duinmeren","oude rivierarmen","zand-, grind- en kleigaten","meren en plassen","overige stagnante wateren, al dan niet gegraven","brakke en zoute wateren","getijde wateren en estuaria","binnendijkse, zeer licht brakke tot zoete wateren","binnendijkse, licht brakke wateren","binnendijkse, brakke wateren","binnendijkse, zeer brakken wateren","overige brakke en zoute wateren"], maxItems=1</t>
+  </si>
+  <si>
+    <t>type=string,  enum=["bermsloot","beek","boezemdijksloot","boezemsloot","boezemspoorsloot","boezemwater","dijksloot","gracht","greppel","hoofdwaterloop","kadesloot","kanaal","kavelsloot","leigraaf","wiel","Zandvang","zee","te verlanden sloot","perceelsloot","poldersloot","polderwater","polderwaterloop (polderwatergang)","primair boezemwater","rivier","scheisloot","schouwsloot","secundair boezemwater","sloot","spoorsloot","tertiair boezemwater","tocht","toevoerleiding voor infiltratiewater","uitmonding","vaarsloot","vaart","vliet","voert","waterleiding","waterloop (watergang)","watervoerende weg","wegsloot","wetering","bergingsvijver","dobbe","duinmeer","duinrel","inlaag","karreveld","kreek","kweekvijver","meer","moeras","pingo-ruine","plas","poel","spaarbekken","stadsvijver","ven","vijver","visvijver","weel"], maxItems=1</t>
+  </si>
+  <si>
+    <t>type=string,  enum=["Vastgesteld","Gewijzigd","Verwijderd","Niet van toepassing","In ontwerp"], maxItems=1</t>
+  </si>
+  <si>
+    <t>type=string,  enum=["planvorming","realisatie","gerealiseerd","buiten bedrijf","niet meer aanwezig","te verwijderen","onbekend"], maxItems=1</t>
+  </si>
+  <si>
+    <t>type=string, VerwijstNaar=Vaarweg, maxlength=38, pattern=[^[{]?[0-9a-fA-F]{8}-([0-9a-fA-F]{4}-){3}[0-9a-fA-F]{12}[}]?$], maxItems=1</t>
+  </si>
+  <si>
+    <t>syntax_gerelateerdafaanvoergebied</t>
+  </si>
+  <si>
+    <t>syntax_lateraleknoopid</t>
+  </si>
+  <si>
+    <t>syntax_oppervlakte</t>
+  </si>
+  <si>
+    <t>syntax_ordecode</t>
+  </si>
+  <si>
+    <t>syntax_ordescope</t>
+  </si>
+  <si>
+    <t>syntax_ordesystematiek</t>
+  </si>
+  <si>
+    <t>syntax_soortafvoeraanvoergebied</t>
+  </si>
+  <si>
+    <t>syntax_waterafvoer</t>
+  </si>
+  <si>
+    <t>syntax_bodemhoogtebenedenstrooms</t>
+  </si>
+  <si>
+    <t>syntax_bodemhoogtebovenstrooms</t>
+  </si>
+  <si>
+    <t>bodemval</t>
+  </si>
+  <si>
+    <t>afvoergebiedaanvoergebied</t>
+  </si>
+  <si>
+    <t>type=string, VerwijstNaar=Lateraleknoop, maxlength=38, pattern=[^[{]?[0-9a-fA-F]{8}-([0-9a-fA-F]{4}-){3}[0-9a-fA-F]{12}[}]?$], maxItems=1</t>
+  </si>
+  <si>
+    <t>type=string, enum=["Natuurlijk","Door de mens gemaakt"], maxItems=1</t>
+  </si>
+  <si>
+    <t>type=number, Eenheid="m2", maxlength=12, minItems=1, maxItems=1</t>
+  </si>
+  <si>
+    <t>altijd decimaal getal met max 8 karakters en eenheid 'm2'</t>
+  </si>
+  <si>
+    <t>type=string, default=1, enum=["Unie van Waterschappen / subwerkgroep Geo-informatie"], maxItems=1</t>
+  </si>
+  <si>
+    <t>type=string, default=1, enum=["Nederlandse Methodiek Afvoergebieden"], maxItems=1</t>
+  </si>
+  <si>
+    <t>type=[Polygon, Multipolygon], minItems=1, maxItems=1</t>
+  </si>
+  <si>
+    <t>altijd 1 (Multi_Polygon (geometry)</t>
+  </si>
+  <si>
+    <t>type=string, enum=["Bemalingsgebied","Afvoergebied","Deelstroomgebied","Afwateringsgebied","Afwateringseenheid","Overig","Aanvoergebied"], minItems=1, maxItems=1</t>
+  </si>
+  <si>
+    <t>parameter=hoogtebinnenonderkantbov, min=-8, max=325, inclusive=false</t>
+  </si>
+  <si>
+    <t>parameter=hoogtebinnenonderkantbene, min=-8, max=325, inclusive=false</t>
+  </si>
+  <si>
+    <t>ISIN(parameter=vormkoker, array=[Rond])</t>
+  </si>
+  <si>
+    <t>Het bodemverhang van een duiker moet liggen tussen -2 cm/m (omhoog) en 5 cm/m (omlaag)</t>
+  </si>
+  <si>
+    <t>parameter=slope, min=-0.02, max=0.05, inclusive=false</t>
+  </si>
+  <si>
+    <t>validate_007_verhang_between_2cmpm_en_5cm</t>
+  </si>
+  <si>
+    <t>general_000_kunstwerkopening_hoogstedoorstroomhoogte</t>
+  </si>
+  <si>
+    <t>general_001_kunstwerkopening_laagstedoorstroomhoogte</t>
+  </si>
+  <si>
+    <t>general_002_kunstwerkopening_hoogte_m</t>
+  </si>
+  <si>
+    <t>join_parameter</t>
+  </si>
+  <si>
+    <t>join_object=kunstwerkopening, join_parameter=hoogstedoorstroomhoogte</t>
+  </si>
+  <si>
+    <t>join_object=kunstwerkopening, join_parameter=laagstedoorstroomhoogte</t>
+  </si>
+  <si>
+    <t>left=kunstwerkopening_hoogstedoorstroomhoogte, right=kunstwerkopening_laagstedoorstroomhoogte</t>
+  </si>
+  <si>
+    <t>Bepaal de hoogstedoorstroomhoogte van een kunstwerkopening</t>
+  </si>
+  <si>
+    <t>Bepaal de laagstedoorstroomhoogte van een kunstwerkopening</t>
+  </si>
+  <si>
+    <t>Bepaal de hoogte van een kunstwerkopening</t>
+  </si>
+  <si>
+    <t>parameter=hoogstedoorstroomhoogte, min=-8, max=325, inclusive=false</t>
+  </si>
+  <si>
+    <t>parameter=laaggstedoorstroomhoogte, min=-8, max=325, inclusive=false</t>
+  </si>
+  <si>
+    <t>parameter=minimalehoogtebovenkant, min=-8, max=325, inclusive=false</t>
+  </si>
+  <si>
+    <t>parameter=maximalehoogtebovenkant, min=-8, max=325, inclusive=false</t>
+  </si>
+  <si>
+    <t>parameter=hoogte, min=0.1, max=10, inclusive=false</t>
+  </si>
+  <si>
+    <t>parameter=breedte, min=0.3, max=50, inclusive=false</t>
+  </si>
+  <si>
+    <t>De maximalehoogteopening bij een onderlaat zou kleiner of gelijk zijn aan de hoogte van de kunstwerkopening laagstedoormstroomhoogte</t>
+  </si>
+  <si>
+    <t>ISIN(parameter=overlaatonderlaat, array=[Onderlaat])</t>
+  </si>
+  <si>
+    <t>left=maximalehoogteopening,rigth=kunstwerkopening_hoogte_m</t>
+  </si>
+  <si>
+    <t>general_000_regelmiddel_minimalehoogtebovenkant</t>
+  </si>
+  <si>
+    <t>general_001_regelmiddel_soortregelmiddel</t>
+  </si>
+  <si>
+    <t>general_002_regelmiddel_maximalehoogtebovenkant</t>
+  </si>
+  <si>
+    <t>general_003_regelmiddel_aantal_regelmiddelen</t>
+  </si>
+  <si>
+    <t>statistic=max, related_object=regelmiddel, related_parameter=maximalehoogtebovenkant</t>
+  </si>
+  <si>
+    <t>statistic=count, related_object=regelmiddel, fill_value=0</t>
+  </si>
+  <si>
+    <t>Bepaal het maximum van de maximale hoogte van de onderkant van alle regelmiddelen in deze kunstwerkopening</t>
+  </si>
+  <si>
+    <t>Bepaal het aantal regelmiddelen in deze kunstwerkopening</t>
+  </si>
+  <si>
+    <t>ISIN(parameter=vormopening, array=[Driehoekig,Trapeziumvormig])</t>
+  </si>
+  <si>
+    <t>general_002_kunstwerkopening_hoogstedoorstroombreedte</t>
+  </si>
+  <si>
+    <t>general_003_kunstwerkopening_hoogstedoorstroomhoogte</t>
+  </si>
+  <si>
+    <t>statistic=majority, related_object=kunstwerkopening, related_parameter=regelmiddel_soortregelmiddel</t>
+  </si>
+  <si>
+    <t>statistic=min, related_object=kunstwerkopening, related_parameter=laagstedoorstroomhoogte</t>
+  </si>
+  <si>
+    <t>Bepaal het minimum van de laagste doorstroomhoogte van alle kunstwerkopeningen in deze stuw</t>
+  </si>
+  <si>
+    <t>statistic=sum, related_object=kunstwerkopening, related_parameter=regelmiddel_aantal_regelmiddelen</t>
+  </si>
+  <si>
+    <t>Bepaal de som van alle regelmiddelen in alle kunstwerkopeningen in deze stuw</t>
+  </si>
+  <si>
+    <t>parameter=constructiehoogte, min=-8, max=325, inclusive=false</t>
+  </si>
+  <si>
+    <t>validate_004_kruinbreedte_ge_doorstroombreedte</t>
+  </si>
+  <si>
+    <t>left=kruinbreedte, right=kunstwerkopening_hoogstedoorstroombreedte</t>
+  </si>
+  <si>
+    <t>kruinbreedte&gt;kunstwerkopening_hoogstedoorstroombreedte</t>
+  </si>
+  <si>
+    <t>De hoogste doorstroomhoogte van de kunstwerkopening zal lager of gelijk zijn aan de constructiehoogte</t>
+  </si>
+  <si>
+    <t>Een regelbare stuw heeft minimaal 1 kunstwerkopening waaraan een regelmiddel is gekoppeld</t>
+  </si>
+  <si>
+    <t>ISIN(parameter=soortregelbaarheid, array=["regelbaar, automatisch","regelbaar, niet automatisch"])</t>
+  </si>
+  <si>
+    <t>left=kunstwerkopening_regelmiddel_aantal_regelmiddelen,right=0</t>
+  </si>
+  <si>
+    <t>kunstwerkopening_regelmiddel_aantal_regelmiddelen&gt;0</t>
+  </si>
+  <si>
+    <t>general_002_kunstwerkopening_laagstedoorstroombreedte</t>
+  </si>
+  <si>
+    <t>general_003_kunstwerkopening_hoogstedoorstroombreedte</t>
+  </si>
+  <si>
+    <t>statistic=sum, related_object=kunstwerkopening, related_parameter=laagstedoorstroombreedte</t>
+  </si>
+  <si>
+    <t>statistic=sum, related_object=kunstwerkopening, related_parameter=hoogstedoorstroombreedte</t>
+  </si>
+  <si>
+    <t>Bepaal de totale laagste doorstroombreedte van alle kunstwerkopeningen in de brug</t>
+  </si>
+  <si>
+    <t>Bepaal de totale hoogste doorstroombreedte van alle kunstwerkopeningen in de brug</t>
+  </si>
+  <si>
+    <t>Bepaal de minimale laagste doorstroomhoogte alle kunstwerkopeningen in de brug</t>
+  </si>
+  <si>
+    <t>parameter=hoogtebovenzijde, min=-8, max=325, inclusiev=false</t>
+  </si>
+  <si>
+    <t>parameter=hoogteonderzijde, min=-8, max=325, inclusiev=false</t>
+  </si>
+  <si>
+    <t>parameter=lengte, min=1, max=10, inclusiev=false</t>
+  </si>
+  <si>
+    <t>validate_003_laagstedoorstroombreedte_plausibel</t>
+  </si>
+  <si>
+    <t>parameter=kunstwerkopening_laagstedoorstroombreedte, min=1, max=50, inclusiev=false</t>
+  </si>
+  <si>
+    <t>1&lt;kunstwerkopening_laagstedoorstroombreedte&lt;50</t>
+  </si>
+  <si>
+    <t>Een brug moet een plausibele laagste doorstroombreedte hebben</t>
+  </si>
+  <si>
+    <t>Hydroobject kruist zichzelf alleen in combinatie met een duikersifonhevel of aquaduct</t>
+  </si>
+  <si>
+    <t>areas=peilgebiedpraktijk, structures=[gemaal,stuw,duikersifonhevel], tolerance=0.01, distance=25</t>
+  </si>
+  <si>
+    <t>Een stuw, gemaal of bodemval moet een hydroobject opsplitsen</t>
+  </si>
+  <si>
+    <t>validate_006_kunstwerk_op_peilscheiding</t>
+  </si>
+  <si>
+    <t>areas=peilafwijkinggebied, structures=[gemaal,stuw,duikersifonhevel], tolerance=0.01, distance=25</t>
+  </si>
+  <si>
+    <t>Waar een hydroobject een grens van een peilafwijkinggebied doorkruist, moet een peilscheidend kunstwerk liggen</t>
+  </si>
+  <si>
+    <t>Waar een hydroobject een grens van een peilgebiedpraktijk doorkruist, moet een peilscheidend kunstwerk liggen</t>
+  </si>
+  <si>
+    <t>-8&lt;laagstedoorstroomhoogte&lt;325</t>
+  </si>
+  <si>
+    <t>leeg of 1 tekstwaarde uit bestaande opsomming</t>
+  </si>
+  <si>
+    <t>altijd 1 unieke tekstwaarde uit bestaande opsomming</t>
+  </si>
+  <si>
+    <t>hoogtebinnenonderkantbov-hoogtebinnenonderkantbene</t>
+  </si>
+  <si>
+    <t>ABS(hoogtebinnenonderkantbov-hoogtebinnenonderkantbene)</t>
+  </si>
+  <si>
+    <t>delta_h/lengte</t>
+  </si>
+  <si>
+    <t>validate_005_maximalehoogteopening_plausibel</t>
+  </si>
+  <si>
+    <t>altijd 1 tekstwaarde uit bestaande opsomming</t>
+  </si>
+  <si>
+    <t>type=string, enum=["niet regelbaar (vast)","regelbaar, niet automatisch","regelbaar, automatisch","handmatig","overig"], maxItems=1, minItems=1</t>
+  </si>
+  <si>
+    <t>validate_007_aantal_regelmiddelen_gt_zero</t>
+  </si>
+  <si>
+    <t>ISIN(parameter=overlaatonderlaat, array=[Overlaat])</t>
+  </si>
+  <si>
+    <t>left=minimalehoogtebovenkant, right=kunstwerkopening_laagstedoorstroomhoogte</t>
+  </si>
+  <si>
+    <t>validate_006_minimalehoogteoverlaat_plausibel</t>
+  </si>
+  <si>
     <r>
-      <t>hoogstedoorstroomhoogte</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Symbol"/>
-        <family val="1"/>
-        <charset val="2"/>
-      </rPr>
-      <t xml:space="preserve"> £</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>hoogtecontructie</t>
-    </r>
-  </si>
-  <si>
-    <t>Er mogen niet meerdere stuwen op (nagenoeg) dezelfde locatie liggen</t>
-  </si>
-  <si>
-    <t>distant_to_others</t>
-  </si>
-  <si>
-    <t>distance=1</t>
-  </si>
-  <si>
-    <t>Het maximum van de minimale hoogte van de onderkant van een schuif als onderlaat zal lager of gelijk zijn aan de hoogste doorstroomhoogte</t>
-  </si>
-  <si>
-    <t>leeg of decimaal getal met max 8 karakters en eenheid 'm'</t>
-  </si>
-  <si>
-    <t>leeg of decimaal getal met max 8 karakters en eenheid 'm NAP'</t>
-  </si>
-  <si>
-    <t>type=string, enum=["ja","nee"], maxItems=1</t>
-  </si>
-  <si>
-    <t>type=string, VerwijstNaar=RegenwaterbufferCompart, maxlength=38, pattern=[^[{]?[0-9a-fA-F]{8}-([0-9a-fA-F]{4}-){3}[0-9a-fA-F]{12}[}]?$], maxItems=1</t>
-  </si>
-  <si>
-    <t>leeg of decimaal getal met max 5 karakters</t>
-  </si>
-  <si>
-    <t>type=Point, minItems=1, maxItems=1</t>
-  </si>
-  <si>
-    <t>type=string, enum=["schotbalkstuw","stuw met schuif","stuw met klep","segmentstuw","cascadestuw","hevelstuw","meetstuw","meetschot","stuw met contra-gewicht","inlaat- en/of aflaatstuw","overlaat","drijverstuw","trommelstuw","gronddamstuw","stuwbak","tuimel- of kantelstuw","balgstuw","brievenbusstuw","knijpstuw","conserveringstuw","onbekend"], maxItems=1</t>
-  </si>
-  <si>
-    <t>brug</t>
-  </si>
-  <si>
-    <t>syntax_doorvaartbreedte</t>
-  </si>
-  <si>
-    <t>syntax_hoogtebovenzijde</t>
-  </si>
-  <si>
-    <t>syntax_hoogteonderzijde</t>
-  </si>
-  <si>
-    <t>syntax_soortoverspanning</t>
-  </si>
-  <si>
-    <t>validate_000_hoogtebovenzijde_plausibel</t>
-  </si>
-  <si>
-    <t>validate_001_hoogteonderzijde_plausibel</t>
-  </si>
-  <si>
-    <t>validate_002_lengte_plausibel</t>
-  </si>
-  <si>
-    <t>-8&lt;hoogtebovenzijde&lt;325</t>
-  </si>
-  <si>
-    <t>De hoogte bovenzijde is plausibel (ligt tussen -8  en 325 m NAP)</t>
-  </si>
-  <si>
-    <t>-8&lt;hoogteonderzijde&lt;325</t>
-  </si>
-  <si>
-    <t>De hoogte onderzijde is plausibel (ligt tussen -8  en 325 m NAP)</t>
-  </si>
-  <si>
-    <t>1&lt;lengte&lt;10</t>
-  </si>
-  <si>
-    <t>De lengte is plausibel (ligt tussen 1  en 10 m)</t>
-  </si>
-  <si>
-    <t>altijd decimaal getal met max 8 karakters</t>
-  </si>
-  <si>
-    <t>type=string, enum=["vrije overspanning","overspanning via tussenpunten","overspanning via landhoofden binnen het doorstroomprofiel","overspan. via landhfd. binnen doorstroomprof. en tussenpunten","overig","onbekend"], maxItems=1</t>
-  </si>
-  <si>
-    <t>type=string, default=2, enum=["Aquaduct","Brug","Duiker","Sifon","Hevel","Bypass"], maxItems=1</t>
-  </si>
-  <si>
-    <t>type=string, enum=["Chezy","Manning","StricklerKn","StricklerKs","White Colebrook","Bos en Bijkerk"], minItems=1, maxItems=1</t>
-  </si>
-  <si>
-    <t>pomp</t>
-  </si>
-  <si>
-    <t>syntax_maximalecapaciteit</t>
-  </si>
-  <si>
-    <t>syntax_minimalecapaciteit</t>
-  </si>
-  <si>
-    <t>syntax_opstellingpomp</t>
-  </si>
-  <si>
-    <t>syntax_pompcurve</t>
-  </si>
-  <si>
-    <t>syntax_pomprichting</t>
-  </si>
-  <si>
-    <t>syntax_rioolgemaalid</t>
-  </si>
-  <si>
-    <t>syntax_soortaandrijving</t>
-  </si>
-  <si>
-    <t>syntax_typepomp</t>
-  </si>
-  <si>
-    <t>syntax_typepompschakeling</t>
-  </si>
-  <si>
-    <t>validate_000_capaciteit_gt_0</t>
-  </si>
-  <si>
-    <t>left=maximalecapaciteit,right=0</t>
-  </si>
-  <si>
-    <t>maximalecapaciteit&gt;0</t>
-  </si>
-  <si>
-    <t>De capaciteit groter dan 0</t>
-  </si>
-  <si>
-    <t>altijd 1 tekstwaarde met max 50 karakters</t>
-  </si>
-  <si>
-    <t>type=number, Eenheid="m3/minuut", maxlength=8, minItems=1, maxItems=1</t>
-  </si>
-  <si>
-    <t>altijd decimaal getal met max 8 karakters en eenheid 'm3/minuut'</t>
-  </si>
-  <si>
-    <t>type=number, Eenheid="m3/minuut", maxlength=8, maxItems=1</t>
-  </si>
-  <si>
-    <t>leeg of decimaal getal met max 8 karakters en eenheid 'm3/minuut'</t>
-  </si>
-  <si>
-    <t>type=string, enum=["Gemaal droge opstelling","Gemaal natte opstelling","Overig","Onbekend"], maxItems=1</t>
-  </si>
-  <si>
-    <t>type=string, enum=["Positief","Negatief","Beide"], maxItems=1</t>
-  </si>
-  <si>
-    <t>type=string, VerwijstNaar=Rioolgemaal, maxlength=38, pattern=[^[{]?[0-9a-fA-F]{8}-([0-9a-fA-F]{4}-){3}[0-9a-fA-F]{12}[}]?$], maxItems=1</t>
-  </si>
-  <si>
-    <t>type=string, enum=["Vijzelgemaal","Centrifugaal","Schroefcentrifugaal","Schroef","Diesel","Elektrisch","Wind","Zonne-energie","Axiaal","Halfaxiaal","Radiaal","Ntb","Overig","Onbekend"], maxItems=1</t>
-  </si>
-  <si>
-    <t>type=string, enum=["Versnijdend","Vuildoorlatend","Overig","Onbekend"], maxItems=1</t>
-  </si>
-  <si>
-    <t>type=string, enum=["Enkelloop","Samenloop","Overig","Onbekend"], maxItems=1</t>
-  </si>
-  <si>
-    <t>gemaal</t>
-  </si>
-  <si>
-    <t>syntax_afslagpeil</t>
-  </si>
-  <si>
-    <t>syntax_functiegemaal</t>
-  </si>
-  <si>
-    <t>general_000_aantal_pompen</t>
-  </si>
-  <si>
-    <t>general_001_capaciteit</t>
-  </si>
-  <si>
-    <t>validate_000_aantal_pompen_gt_0</t>
-  </si>
-  <si>
-    <t>validate_001_capaciteit_gt_0</t>
-  </si>
-  <si>
-    <t>left=aantal_pompen, right=0</t>
-  </si>
-  <si>
-    <t>aantal_pompen&gt;0</t>
-  </si>
-  <si>
-    <t>Het aantal pompen is groter dan nul</t>
-  </si>
-  <si>
-    <t>De totale capaciteit is groter dan nul</t>
-  </si>
-  <si>
-    <t>left=capaciteit, right=0</t>
-  </si>
-  <si>
-    <t>capaciteit&gt;0</t>
-  </si>
-  <si>
-    <t>statistic=sum, related_object=pomp, related_parameter=maximalecapaciteit, fill_value=0</t>
-  </si>
-  <si>
-    <t>Bepaal de som van de maximale capaciteit van alle pompen in dit gemaal</t>
-  </si>
-  <si>
-    <t>statistic=count, related_object=pomp, fill_value=0</t>
-  </si>
-  <si>
-    <t>Bepaal het aantal pompen in dit gemaal</t>
-  </si>
-  <si>
-    <t>leeg of decimaal getal met max 8 karakters</t>
-  </si>
-  <si>
-    <t>type=string, maxlength=50, minItems=1, maxItems=1</t>
-  </si>
-  <si>
-    <t>type=string, enum=["Af- en Aanvoergemaal","Noodpomp","Onderbemaling / opmaling","Doorspoelgemaal","Overig","Onbekend","Aanvoergemaal","Afvoergemaal","Opmaling","Onderbemaling"], maxItems=1</t>
-  </si>
-  <si>
-    <t>hydroobject</t>
-  </si>
-  <si>
-    <t>syntax_categorieoppwaterlichaam</t>
-  </si>
-  <si>
-    <t>syntax_draineert</t>
-  </si>
-  <si>
-    <t>syntax_getijdebeinvloed</t>
-  </si>
-  <si>
-    <t>syntax_hydroobjectgroeperingid</t>
-  </si>
-  <si>
-    <t>syntax_krwstromendid</t>
-  </si>
-  <si>
-    <t>syntax_niveau</t>
-  </si>
-  <si>
-    <t>syntax_ontstaanswijze</t>
-  </si>
-  <si>
-    <t>syntax_oppervlaktewaterlichaamid</t>
-  </si>
-  <si>
-    <t>syntax_oppwatervolgnummer</t>
-  </si>
-  <si>
-    <t>syntax_persistentie</t>
-  </si>
-  <si>
-    <t>syntax_ruimtelijkeafbakeningbekend</t>
-  </si>
-  <si>
-    <t>syntax_ruwheidswaardehoog</t>
-  </si>
-  <si>
-    <t>syntax_ruwheidswaardelaag</t>
-  </si>
-  <si>
-    <t>syntax_soortoppwaterkwaliteit</t>
-  </si>
-  <si>
-    <t>syntax_soortoppwaterkwantiteit</t>
-  </si>
-  <si>
-    <t>syntax_vaarwegid</t>
-  </si>
-  <si>
-    <t>validate_000_lengte_gt_1m</t>
-  </si>
-  <si>
-    <t>validate_001_goed_gesplitst</t>
-  </si>
-  <si>
-    <t>validate_002_goede_kruising</t>
-  </si>
-  <si>
-    <t>validate_003_geen_eindpunt</t>
-  </si>
-  <si>
-    <t>validate_004_kunstwerk_op_peilscheiding</t>
-  </si>
-  <si>
-    <t>validate_005_kunstwerk_tussen_hobject</t>
-  </si>
-  <si>
-    <t>geometry_length</t>
-  </si>
-  <si>
-    <t>length=1, statistic=min</t>
-  </si>
-  <si>
-    <t>Hydroobject heeft voldoende lengte voor modelverwerking (minimaal 1 m)</t>
-  </si>
-  <si>
-    <t>splitted_at_junction</t>
-  </si>
-  <si>
-    <t>Een hydroobject wordt gescheiden bij een samenkomst of opsplitsing</t>
-  </si>
-  <si>
-    <t>structures_at_intersections</t>
-  </si>
-  <si>
-    <t>tolerance=0.01, structure=[duikersifonhevel]</t>
-  </si>
-  <si>
-    <t>Hydroobject vormt een consistent geheel, er zijn geen "doodlopende" routes</t>
-  </si>
-  <si>
-    <t>no_dangling_node</t>
-  </si>
-  <si>
-    <t>structures_at_boundaries</t>
-  </si>
-  <si>
-    <t>structures_at_nodes</t>
-  </si>
-  <si>
-    <t>structures=[gemaal,stuw,duikersifonhevel], tolerance=1</t>
-  </si>
-  <si>
-    <t>type=string, enum=["primair","secundair","tertiair","overig"], minItems=1, maxItems=1</t>
-  </si>
-  <si>
-    <t>type=string, default=n, enum=["ja","nee"], maxItems=1</t>
-  </si>
-  <si>
-    <t>type=string, VerwijstNaar=HydroObjectGroepering, maxlength=38, pattern=[^[{]?[0-9a-fA-F]{8}-([0-9a-fA-F]{4}-){3}[0-9a-fA-F]{12}[}]?$], maxItems=1</t>
-  </si>
-  <si>
-    <t>type=string, VerwijstNaar=KRWOppwStromend, maxlength=38, pattern=[^[{]?[0-9a-fA-F]{8}-([0-9a-fA-F]{4}-){3}[0-9a-fA-F]{12}[}]?$], maxItems=1</t>
-  </si>
-  <si>
-    <t>type=string, default=1, enum=["op maaiveld","boven maaiveld","onder bodem/maaiveld"], maxItems=1</t>
-  </si>
-  <si>
-    <t>type=integer, maxlength=10, uniqueItems=true, maxItems=1</t>
-  </si>
-  <si>
-    <t>type=string,  enum=["Natuurlijk","Door de mens gemaakt"], maxItems=1</t>
-  </si>
-  <si>
-    <t>type=string, VerwijstNaar=Oppervlaktewaterlichaam, maxlength=38, pattern=[^[{]?[0-9a-fA-F]{8}-([0-9a-fA-F]{4}-){3}[0-9a-fA-F]{12}[}]?$], maxItems=1</t>
-  </si>
-  <si>
-    <t>type=integer, maxlength=8, maxItems=1</t>
-  </si>
-  <si>
-    <t>leeg of 1 geheel getal met max 8 karakters</t>
-  </si>
-  <si>
-    <t>type=string,  enum=["droog","kortstondig","afwisselend","continue"], maxItems=1</t>
-  </si>
-  <si>
-    <t>type=string,  enum=["ja","nee"], maxItems=1</t>
-  </si>
-  <si>
-    <t>type=string,  enum=["trechtervormige bronnen (limnokrenen)","verticale bronnen (rheokrenen)","puntbronnen (akrokrenen)","diffuse bronnen (helokrenen)","overige brontypes","bronbeken","bergbeken","geultype beken","snelstromende zandbeken","laaglandbeken","veenbeken","duinbeken","kwelbeken","sprengenbeken","genormaliseerde beken","overige beektypes","kleine rivieren","grote rivieren","drinkpoelen","grachten","sierwateren","overige stadswateren","zandsloten","veensloten","kleisloten","overige sloten","zandvaarten","veenvaarten","kleivaarten","droogvallende wateren","overige weteringen en vaarten","scheepvaartkanalen","boezem- en polderkanalen","overige kanalen","zeehavens","jachthavens","overige havens","voedselarme (oligotrofe) vennen","dystrofe vennen","mesostrofe vennen","hoogveenvennen","ringvennen","pingo-ruines","overige vennen","regenwatermeren","grondwatermeren","overige duinmeren","afgesloten, oude rivierarmen","open, oude rivierarmen","wielen","zandgaten","grindgaten","kleigaten","petgaten","afgesloten zeearmen","laagveenplassen","oeveraantastingsplassen","droogleggingsplassen","veenpolderplassen","randmeren","overige meren en plassen","dobben","kreken","inlagen","zoute meren","rivierdelta-estuaria","wadden","overige getijdewateren","zee","bronnen","beken","laaglandbeken bovenloop","laaglandbeken middenloop","laaglandbeken benedenloop","heuvellandbeken","heuvellandbeken bovenloop","heuvellandbeken middenloop","heuvellandbeken benedenloop","rivieren","overige rivieren","stadswateren","stromende stadswateren","brede lijnvormige stadswateren","smalle lijnvormige stadswateren","ondiepe niet-lijnvormige stadswateren","diepe niet-lijnvormige stadswateren","sloten","zure sloten","licht brakke sloten","brakke sloten","weteringen en vaarten","kanalen","zandkanalen","veenkanalen","kleikanalen","brakke kanalen","sterk brakke kanalen","havens","vennen en pingo-runes","duinmeren","oude rivierarmen","zand-, grind- en kleigaten","meren en plassen","overige stagnante wateren, al dan niet gegraven","brakke en zoute wateren","getijde wateren en estuaria","binnendijkse, zeer licht brakke tot zoete wateren","binnendijkse, licht brakke wateren","binnendijkse, brakke wateren","binnendijkse, zeer brakken wateren","overige brakke en zoute wateren"], maxItems=1</t>
-  </si>
-  <si>
-    <t>type=string,  enum=["bermsloot","beek","boezemdijksloot","boezemsloot","boezemspoorsloot","boezemwater","dijksloot","gracht","greppel","hoofdwaterloop","kadesloot","kanaal","kavelsloot","leigraaf","wiel","Zandvang","zee","te verlanden sloot","perceelsloot","poldersloot","polderwater","polderwaterloop (polderwatergang)","primair boezemwater","rivier","scheisloot","schouwsloot","secundair boezemwater","sloot","spoorsloot","tertiair boezemwater","tocht","toevoerleiding voor infiltratiewater","uitmonding","vaarsloot","vaart","vliet","voert","waterleiding","waterloop (watergang)","watervoerende weg","wegsloot","wetering","bergingsvijver","dobbe","duinmeer","duinrel","inlaag","karreveld","kreek","kweekvijver","meer","moeras","pingo-ruine","plas","poel","spaarbekken","stadsvijver","ven","vijver","visvijver","weel"], maxItems=1</t>
-  </si>
-  <si>
-    <t>type=string,  enum=["Vastgesteld","Gewijzigd","Verwijderd","Niet van toepassing","In ontwerp"], maxItems=1</t>
-  </si>
-  <si>
-    <t>type=string,  enum=["planvorming","realisatie","gerealiseerd","buiten bedrijf","niet meer aanwezig","te verwijderen","onbekend"], maxItems=1</t>
-  </si>
-  <si>
-    <t>type=string, VerwijstNaar=Vaarweg, maxlength=38, pattern=[^[{]?[0-9a-fA-F]{8}-([0-9a-fA-F]{4}-){3}[0-9a-fA-F]{12}[}]?$], maxItems=1</t>
-  </si>
-  <si>
-    <t>syntax_gerelateerdafaanvoergebied</t>
-  </si>
-  <si>
-    <t>syntax_lateraleknoopid</t>
-  </si>
-  <si>
-    <t>syntax_oppervlakte</t>
-  </si>
-  <si>
-    <t>syntax_ordecode</t>
-  </si>
-  <si>
-    <t>syntax_ordescope</t>
-  </si>
-  <si>
-    <t>syntax_ordesystematiek</t>
-  </si>
-  <si>
-    <t>syntax_soortafvoeraanvoergebied</t>
-  </si>
-  <si>
-    <t>syntax_waterafvoer</t>
-  </si>
-  <si>
-    <t>syntax_bodemhoogtebenedenstrooms</t>
-  </si>
-  <si>
-    <t>syntax_bodemhoogtebovenstrooms</t>
-  </si>
-  <si>
-    <t>bodemval</t>
-  </si>
-  <si>
-    <t>afvoergebiedaanvoergebied</t>
-  </si>
-  <si>
-    <t>type=string, VerwijstNaar=Lateraleknoop, maxlength=38, pattern=[^[{]?[0-9a-fA-F]{8}-([0-9a-fA-F]{4}-){3}[0-9a-fA-F]{12}[}]?$], maxItems=1</t>
-  </si>
-  <si>
-    <t>type=string, enum=["Natuurlijk","Door de mens gemaakt"], maxItems=1</t>
-  </si>
-  <si>
-    <t>type=number, Eenheid="m2", maxlength=12, minItems=1, maxItems=1</t>
-  </si>
-  <si>
-    <t>altijd decimaal getal met max 8 karakters en eenheid 'm2'</t>
-  </si>
-  <si>
-    <t>type=string, default=1, enum=["Unie van Waterschappen / subwerkgroep Geo-informatie"], maxItems=1</t>
-  </si>
-  <si>
-    <t>type=string, default=1, enum=["Nederlandse Methodiek Afvoergebieden"], maxItems=1</t>
-  </si>
-  <si>
-    <t>type=[Polygon, Multipolygon], minItems=1, maxItems=1</t>
-  </si>
-  <si>
-    <t>altijd 1 (Multi_Polygon (geometry)</t>
-  </si>
-  <si>
-    <t>type=string, enum=["Bemalingsgebied","Afvoergebied","Deelstroomgebied","Afwateringsgebied","Afwateringseenheid","Overig","Aanvoergebied"], minItems=1, maxItems=1</t>
-  </si>
-  <si>
-    <t>parameter=hoogtebinnenonderkantbov, min=-8, max=325, inclusive=false</t>
-  </si>
-  <si>
-    <t>parameter=hoogtebinnenonderkantbene, min=-8, max=325, inclusive=false</t>
-  </si>
-  <si>
-    <t>ISIN(parameter=vormkoker, array=[Rond])</t>
-  </si>
-  <si>
-    <t>Het bodemverhang van een duiker moet liggen tussen -2 cm/m (omhoog) en 5 cm/m (omlaag)</t>
-  </si>
-  <si>
-    <t>parameter=slope, min=-0.02, max=0.05, inclusive=false</t>
-  </si>
-  <si>
-    <t>validate_007_verhang_between_2cmpm_en_5cm</t>
-  </si>
-  <si>
-    <t>general_000_kunstwerkopening_hoogstedoorstroomhoogte</t>
-  </si>
-  <si>
-    <t>general_001_kunstwerkopening_laagstedoorstroomhoogte</t>
-  </si>
-  <si>
-    <t>general_002_kunstwerkopening_hoogte_m</t>
-  </si>
-  <si>
-    <t>join_parameter</t>
-  </si>
-  <si>
-    <t>join_object=kunstwerkopening, join_parameter=hoogstedoorstroomhoogte</t>
-  </si>
-  <si>
-    <t>join_object=kunstwerkopening, join_parameter=laagstedoorstroomhoogte</t>
-  </si>
-  <si>
-    <t>left=kunstwerkopening_hoogstedoorstroomhoogte, right=kunstwerkopening_laagstedoorstroomhoogte</t>
-  </si>
-  <si>
-    <t>Bepaal de hoogstedoorstroomhoogte van een kunstwerkopening</t>
-  </si>
-  <si>
-    <t>Bepaal de laagstedoorstroomhoogte van een kunstwerkopening</t>
-  </si>
-  <si>
-    <t>Bepaal de hoogte van een kunstwerkopening</t>
-  </si>
-  <si>
-    <t>parameter=hoogstedoorstroomhoogte, min=-8, max=325, inclusive=false</t>
-  </si>
-  <si>
-    <t>parameter=laaggstedoorstroomhoogte, min=-8, max=325, inclusive=false</t>
-  </si>
-  <si>
-    <t>parameter=minimalehoogtebovenkant, min=-8, max=325, inclusive=false</t>
-  </si>
-  <si>
-    <t>parameter=maximalehoogtebovenkant, min=-8, max=325, inclusive=false</t>
-  </si>
-  <si>
-    <t>parameter=hoogte, min=0.1, max=10, inclusive=false</t>
-  </si>
-  <si>
-    <t>parameter=breedte, min=0.3, max=50, inclusive=false</t>
-  </si>
-  <si>
-    <t>De maximalehoogteopening bij een onderlaat zou kleiner of gelijk zijn aan de hoogte van de kunstwerkopening laagstedoormstroomhoogte</t>
-  </si>
-  <si>
-    <t>ISIN(parameter=overlaatonderlaat, array=[Onderlaat])</t>
-  </si>
-  <si>
-    <t>left=maximalehoogteopening,rigth=kunstwerkopening_hoogte_m</t>
-  </si>
-  <si>
-    <r>
-      <t>maximalehoogteopening</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Symbol"/>
-        <family val="1"/>
-        <charset val="2"/>
-      </rPr>
-      <t>£</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>kunstwerkopening_hoogte_m</t>
-    </r>
-  </si>
-  <si>
-    <t>general_000_regelmiddel_minimalehoogtebovenkant</t>
-  </si>
-  <si>
-    <t>general_001_regelmiddel_soortregelmiddel</t>
-  </si>
-  <si>
-    <t>general_002_regelmiddel_maximalehoogtebovenkant</t>
-  </si>
-  <si>
-    <t>general_003_regelmiddel_aantal_regelmiddelen</t>
-  </si>
-  <si>
-    <t>statistic=max, related_object=regelmiddel, related_parameter=maximalehoogtebovenkant</t>
-  </si>
-  <si>
-    <t>statistic=count, related_object=regelmiddel, fill_value=0</t>
-  </si>
-  <si>
-    <t>Bepaal het maximum van de maximale hoogte van de onderkant van alle regelmiddelen in deze kunstwerkopening</t>
-  </si>
-  <si>
-    <t>Bepaal het aantal regelmiddelen in deze kunstwerkopening</t>
-  </si>
-  <si>
-    <t>ISIN(parameter=vormopening, array=[Driehoekig,Trapeziumvormig])</t>
-  </si>
-  <si>
-    <t>general_002_kunstwerkopening_hoogstedoorstroombreedte</t>
-  </si>
-  <si>
-    <t>general_003_kunstwerkopening_hoogstedoorstroomhoogte</t>
-  </si>
-  <si>
-    <t>general_004_kunstwerkopening_regelmiddel_minimalehoogtebovenkant</t>
-  </si>
-  <si>
-    <t>statistic=min, related_object=kunstwerkopening, related_parameter=regelmiddel_minimalehoogtebovenkant</t>
-  </si>
-  <si>
-    <t>statistic=majority, related_object=kunstwerkopening, related_parameter=regelmiddel_soortregelmiddel</t>
-  </si>
-  <si>
-    <t>general_005_kunstwerkopening_regelmiddel_soortregelmiddel</t>
-  </si>
-  <si>
-    <t>general_006_kunstwerkopening_laagstedoorstroomhoogte</t>
-  </si>
-  <si>
-    <t>general_007_kunstwerkopening_regelmiddel_minimalehoogtebovenkant</t>
-  </si>
-  <si>
-    <t>general_008_kunstwerkopening_regelmiddel_aantal_regelmiddelen</t>
-  </si>
-  <si>
-    <t>statistic=min, related_object=kunstwerkopening, related_parameter=laagstedoorstroomhoogte</t>
-  </si>
-  <si>
-    <t>statistic=max, related_object=kunstwerkopening, related_parameter=regelmiddel_minimalehoogtebovenkant</t>
-  </si>
-  <si>
-    <t>Bepaal het minimum van de laagste doorstroomhoogte van alle kunstwerkopeningen in deze stuw</t>
-  </si>
-  <si>
-    <t>Bepaal het minimum van de minimale  hoogte bovenkant van alle kunstwerkopeningen in deze stuw</t>
-  </si>
-  <si>
-    <t>statistic=sum, related_object=kunstwerkopening, related_parameter=regelmiddel_aantal_regelmiddelen</t>
-  </si>
-  <si>
-    <t>Bepaal het maximum van de minimale hoogte bovenkant van de regelmiddelen in alle kunstwerkopeningen in deze stuw</t>
-  </si>
-  <si>
-    <t>Bepaal de som van alle regelmiddelen in alle kunstwerkopeningen in deze stuw</t>
-  </si>
-  <si>
-    <t>parameter=constructiehoogte, min=-8, max=325, inclusive=false</t>
-  </si>
-  <si>
-    <t>validate_004_kruinbreedte_ge_doorstroombreedte</t>
-  </si>
-  <si>
-    <t>left=kruinbreedte, right=kunstwerkopening_hoogstedoorstroombreedte</t>
-  </si>
-  <si>
-    <t>kruinbreedte&gt;kunstwerkopening_hoogstedoorstroombreedte</t>
-  </si>
-  <si>
-    <t>De hoogste doorstroomhoogte van de kunstwerkopening zal lager of gelijk zijn aan de constructiehoogte</t>
-  </si>
-  <si>
-    <t>validate_007_min_hoogte_onderkant_ge_hoogste_doorstroomhoogte</t>
-  </si>
-  <si>
-    <t>ISIN(parameter=kunstwerkopening_regelmiddel_soortregelmiddel, array=[schuif])</t>
-  </si>
-  <si>
-    <t>left=kunstwerkopening_regelmiddel_minimalehoogtebovenkant, right=kunstwerkopening_hoogstedoorstroomhoogte</t>
-  </si>
-  <si>
-    <t>De maximale hoogte van een stuwklep zal lager of gelijk zijn aan de hoogste doorstroomhoogte</t>
-  </si>
-  <si>
-    <t>validate_008_max_hoogtebov_le_hoogste_doorstroomhoogte</t>
-  </si>
-  <si>
-    <t>ISIN(parameter=kunstwerkopening_regelmiddel_soortregelmiddel, array=[stuwklep])</t>
-  </si>
-  <si>
-    <t>left=kunstwerkopening_regelmiddel_maximalehoogtebovenkant, right=kunstwerkopening_hoogstedoorstroomhoogte</t>
-  </si>
-  <si>
-    <r>
-      <t>kunstwerkopening_regelmiddel_minimalehoogtebovenkant</t>
+      <t>minimalehoogtebovenkant</t>
     </r>
     <r>
       <rPr>
@@ -1591,22 +1604,66 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>kunstwerkopening_hoogstedoorstroomhoogte</t>
+      <t>kunstwerkopening_laagstedoorstroomhoogte</t>
     </r>
   </si>
   <si>
+    <t>De minimale hoogte van een overlaat zou hoger moeten zijn dan de laagstedoorstroomhoogte van de kunstwerkopening</t>
+  </si>
+  <si>
+    <t>De maximale hoogte van een overlaat zou lager moeten zijn dan de hoogstedoorstroomhoogte van de kunstwerkopening</t>
+  </si>
+  <si>
+    <t>validate_007_maximalehoogteoverlaat_plausibel</t>
+  </si>
+  <si>
+    <t>left=maximalehoogtebovenkant, right=kunstwerkopening_hoogstedoorstroomhoogte</t>
+  </si>
+  <si>
+    <t>general_004_kunstwerkopening_regelmiddel_soortregelmiddel</t>
+  </si>
+  <si>
+    <t>general_005_kunstwerkopening_laagstedoorstroomhoogte</t>
+  </si>
+  <si>
+    <t>general_006_kunstwerkopening_regelmiddel_aantal_regelmiddelen</t>
+  </si>
+  <si>
     <r>
-      <t>kunstwerkopening_regelmiddel_maximalehoogtebovenkant</t>
+      <t>maximalehoogteopening</t>
     </r>
     <r>
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Symbol"/>
-        <family val="1"/>
-        <charset val="2"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
-      <t>£</t>
+      <t>≤</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>kunstwerkopening_hoogte_m</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>maximalehoogtebovenkant</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>≤</t>
     </r>
     <r>
       <rPr>
@@ -1620,122 +1677,35 @@
     </r>
   </si>
   <si>
-    <t>De minimale hoogte van een stuwklep zal hoger of gelijk zijn aan de laagste doorstroomhoogte</t>
-  </si>
-  <si>
-    <t>validate_009_min_hoogtebov_ge_hoogste_doorstroomhoogte</t>
-  </si>
-  <si>
-    <t>Een regelbare stuw heeft minimaal 1 kunstwerkopening waaraan een regelmiddel is gekoppeld</t>
-  </si>
-  <si>
-    <t>validate_010_aantal_regelmiddelen_gt_zero</t>
-  </si>
-  <si>
-    <t>ISIN(parameter=soortregelbaarheid, array=["regelbaar, automatisch","regelbaar, niet automatisch"])</t>
-  </si>
-  <si>
-    <t>left=kunstwerkopening_regelmiddel_aantal_regelmiddelen,right=0</t>
-  </si>
-  <si>
-    <t>kunstwerkopening_regelmiddel_aantal_regelmiddelen&gt;0</t>
-  </si>
-  <si>
-    <t>general_002_kunstwerkopening_laagstedoorstroombreedte</t>
-  </si>
-  <si>
-    <t>general_003_kunstwerkopening_hoogstedoorstroombreedte</t>
-  </si>
-  <si>
-    <t>statistic=sum, related_object=kunstwerkopening, related_parameter=laagstedoorstroombreedte</t>
-  </si>
-  <si>
-    <t>statistic=sum, related_object=kunstwerkopening, related_parameter=hoogstedoorstroombreedte</t>
-  </si>
-  <si>
-    <t>Bepaal de totale laagste doorstroombreedte van alle kunstwerkopeningen in de brug</t>
-  </si>
-  <si>
-    <t>Bepaal de totale hoogste doorstroombreedte van alle kunstwerkopeningen in de brug</t>
-  </si>
-  <si>
-    <t>Bepaal de minimale laagste doorstroomhoogte alle kunstwerkopeningen in de brug</t>
-  </si>
-  <si>
-    <t>parameter=hoogtebovenzijde, min=-8, max=325, inclusiev=false</t>
-  </si>
-  <si>
-    <t>parameter=hoogteonderzijde, min=-8, max=325, inclusiev=false</t>
-  </si>
-  <si>
-    <t>parameter=lengte, min=1, max=10, inclusiev=false</t>
-  </si>
-  <si>
-    <t>validate_003_laagstedoorstroombreedte_plausibel</t>
-  </si>
-  <si>
-    <t>parameter=kunstwerkopening_laagstedoorstroombreedte, min=1, max=50, inclusiev=false</t>
-  </si>
-  <si>
-    <t>1&lt;kunstwerkopening_laagstedoorstroombreedte&lt;50</t>
-  </si>
-  <si>
-    <t>Een brug moet een plausibele laagste doorstroombreedte hebben</t>
-  </si>
-  <si>
-    <t>Hydroobject kruist zichzelf alleen in combinatie met een duikersifonhevel of aquaduct</t>
-  </si>
-  <si>
-    <t>areas=peilgebiedpraktijk, structures=[gemaal,stuw,duikersifonhevel], tolerance=0.01, distance=25</t>
-  </si>
-  <si>
-    <t>Een stuw, gemaal of bodemval moet een hydroobject opsplitsen</t>
-  </si>
-  <si>
-    <t>validate_006_kunstwerk_op_peilscheiding</t>
-  </si>
-  <si>
-    <t>areas=peilafwijkinggebied, structures=[gemaal,stuw,duikersifonhevel], tolerance=0.01, distance=25</t>
-  </si>
-  <si>
-    <t>Waar een hydroobject een grens van een peilafwijkinggebied doorkruist, moet een peilscheidend kunstwerk liggen</t>
-  </si>
-  <si>
-    <t>Waar een hydroobject een grens van een peilgebiedpraktijk doorkruist, moet een peilscheidend kunstwerk liggen</t>
-  </si>
-  <si>
-    <t>-8&lt;laagstedoorstroomhoogte&lt;325</t>
-  </si>
-  <si>
-    <t>leeg of 1 tekstwaarde uit bestaande opsomming</t>
-  </si>
-  <si>
-    <t>altijd 1 unieke tekstwaarde uit bestaande opsomming</t>
-  </si>
-  <si>
-    <t>hoogtebinnenonderkantbov-hoogtebinnenonderkantbene</t>
-  </si>
-  <si>
-    <t>ABS(hoogtebinnenonderkantbov-hoogtebinnenonderkantbene)</t>
-  </si>
-  <si>
-    <t>delta_h/lengte</t>
-  </si>
-  <si>
-    <t>validate_005_maximalehoogteopening_plausibel</t>
-  </si>
-  <si>
-    <t>altijd 1 tekstwaarde uit bestaande opsomming</t>
-  </si>
-  <si>
-    <t>type=string, enum=["niet regelbaar (vast)","regelbaar, niet automatisch","regelbaar, automatisch","handmatig","overig"], maxItems=1, minItems=1</t>
+    <r>
+      <t>hoogstedoorstroomhoogte</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>≤</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>hoogtecontructie</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1756,13 +1726,6 @@
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Symbol"/>
-      <family val="1"/>
-      <charset val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -2114,7 +2077,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{95169383-B7E0-4A25-A6CF-3865C9110103}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:N371"/>
+  <dimension ref="A1:N368"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
@@ -2327,7 +2290,7 @@
         <v>116</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>520</v>
+        <v>496</v>
       </c>
       <c r="I6" s="1" t="s">
         <v>122</v>
@@ -2657,7 +2620,7 @@
         <v>131</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>520</v>
+        <v>496</v>
       </c>
       <c r="I16" s="1" t="s">
         <v>122</v>
@@ -2690,7 +2653,7 @@
         <v>132</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>520</v>
+        <v>496</v>
       </c>
       <c r="I17" s="1" t="s">
         <v>122</v>
@@ -3284,7 +3247,7 @@
         <v>151</v>
       </c>
       <c r="H35" s="1" t="s">
-        <v>520</v>
+        <v>496</v>
       </c>
       <c r="I35" s="1" t="s">
         <v>122</v>
@@ -3317,7 +3280,7 @@
         <v>152</v>
       </c>
       <c r="H36" s="1" t="s">
-        <v>520</v>
+        <v>496</v>
       </c>
       <c r="I36" s="1" t="s">
         <v>122</v>
@@ -3350,7 +3313,7 @@
         <v>152</v>
       </c>
       <c r="H37" s="1" t="s">
-        <v>520</v>
+        <v>496</v>
       </c>
       <c r="I37" s="1" t="s">
         <v>122</v>
@@ -3383,7 +3346,7 @@
         <v>153</v>
       </c>
       <c r="H38" s="1" t="s">
-        <v>520</v>
+        <v>496</v>
       </c>
       <c r="I38" s="1" t="s">
         <v>122</v>
@@ -3449,7 +3412,7 @@
         <v>154</v>
       </c>
       <c r="H40" s="1" t="s">
-        <v>526</v>
+        <v>502</v>
       </c>
       <c r="I40" s="1" t="s">
         <v>122</v>
@@ -3479,10 +3442,10 @@
         <v>68</v>
       </c>
       <c r="G41" s="2" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="H41" s="1" t="s">
-        <v>526</v>
+        <v>502</v>
       </c>
       <c r="I41" s="1" t="s">
         <v>122</v>
@@ -3515,7 +3478,7 @@
         <v>155</v>
       </c>
       <c r="H42" s="1" t="s">
-        <v>520</v>
+        <v>496</v>
       </c>
       <c r="I42" s="1" t="s">
         <v>122</v>
@@ -3581,7 +3544,7 @@
         <v>156</v>
       </c>
       <c r="H44" s="1" t="s">
-        <v>526</v>
+        <v>502</v>
       </c>
       <c r="I44" s="1" t="s">
         <v>122</v>
@@ -3713,7 +3676,7 @@
         <v>96</v>
       </c>
       <c r="H48" s="2" t="s">
-        <v>522</v>
+        <v>498</v>
       </c>
       <c r="I48" s="1" t="s">
         <v>70</v>
@@ -3746,7 +3709,7 @@
         <v>97</v>
       </c>
       <c r="H49" s="2" t="s">
-        <v>523</v>
+        <v>499</v>
       </c>
       <c r="I49" s="1" t="s">
         <v>71</v>
@@ -3779,7 +3742,7 @@
         <v>98</v>
       </c>
       <c r="H50" s="2" t="s">
-        <v>524</v>
+        <v>500</v>
       </c>
       <c r="I50" s="1" t="s">
         <v>73</v>
@@ -3809,7 +3772,7 @@
         <v>91</v>
       </c>
       <c r="G51" s="2" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="H51" s="2" t="s">
         <v>76</v>
@@ -3842,7 +3805,7 @@
         <v>91</v>
       </c>
       <c r="G52" s="2" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="H52" s="2" t="s">
         <v>77</v>
@@ -3968,7 +3931,7 @@
         <v>75</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="F56" s="1" t="s">
         <v>92</v>
@@ -4028,7 +3991,7 @@
         <v>64</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="D58" s="1" t="s">
         <v>75</v>
@@ -4040,13 +4003,13 @@
         <v>91</v>
       </c>
       <c r="G58" s="2" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="H58" s="2" t="s">
         <v>107</v>
       </c>
       <c r="I58" s="1" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="K58" s="5"/>
       <c r="L58" s="5"/>
@@ -4868,7 +4831,7 @@
         <v>198</v>
       </c>
       <c r="H83" s="1" t="s">
-        <v>526</v>
+        <v>502</v>
       </c>
       <c r="I83" s="1" t="s">
         <v>122</v>
@@ -4934,7 +4897,7 @@
         <v>195</v>
       </c>
       <c r="H85" s="1" t="s">
-        <v>520</v>
+        <v>496</v>
       </c>
       <c r="I85" s="1" t="s">
         <v>122</v>
@@ -4967,7 +4930,7 @@
         <v>199</v>
       </c>
       <c r="H86" s="1" t="s">
-        <v>520</v>
+        <v>496</v>
       </c>
       <c r="I86" s="1" t="s">
         <v>122</v>
@@ -5000,7 +4963,7 @@
         <v>153</v>
       </c>
       <c r="H87" s="1" t="s">
-        <v>520</v>
+        <v>496</v>
       </c>
       <c r="I87" s="1" t="s">
         <v>122</v>
@@ -5066,7 +5029,7 @@
         <v>151</v>
       </c>
       <c r="H89" s="1" t="s">
-        <v>520</v>
+        <v>496</v>
       </c>
       <c r="I89" s="1" t="s">
         <v>122</v>
@@ -5117,7 +5080,7 @@
         <v>63</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="D91" s="1" t="s">
         <v>68</v>
@@ -5126,16 +5089,16 @@
         <v>68</v>
       </c>
       <c r="F91" s="1" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="G91" s="1" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="H91" s="1" t="s">
         <v>68</v>
       </c>
       <c r="I91" s="1" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="K91" s="5"/>
       <c r="L91" s="5"/>
@@ -5150,25 +5113,25 @@
         <v>63</v>
       </c>
       <c r="C92" s="1" t="s">
+        <v>431</v>
+      </c>
+      <c r="D92" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="E92" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="F92" s="1" t="s">
         <v>433</v>
       </c>
-      <c r="D92" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="E92" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="F92" s="1" t="s">
+      <c r="G92" s="1" t="s">
         <v>435</v>
       </c>
-      <c r="G92" s="1" t="s">
-        <v>437</v>
-      </c>
       <c r="H92" s="1" t="s">
         <v>68</v>
       </c>
       <c r="I92" s="1" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="K92" s="5"/>
       <c r="L92" s="5"/>
@@ -5183,7 +5146,7 @@
         <v>63</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="D93" s="1" t="s">
         <v>68</v>
@@ -5195,13 +5158,13 @@
         <v>89</v>
       </c>
       <c r="G93" s="1" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="H93" s="1" t="s">
         <v>68</v>
       </c>
       <c r="I93" s="1" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="K93" s="5"/>
       <c r="L93" s="5"/>
@@ -5228,7 +5191,7 @@
         <v>91</v>
       </c>
       <c r="G94" s="2" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="H94" s="2" t="s">
         <v>177</v>
@@ -5261,7 +5224,7 @@
         <v>91</v>
       </c>
       <c r="G95" s="2" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="H95" s="2" t="s">
         <v>178</v>
@@ -5294,7 +5257,7 @@
         <v>91</v>
       </c>
       <c r="G96" s="2" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="H96" s="2" t="s">
         <v>179</v>
@@ -5327,7 +5290,7 @@
         <v>91</v>
       </c>
       <c r="G97" s="2" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="H97" s="2" t="s">
         <v>180</v>
@@ -5381,25 +5344,25 @@
         <v>64</v>
       </c>
       <c r="C99" s="1" t="s">
-        <v>525</v>
+        <v>501</v>
       </c>
       <c r="D99" s="1" t="s">
         <v>69</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="F99" s="1" t="s">
         <v>276</v>
       </c>
       <c r="G99" s="2" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="H99" s="1" t="s">
-        <v>451</v>
+        <v>516</v>
       </c>
       <c r="I99" s="1" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="K99" s="5"/>
       <c r="L99" s="5"/>
@@ -5408,69 +5371,69 @@
     </row>
     <row r="100" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A100" s="1" t="s">
-        <v>176</v>
+        <v>158</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C100" s="1" t="s">
-        <v>1</v>
+        <v>507</v>
       </c>
       <c r="D100" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="E100" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
+      </c>
+      <c r="E100" s="2" t="s">
+        <v>505</v>
       </c>
       <c r="F100" s="1" t="s">
-        <v>68</v>
+        <v>187</v>
       </c>
       <c r="G100" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="H100" s="1" t="s">
-        <v>134</v>
+        <v>506</v>
+      </c>
+      <c r="H100" s="2" t="s">
+        <v>508</v>
       </c>
       <c r="I100" s="1" t="s">
-        <v>122</v>
+        <v>509</v>
       </c>
       <c r="K100" s="5"/>
       <c r="L100" s="5"/>
-      <c r="M100" s="5"/>
-      <c r="N100" s="5"/>
+      <c r="M100" s="1"/>
+      <c r="N100" s="1"/>
     </row>
     <row r="101" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A101" s="1" t="s">
-        <v>176</v>
+        <v>158</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>202</v>
+        <v>511</v>
       </c>
       <c r="D101" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="E101" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
+      </c>
+      <c r="E101" s="2" t="s">
+        <v>505</v>
       </c>
       <c r="F101" s="1" t="s">
-        <v>68</v>
+        <v>276</v>
       </c>
       <c r="G101" s="2" t="s">
-        <v>232</v>
-      </c>
-      <c r="H101" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="I101" s="1" t="s">
-        <v>122</v>
+        <v>512</v>
+      </c>
+      <c r="H101" s="2" t="s">
+        <v>517</v>
+      </c>
+      <c r="I101" t="s">
+        <v>510</v>
       </c>
       <c r="K101" s="5"/>
       <c r="L101" s="5"/>
-      <c r="M101" s="5"/>
-      <c r="N101" s="5"/>
+      <c r="M101" s="1"/>
+      <c r="N101" s="1"/>
     </row>
     <row r="102" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A102" s="1" t="s">
@@ -5480,7 +5443,7 @@
         <v>62</v>
       </c>
       <c r="C102" s="1" t="s">
-        <v>203</v>
+        <v>1</v>
       </c>
       <c r="D102" s="1" t="s">
         <v>68</v>
@@ -5492,10 +5455,10 @@
         <v>68</v>
       </c>
       <c r="G102" s="2" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="H102" s="1" t="s">
-        <v>191</v>
+        <v>134</v>
       </c>
       <c r="I102" s="1" t="s">
         <v>122</v>
@@ -5513,7 +5476,7 @@
         <v>62</v>
       </c>
       <c r="C103" s="1" t="s">
-        <v>8</v>
+        <v>202</v>
       </c>
       <c r="D103" s="1" t="s">
         <v>68</v>
@@ -5525,10 +5488,10 @@
         <v>68</v>
       </c>
       <c r="G103" s="2" t="s">
-        <v>121</v>
+        <v>232</v>
       </c>
       <c r="H103" s="1" t="s">
-        <v>129</v>
+        <v>139</v>
       </c>
       <c r="I103" s="1" t="s">
         <v>122</v>
@@ -5546,7 +5509,7 @@
         <v>62</v>
       </c>
       <c r="C104" s="1" t="s">
-        <v>9</v>
+        <v>203</v>
       </c>
       <c r="D104" s="1" t="s">
         <v>68</v>
@@ -5558,10 +5521,10 @@
         <v>68</v>
       </c>
       <c r="G104" s="2" t="s">
-        <v>120</v>
+        <v>135</v>
       </c>
       <c r="H104" s="1" t="s">
-        <v>140</v>
+        <v>191</v>
       </c>
       <c r="I104" s="1" t="s">
         <v>122</v>
@@ -5579,7 +5542,7 @@
         <v>62</v>
       </c>
       <c r="C105" s="1" t="s">
-        <v>204</v>
+        <v>8</v>
       </c>
       <c r="D105" s="1" t="s">
         <v>68</v>
@@ -5591,10 +5554,10 @@
         <v>68</v>
       </c>
       <c r="G105" s="2" t="s">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="H105" s="1" t="s">
-        <v>233</v>
+        <v>129</v>
       </c>
       <c r="I105" s="1" t="s">
         <v>122</v>
@@ -5612,7 +5575,7 @@
         <v>62</v>
       </c>
       <c r="C106" s="1" t="s">
-        <v>205</v>
+        <v>9</v>
       </c>
       <c r="D106" s="1" t="s">
         <v>68</v>
@@ -5624,10 +5587,10 @@
         <v>68</v>
       </c>
       <c r="G106" s="2" t="s">
-        <v>234</v>
+        <v>120</v>
       </c>
       <c r="H106" s="1" t="s">
-        <v>235</v>
+        <v>140</v>
       </c>
       <c r="I106" s="1" t="s">
         <v>122</v>
@@ -5645,7 +5608,7 @@
         <v>62</v>
       </c>
       <c r="C107" s="1" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="D107" s="1" t="s">
         <v>68</v>
@@ -5678,7 +5641,7 @@
         <v>62</v>
       </c>
       <c r="C108" s="1" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="D108" s="1" t="s">
         <v>68</v>
@@ -5711,7 +5674,7 @@
         <v>62</v>
       </c>
       <c r="C109" s="1" t="s">
-        <v>23</v>
+        <v>206</v>
       </c>
       <c r="D109" s="1" t="s">
         <v>68</v>
@@ -5723,10 +5686,10 @@
         <v>68</v>
       </c>
       <c r="G109" s="2" t="s">
-        <v>143</v>
+        <v>115</v>
       </c>
       <c r="H109" s="1" t="s">
-        <v>144</v>
+        <v>233</v>
       </c>
       <c r="I109" s="1" t="s">
         <v>122</v>
@@ -5744,7 +5707,7 @@
         <v>62</v>
       </c>
       <c r="C110" s="1" t="s">
-        <v>24</v>
+        <v>207</v>
       </c>
       <c r="D110" s="1" t="s">
         <v>68</v>
@@ -5756,10 +5719,10 @@
         <v>68</v>
       </c>
       <c r="G110" s="2" t="s">
-        <v>136</v>
+        <v>234</v>
       </c>
       <c r="H110" s="1" t="s">
-        <v>137</v>
+        <v>235</v>
       </c>
       <c r="I110" s="1" t="s">
         <v>122</v>
@@ -5777,7 +5740,7 @@
         <v>62</v>
       </c>
       <c r="C111" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D111" s="1" t="s">
         <v>68</v>
@@ -5789,10 +5752,10 @@
         <v>68</v>
       </c>
       <c r="G111" s="2" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="H111" s="1" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="I111" s="1" t="s">
         <v>122</v>
@@ -5810,7 +5773,7 @@
         <v>62</v>
       </c>
       <c r="C112" s="1" t="s">
-        <v>208</v>
+        <v>24</v>
       </c>
       <c r="D112" s="1" t="s">
         <v>68</v>
@@ -5822,10 +5785,10 @@
         <v>68</v>
       </c>
       <c r="G112" s="2" t="s">
-        <v>236</v>
+        <v>136</v>
       </c>
       <c r="H112" s="1" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="I112" s="1" t="s">
         <v>122</v>
@@ -5843,7 +5806,7 @@
         <v>62</v>
       </c>
       <c r="C113" s="1" t="s">
-        <v>209</v>
+        <v>25</v>
       </c>
       <c r="D113" s="1" t="s">
         <v>68</v>
@@ -5855,10 +5818,10 @@
         <v>68</v>
       </c>
       <c r="G113" s="2" t="s">
-        <v>237</v>
+        <v>145</v>
       </c>
       <c r="H113" s="1" t="s">
-        <v>139</v>
+        <v>146</v>
       </c>
       <c r="I113" s="1" t="s">
         <v>122</v>
@@ -5876,7 +5839,7 @@
         <v>62</v>
       </c>
       <c r="C114" s="1" t="s">
-        <v>37</v>
+        <v>208</v>
       </c>
       <c r="D114" s="1" t="s">
         <v>68</v>
@@ -5888,10 +5851,10 @@
         <v>68</v>
       </c>
       <c r="G114" s="2" t="s">
-        <v>136</v>
+        <v>236</v>
       </c>
       <c r="H114" s="1" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="I114" s="1" t="s">
         <v>122</v>
@@ -5909,7 +5872,7 @@
         <v>62</v>
       </c>
       <c r="C115" s="1" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D115" s="1" t="s">
         <v>68</v>
@@ -5921,10 +5884,10 @@
         <v>68</v>
       </c>
       <c r="G115" s="2" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="H115" s="1" t="s">
-        <v>526</v>
+        <v>139</v>
       </c>
       <c r="I115" s="1" t="s">
         <v>122</v>
@@ -5939,10 +5902,10 @@
         <v>176</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C116" s="1" t="s">
-        <v>452</v>
+        <v>37</v>
       </c>
       <c r="D116" s="1" t="s">
         <v>68</v>
@@ -5951,20 +5914,20 @@
         <v>68</v>
       </c>
       <c r="F116" s="1" t="s">
-        <v>216</v>
-      </c>
-      <c r="G116" s="1" t="s">
-        <v>217</v>
+        <v>68</v>
+      </c>
+      <c r="G116" s="2" t="s">
+        <v>136</v>
       </c>
       <c r="H116" s="1" t="s">
-        <v>68</v>
+        <v>137</v>
       </c>
       <c r="I116" s="1" t="s">
-        <v>263</v>
+        <v>122</v>
       </c>
       <c r="K116" s="5"/>
       <c r="L116" s="5"/>
-      <c r="M116" s="1"/>
+      <c r="M116" s="5"/>
       <c r="N116" s="5"/>
     </row>
     <row r="117" spans="1:14" x14ac:dyDescent="0.25">
@@ -5972,10 +5935,10 @@
         <v>176</v>
       </c>
       <c r="B117" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C117" s="1" t="s">
-        <v>453</v>
+        <v>210</v>
       </c>
       <c r="D117" s="1" t="s">
         <v>68</v>
@@ -5984,20 +5947,20 @@
         <v>68</v>
       </c>
       <c r="F117" s="1" t="s">
-        <v>216</v>
-      </c>
-      <c r="G117" s="1" t="s">
-        <v>218</v>
+        <v>68</v>
+      </c>
+      <c r="G117" s="2" t="s">
+        <v>238</v>
       </c>
       <c r="H117" s="1" t="s">
-        <v>68</v>
+        <v>502</v>
       </c>
       <c r="I117" s="1" t="s">
-        <v>264</v>
+        <v>122</v>
       </c>
       <c r="K117" s="5"/>
       <c r="L117" s="5"/>
-      <c r="M117" s="1"/>
+      <c r="M117" s="5"/>
       <c r="N117" s="5"/>
     </row>
     <row r="118" spans="1:14" x14ac:dyDescent="0.25">
@@ -6008,7 +5971,7 @@
         <v>63</v>
       </c>
       <c r="C118" s="1" t="s">
-        <v>454</v>
+        <v>449</v>
       </c>
       <c r="D118" s="1" t="s">
         <v>68</v>
@@ -6020,13 +5983,13 @@
         <v>216</v>
       </c>
       <c r="G118" s="1" t="s">
-        <v>456</v>
+        <v>217</v>
       </c>
       <c r="H118" s="1" t="s">
         <v>68</v>
       </c>
       <c r="I118" s="1" t="s">
-        <v>458</v>
+        <v>263</v>
       </c>
       <c r="K118" s="5"/>
       <c r="L118" s="5"/>
@@ -6041,7 +6004,7 @@
         <v>63</v>
       </c>
       <c r="C119" s="1" t="s">
-        <v>455</v>
+        <v>450</v>
       </c>
       <c r="D119" s="1" t="s">
         <v>68</v>
@@ -6053,13 +6016,13 @@
         <v>216</v>
       </c>
       <c r="G119" s="1" t="s">
-        <v>457</v>
+        <v>218</v>
       </c>
       <c r="H119" s="1" t="s">
         <v>68</v>
       </c>
       <c r="I119" s="1" t="s">
-        <v>459</v>
+        <v>264</v>
       </c>
       <c r="K119" s="5"/>
       <c r="L119" s="5"/>
@@ -6071,32 +6034,32 @@
         <v>176</v>
       </c>
       <c r="B120" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C120" s="1" t="s">
-        <v>211</v>
+        <v>451</v>
       </c>
       <c r="D120" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E120" s="1" t="s">
         <v>68</v>
       </c>
       <c r="F120" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="G120" s="2" t="s">
-        <v>442</v>
-      </c>
-      <c r="H120" s="2" t="s">
-        <v>219</v>
+        <v>216</v>
+      </c>
+      <c r="G120" s="1" t="s">
+        <v>453</v>
+      </c>
+      <c r="H120" s="1" t="s">
+        <v>68</v>
       </c>
       <c r="I120" s="1" t="s">
-        <v>220</v>
+        <v>455</v>
       </c>
       <c r="K120" s="5"/>
       <c r="L120" s="5"/>
-      <c r="M120" s="5"/>
+      <c r="M120" s="1"/>
       <c r="N120" s="5"/>
     </row>
     <row r="121" spans="1:14" x14ac:dyDescent="0.25">
@@ -6104,32 +6067,32 @@
         <v>176</v>
       </c>
       <c r="B121" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C121" s="1" t="s">
-        <v>212</v>
+        <v>452</v>
       </c>
       <c r="D121" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E121" s="1" t="s">
         <v>68</v>
       </c>
       <c r="F121" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="G121" s="2" t="s">
-        <v>443</v>
-      </c>
-      <c r="H121" s="2" t="s">
-        <v>519</v>
+        <v>216</v>
+      </c>
+      <c r="G121" s="1" t="s">
+        <v>454</v>
+      </c>
+      <c r="H121" s="1" t="s">
+        <v>68</v>
       </c>
       <c r="I121" s="1" t="s">
-        <v>221</v>
+        <v>456</v>
       </c>
       <c r="K121" s="5"/>
       <c r="L121" s="5"/>
-      <c r="M121" s="5"/>
+      <c r="M121" s="1"/>
       <c r="N121" s="5"/>
     </row>
     <row r="122" spans="1:14" x14ac:dyDescent="0.25">
@@ -6140,25 +6103,25 @@
         <v>64</v>
       </c>
       <c r="C122" s="1" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="D122" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="E122" s="2" t="s">
-        <v>460</v>
+      <c r="E122" s="1" t="s">
+        <v>68</v>
       </c>
       <c r="F122" s="1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="G122" s="2" t="s">
-        <v>222</v>
+        <v>440</v>
       </c>
       <c r="H122" s="2" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="I122" s="1" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="K122" s="5"/>
       <c r="L122" s="5"/>
@@ -6173,7 +6136,7 @@
         <v>64</v>
       </c>
       <c r="C123" s="1" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="D123" s="1" t="s">
         <v>69</v>
@@ -6182,16 +6145,16 @@
         <v>68</v>
       </c>
       <c r="F123" s="1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="G123" s="2" t="s">
-        <v>227</v>
+        <v>441</v>
       </c>
       <c r="H123" s="2" t="s">
-        <v>228</v>
+        <v>495</v>
       </c>
       <c r="I123" s="1" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="K123" s="5"/>
       <c r="L123" s="5"/>
@@ -6206,25 +6169,25 @@
         <v>64</v>
       </c>
       <c r="C124" s="1" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="D124" s="1" t="s">
         <v>69</v>
       </c>
       <c r="E124" s="2" t="s">
-        <v>230</v>
+        <v>457</v>
       </c>
       <c r="F124" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="G124" s="2" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
       <c r="H124" s="2" t="s">
-        <v>231</v>
+        <v>223</v>
       </c>
       <c r="I124" s="1" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="K124" s="5"/>
       <c r="L124" s="5"/>
@@ -6233,31 +6196,31 @@
     </row>
     <row r="125" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A125" s="1" t="s">
-        <v>239</v>
+        <v>176</v>
       </c>
       <c r="B125" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C125" s="1" t="s">
-        <v>0</v>
+        <v>214</v>
       </c>
       <c r="D125" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E125" s="1" t="s">
         <v>68</v>
       </c>
       <c r="F125" s="1" t="s">
-        <v>68</v>
+        <v>93</v>
       </c>
       <c r="G125" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="H125" s="1" t="s">
-        <v>123</v>
+        <v>227</v>
+      </c>
+      <c r="H125" s="2" t="s">
+        <v>228</v>
       </c>
       <c r="I125" s="1" t="s">
-        <v>122</v>
+        <v>226</v>
       </c>
       <c r="K125" s="5"/>
       <c r="L125" s="5"/>
@@ -6266,31 +6229,31 @@
     </row>
     <row r="126" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A126" s="1" t="s">
-        <v>239</v>
+        <v>176</v>
       </c>
       <c r="B126" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C126" s="1" t="s">
-        <v>1</v>
+        <v>215</v>
       </c>
       <c r="D126" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="E126" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
+      </c>
+      <c r="E126" s="2" t="s">
+        <v>230</v>
       </c>
       <c r="F126" s="1" t="s">
-        <v>68</v>
+        <v>92</v>
       </c>
       <c r="G126" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="H126" s="1" t="s">
-        <v>134</v>
+        <v>227</v>
+      </c>
+      <c r="H126" s="2" t="s">
+        <v>231</v>
       </c>
       <c r="I126" s="1" t="s">
-        <v>122</v>
+        <v>229</v>
       </c>
       <c r="K126" s="5"/>
       <c r="L126" s="5"/>
@@ -6305,7 +6268,7 @@
         <v>62</v>
       </c>
       <c r="C127" s="1" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D127" s="1" t="s">
         <v>68</v>
@@ -6317,10 +6280,10 @@
         <v>68</v>
       </c>
       <c r="G127" s="2" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="H127" s="1" t="s">
-        <v>520</v>
+        <v>123</v>
       </c>
       <c r="I127" s="1" t="s">
         <v>122</v>
@@ -6338,7 +6301,7 @@
         <v>62</v>
       </c>
       <c r="C128" s="1" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D128" s="1" t="s">
         <v>68</v>
@@ -6350,10 +6313,10 @@
         <v>68</v>
       </c>
       <c r="G128" s="2" t="s">
-        <v>117</v>
+        <v>133</v>
       </c>
       <c r="H128" s="1" t="s">
-        <v>125</v>
+        <v>134</v>
       </c>
       <c r="I128" s="1" t="s">
         <v>122</v>
@@ -6371,7 +6334,7 @@
         <v>62</v>
       </c>
       <c r="C129" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D129" s="1" t="s">
         <v>68</v>
@@ -6383,10 +6346,10 @@
         <v>68</v>
       </c>
       <c r="G129" s="2" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="H129" s="1" t="s">
-        <v>126</v>
+        <v>496</v>
       </c>
       <c r="I129" s="1" t="s">
         <v>122</v>
@@ -6404,7 +6367,7 @@
         <v>62</v>
       </c>
       <c r="C130" s="1" t="s">
-        <v>240</v>
+        <v>5</v>
       </c>
       <c r="D130" s="1" t="s">
         <v>68</v>
@@ -6413,13 +6376,13 @@
         <v>68</v>
       </c>
       <c r="F130" s="1" t="s">
-        <v>216</v>
+        <v>68</v>
       </c>
       <c r="G130" s="2" t="s">
-        <v>135</v>
+        <v>117</v>
       </c>
       <c r="H130" s="1" t="s">
-        <v>283</v>
+        <v>125</v>
       </c>
       <c r="I130" s="1" t="s">
         <v>122</v>
@@ -6437,7 +6400,7 @@
         <v>62</v>
       </c>
       <c r="C131" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D131" s="1" t="s">
         <v>68</v>
@@ -6449,10 +6412,10 @@
         <v>68</v>
       </c>
       <c r="G131" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="H131" s="1" t="s">
-        <v>284</v>
+        <v>126</v>
       </c>
       <c r="I131" s="1" t="s">
         <v>122</v>
@@ -6470,7 +6433,7 @@
         <v>62</v>
       </c>
       <c r="C132" s="1" t="s">
-        <v>8</v>
+        <v>240</v>
       </c>
       <c r="D132" s="1" t="s">
         <v>68</v>
@@ -6479,13 +6442,13 @@
         <v>68</v>
       </c>
       <c r="F132" s="1" t="s">
-        <v>68</v>
+        <v>216</v>
       </c>
       <c r="G132" s="2" t="s">
-        <v>121</v>
+        <v>135</v>
       </c>
       <c r="H132" s="1" t="s">
-        <v>129</v>
+        <v>281</v>
       </c>
       <c r="I132" s="1" t="s">
         <v>122</v>
@@ -6503,7 +6466,7 @@
         <v>62</v>
       </c>
       <c r="C133" s="1" t="s">
-        <v>241</v>
+        <v>7</v>
       </c>
       <c r="D133" s="1" t="s">
         <v>68</v>
@@ -6515,10 +6478,10 @@
         <v>68</v>
       </c>
       <c r="G133" s="2" t="s">
-        <v>285</v>
+        <v>119</v>
       </c>
       <c r="H133" s="1" t="s">
-        <v>520</v>
+        <v>282</v>
       </c>
       <c r="I133" s="1" t="s">
         <v>122</v>
@@ -6536,7 +6499,7 @@
         <v>62</v>
       </c>
       <c r="C134" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D134" s="1" t="s">
         <v>68</v>
@@ -6548,10 +6511,10 @@
         <v>68</v>
       </c>
       <c r="G134" s="2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="H134" s="1" t="s">
-        <v>140</v>
+        <v>129</v>
       </c>
       <c r="I134" s="1" t="s">
         <v>122</v>
@@ -6569,7 +6532,7 @@
         <v>62</v>
       </c>
       <c r="C135" s="1" t="s">
-        <v>205</v>
+        <v>241</v>
       </c>
       <c r="D135" s="1" t="s">
         <v>68</v>
@@ -6581,10 +6544,10 @@
         <v>68</v>
       </c>
       <c r="G135" s="2" t="s">
-        <v>119</v>
+        <v>283</v>
       </c>
       <c r="H135" s="1" t="s">
-        <v>284</v>
+        <v>496</v>
       </c>
       <c r="I135" s="1" t="s">
         <v>122</v>
@@ -6602,7 +6565,7 @@
         <v>62</v>
       </c>
       <c r="C136" s="1" t="s">
-        <v>242</v>
+        <v>9</v>
       </c>
       <c r="D136" s="1" t="s">
         <v>68</v>
@@ -6614,10 +6577,10 @@
         <v>68</v>
       </c>
       <c r="G136" s="2" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="H136" s="1" t="s">
-        <v>233</v>
+        <v>140</v>
       </c>
       <c r="I136" s="1" t="s">
         <v>122</v>
@@ -6635,7 +6598,7 @@
         <v>62</v>
       </c>
       <c r="C137" s="1" t="s">
-        <v>13</v>
+        <v>205</v>
       </c>
       <c r="D137" s="1" t="s">
         <v>68</v>
@@ -6647,10 +6610,10 @@
         <v>68</v>
       </c>
       <c r="G137" s="2" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="H137" s="1" t="s">
-        <v>129</v>
+        <v>282</v>
       </c>
       <c r="I137" s="1" t="s">
         <v>122</v>
@@ -6668,7 +6631,7 @@
         <v>62</v>
       </c>
       <c r="C138" s="1" t="s">
-        <v>14</v>
+        <v>242</v>
       </c>
       <c r="D138" s="1" t="s">
         <v>68</v>
@@ -6680,10 +6643,10 @@
         <v>68</v>
       </c>
       <c r="G138" s="2" t="s">
-        <v>131</v>
+        <v>115</v>
       </c>
       <c r="H138" s="1" t="s">
-        <v>520</v>
+        <v>233</v>
       </c>
       <c r="I138" s="1" t="s">
         <v>122</v>
@@ -6701,7 +6664,7 @@
         <v>62</v>
       </c>
       <c r="C139" s="1" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="D139" s="1" t="s">
         <v>68</v>
@@ -6713,10 +6676,10 @@
         <v>68</v>
       </c>
       <c r="G139" s="2" t="s">
-        <v>135</v>
+        <v>121</v>
       </c>
       <c r="H139" s="1" t="s">
-        <v>283</v>
+        <v>129</v>
       </c>
       <c r="I139" s="1" t="s">
         <v>122</v>
@@ -6734,7 +6697,7 @@
         <v>62</v>
       </c>
       <c r="C140" s="1" t="s">
-        <v>243</v>
+        <v>14</v>
       </c>
       <c r="D140" s="1" t="s">
         <v>68</v>
@@ -6746,10 +6709,10 @@
         <v>68</v>
       </c>
       <c r="G140" s="2" t="s">
-        <v>115</v>
+        <v>131</v>
       </c>
       <c r="H140" s="1" t="s">
-        <v>233</v>
+        <v>496</v>
       </c>
       <c r="I140" s="1" t="s">
         <v>122</v>
@@ -6767,7 +6730,7 @@
         <v>62</v>
       </c>
       <c r="C141" s="1" t="s">
-        <v>207</v>
+        <v>17</v>
       </c>
       <c r="D141" s="1" t="s">
         <v>68</v>
@@ -6779,10 +6742,10 @@
         <v>68</v>
       </c>
       <c r="G141" s="2" t="s">
-        <v>119</v>
+        <v>135</v>
       </c>
       <c r="H141" s="1" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="I141" s="1" t="s">
         <v>122</v>
@@ -6800,7 +6763,7 @@
         <v>62</v>
       </c>
       <c r="C142" s="1" t="s">
-        <v>19</v>
+        <v>243</v>
       </c>
       <c r="D142" s="1" t="s">
         <v>68</v>
@@ -6812,10 +6775,10 @@
         <v>68</v>
       </c>
       <c r="G142" s="2" t="s">
-        <v>136</v>
+        <v>115</v>
       </c>
       <c r="H142" s="1" t="s">
-        <v>137</v>
+        <v>233</v>
       </c>
       <c r="I142" s="1" t="s">
         <v>122</v>
@@ -6833,7 +6796,7 @@
         <v>62</v>
       </c>
       <c r="C143" s="1" t="s">
-        <v>20</v>
+        <v>207</v>
       </c>
       <c r="D143" s="1" t="s">
         <v>68</v>
@@ -6845,10 +6808,10 @@
         <v>68</v>
       </c>
       <c r="G143" s="2" t="s">
-        <v>138</v>
+        <v>119</v>
       </c>
       <c r="H143" s="1" t="s">
-        <v>139</v>
+        <v>282</v>
       </c>
       <c r="I143" s="1" t="s">
         <v>122</v>
@@ -6866,7 +6829,7 @@
         <v>62</v>
       </c>
       <c r="C144" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D144" s="1" t="s">
         <v>68</v>
@@ -6878,10 +6841,10 @@
         <v>68</v>
       </c>
       <c r="G144" s="2" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="H144" s="1" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="I144" s="1" t="s">
         <v>122</v>
@@ -6899,7 +6862,7 @@
         <v>62</v>
       </c>
       <c r="C145" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D145" s="1" t="s">
         <v>68</v>
@@ -6911,10 +6874,10 @@
         <v>68</v>
       </c>
       <c r="G145" s="2" t="s">
-        <v>117</v>
+        <v>138</v>
       </c>
       <c r="H145" s="1" t="s">
-        <v>125</v>
+        <v>139</v>
       </c>
       <c r="I145" s="1" t="s">
         <v>122</v>
@@ -6932,7 +6895,7 @@
         <v>62</v>
       </c>
       <c r="C146" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D146" s="1" t="s">
         <v>68</v>
@@ -6944,10 +6907,10 @@
         <v>68</v>
       </c>
       <c r="G146" s="2" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="H146" s="1" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="I146" s="1" t="s">
         <v>122</v>
@@ -6965,7 +6928,7 @@
         <v>62</v>
       </c>
       <c r="C147" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D147" s="1" t="s">
         <v>68</v>
@@ -6977,10 +6940,10 @@
         <v>68</v>
       </c>
       <c r="G147" s="2" t="s">
-        <v>136</v>
+        <v>117</v>
       </c>
       <c r="H147" s="1" t="s">
-        <v>137</v>
+        <v>125</v>
       </c>
       <c r="I147" s="1" t="s">
         <v>122</v>
@@ -6998,7 +6961,7 @@
         <v>62</v>
       </c>
       <c r="C148" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D148" s="1" t="s">
         <v>68</v>
@@ -7010,10 +6973,10 @@
         <v>68</v>
       </c>
       <c r="G148" s="2" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="H148" s="1" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="I148" s="1" t="s">
         <v>122</v>
@@ -7031,7 +6994,7 @@
         <v>62</v>
       </c>
       <c r="C149" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D149" s="1" t="s">
         <v>68</v>
@@ -7043,10 +7006,10 @@
         <v>68</v>
       </c>
       <c r="G149" s="2" t="s">
-        <v>119</v>
+        <v>136</v>
       </c>
       <c r="H149" s="1" t="s">
-        <v>284</v>
+        <v>137</v>
       </c>
       <c r="I149" s="1" t="s">
         <v>122</v>
@@ -7064,7 +7027,7 @@
         <v>62</v>
       </c>
       <c r="C150" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D150" s="1" t="s">
         <v>68</v>
@@ -7076,10 +7039,10 @@
         <v>68</v>
       </c>
       <c r="G150" s="2" t="s">
-        <v>119</v>
+        <v>145</v>
       </c>
       <c r="H150" s="1" t="s">
-        <v>284</v>
+        <v>146</v>
       </c>
       <c r="I150" s="1" t="s">
         <v>122</v>
@@ -7097,7 +7060,7 @@
         <v>62</v>
       </c>
       <c r="C151" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D151" s="1" t="s">
         <v>68</v>
@@ -7112,7 +7075,7 @@
         <v>119</v>
       </c>
       <c r="H151" s="1" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="I151" s="1" t="s">
         <v>122</v>
@@ -7130,7 +7093,7 @@
         <v>62</v>
       </c>
       <c r="C152" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D152" s="1" t="s">
         <v>68</v>
@@ -7142,10 +7105,10 @@
         <v>68</v>
       </c>
       <c r="G152" s="2" t="s">
-        <v>147</v>
+        <v>119</v>
       </c>
       <c r="H152" s="1" t="s">
-        <v>148</v>
+        <v>282</v>
       </c>
       <c r="I152" s="1" t="s">
         <v>122</v>
@@ -7163,7 +7126,7 @@
         <v>62</v>
       </c>
       <c r="C153" s="1" t="s">
-        <v>244</v>
+        <v>28</v>
       </c>
       <c r="D153" s="1" t="s">
         <v>68</v>
@@ -7175,10 +7138,10 @@
         <v>68</v>
       </c>
       <c r="G153" s="2" t="s">
-        <v>286</v>
+        <v>119</v>
       </c>
       <c r="H153" s="1" t="s">
-        <v>139</v>
+        <v>282</v>
       </c>
       <c r="I153" s="1" t="s">
         <v>122</v>
@@ -7196,7 +7159,7 @@
         <v>62</v>
       </c>
       <c r="C154" s="1" t="s">
-        <v>167</v>
+        <v>29</v>
       </c>
       <c r="D154" s="1" t="s">
         <v>68</v>
@@ -7208,10 +7171,10 @@
         <v>68</v>
       </c>
       <c r="G154" s="2" t="s">
-        <v>196</v>
+        <v>147</v>
       </c>
       <c r="H154" s="1" t="s">
-        <v>287</v>
+        <v>148</v>
       </c>
       <c r="I154" s="1" t="s">
         <v>122</v>
@@ -7229,7 +7192,7 @@
         <v>62</v>
       </c>
       <c r="C155" s="1" t="s">
-        <v>31</v>
+        <v>244</v>
       </c>
       <c r="D155" s="1" t="s">
         <v>68</v>
@@ -7241,10 +7204,10 @@
         <v>68</v>
       </c>
       <c r="G155" s="2" t="s">
-        <v>119</v>
+        <v>284</v>
       </c>
       <c r="H155" s="1" t="s">
-        <v>284</v>
+        <v>139</v>
       </c>
       <c r="I155" s="1" t="s">
         <v>122</v>
@@ -7262,7 +7225,7 @@
         <v>62</v>
       </c>
       <c r="C156" s="1" t="s">
-        <v>32</v>
+        <v>167</v>
       </c>
       <c r="D156" s="1" t="s">
         <v>68</v>
@@ -7274,10 +7237,10 @@
         <v>68</v>
       </c>
       <c r="G156" s="2" t="s">
-        <v>119</v>
+        <v>196</v>
       </c>
       <c r="H156" s="1" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="I156" s="1" t="s">
         <v>122</v>
@@ -7295,7 +7258,7 @@
         <v>62</v>
       </c>
       <c r="C157" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D157" s="1" t="s">
         <v>68</v>
@@ -7307,10 +7270,10 @@
         <v>68</v>
       </c>
       <c r="G157" s="2" t="s">
-        <v>151</v>
+        <v>119</v>
       </c>
       <c r="H157" s="1" t="s">
-        <v>520</v>
+        <v>282</v>
       </c>
       <c r="I157" s="1" t="s">
         <v>122</v>
@@ -7328,7 +7291,7 @@
         <v>62</v>
       </c>
       <c r="C158" s="1" t="s">
-        <v>168</v>
+        <v>32</v>
       </c>
       <c r="D158" s="1" t="s">
         <v>68</v>
@@ -7340,10 +7303,10 @@
         <v>68</v>
       </c>
       <c r="G158" s="2" t="s">
-        <v>527</v>
-      </c>
-      <c r="H158" s="5" t="s">
-        <v>521</v>
+        <v>119</v>
+      </c>
+      <c r="H158" s="1" t="s">
+        <v>282</v>
       </c>
       <c r="I158" s="1" t="s">
         <v>122</v>
@@ -7361,7 +7324,7 @@
         <v>62</v>
       </c>
       <c r="C159" s="1" t="s">
-        <v>245</v>
+        <v>33</v>
       </c>
       <c r="D159" s="1" t="s">
         <v>68</v>
@@ -7373,10 +7336,10 @@
         <v>68</v>
       </c>
       <c r="G159" s="2" t="s">
-        <v>289</v>
+        <v>151</v>
       </c>
       <c r="H159" s="1" t="s">
-        <v>520</v>
+        <v>496</v>
       </c>
       <c r="I159" s="1" t="s">
         <v>122</v>
@@ -7394,7 +7357,7 @@
         <v>62</v>
       </c>
       <c r="C160" s="1" t="s">
-        <v>34</v>
+        <v>168</v>
       </c>
       <c r="D160" s="1" t="s">
         <v>68</v>
@@ -7406,10 +7369,10 @@
         <v>68</v>
       </c>
       <c r="G160" s="2" t="s">
-        <v>152</v>
-      </c>
-      <c r="H160" s="1" t="s">
-        <v>520</v>
+        <v>503</v>
+      </c>
+      <c r="H160" s="5" t="s">
+        <v>497</v>
       </c>
       <c r="I160" s="1" t="s">
         <v>122</v>
@@ -7427,7 +7390,7 @@
         <v>62</v>
       </c>
       <c r="C161" s="1" t="s">
-        <v>35</v>
+        <v>245</v>
       </c>
       <c r="D161" s="1" t="s">
         <v>68</v>
@@ -7439,10 +7402,10 @@
         <v>68</v>
       </c>
       <c r="G161" s="2" t="s">
-        <v>152</v>
+        <v>287</v>
       </c>
       <c r="H161" s="1" t="s">
-        <v>520</v>
+        <v>496</v>
       </c>
       <c r="I161" s="1" t="s">
         <v>122</v>
@@ -7460,7 +7423,7 @@
         <v>62</v>
       </c>
       <c r="C162" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D162" s="1" t="s">
         <v>68</v>
@@ -7472,10 +7435,10 @@
         <v>68</v>
       </c>
       <c r="G162" s="2" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="H162" s="1" t="s">
-        <v>520</v>
+        <v>496</v>
       </c>
       <c r="I162" s="1" t="s">
         <v>122</v>
@@ -7493,7 +7456,7 @@
         <v>62</v>
       </c>
       <c r="C163" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D163" s="1" t="s">
         <v>68</v>
@@ -7505,10 +7468,10 @@
         <v>68</v>
       </c>
       <c r="G163" s="2" t="s">
-        <v>136</v>
+        <v>152</v>
       </c>
       <c r="H163" s="1" t="s">
-        <v>137</v>
+        <v>496</v>
       </c>
       <c r="I163" s="1" t="s">
         <v>122</v>
@@ -7526,7 +7489,7 @@
         <v>62</v>
       </c>
       <c r="C164" s="1" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="D164" s="1" t="s">
         <v>68</v>
@@ -7538,10 +7501,10 @@
         <v>68</v>
       </c>
       <c r="G164" s="2" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="H164" s="1" t="s">
-        <v>520</v>
+        <v>496</v>
       </c>
       <c r="I164" s="1" t="s">
         <v>122</v>
@@ -7559,7 +7522,7 @@
         <v>62</v>
       </c>
       <c r="C165" s="1" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="D165" s="1" t="s">
         <v>68</v>
@@ -7571,10 +7534,10 @@
         <v>68</v>
       </c>
       <c r="G165" s="2" t="s">
-        <v>157</v>
+        <v>136</v>
       </c>
       <c r="H165" s="1" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="I165" s="1" t="s">
         <v>122</v>
@@ -7592,7 +7555,7 @@
         <v>62</v>
       </c>
       <c r="C166" s="1" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="D166" s="1" t="s">
         <v>68</v>
@@ -7603,11 +7566,11 @@
       <c r="F166" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="G166" s="1" t="s">
-        <v>288</v>
+      <c r="G166" s="2" t="s">
+        <v>155</v>
       </c>
       <c r="H166" s="1" t="s">
-        <v>201</v>
+        <v>496</v>
       </c>
       <c r="I166" s="1" t="s">
         <v>122</v>
@@ -7622,10 +7585,10 @@
         <v>239</v>
       </c>
       <c r="B167" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C167" s="1" t="s">
-        <v>246</v>
+        <v>43</v>
       </c>
       <c r="D167" s="1" t="s">
         <v>68</v>
@@ -7633,21 +7596,21 @@
       <c r="E167" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="F167" s="2" t="s">
-        <v>254</v>
+      <c r="F167" s="1" t="s">
+        <v>68</v>
       </c>
       <c r="G167" s="2" t="s">
-        <v>255</v>
+        <v>157</v>
       </c>
       <c r="H167" s="1" t="s">
-        <v>68</v>
+        <v>139</v>
       </c>
       <c r="I167" s="1" t="s">
-        <v>257</v>
+        <v>122</v>
       </c>
       <c r="K167" s="5"/>
       <c r="L167" s="5"/>
-      <c r="M167" s="1"/>
+      <c r="M167" s="5"/>
       <c r="N167" s="5"/>
     </row>
     <row r="168" spans="1:14" x14ac:dyDescent="0.25">
@@ -7655,10 +7618,10 @@
         <v>239</v>
       </c>
       <c r="B168" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C168" s="1" t="s">
-        <v>247</v>
+        <v>44</v>
       </c>
       <c r="D168" s="1" t="s">
         <v>68</v>
@@ -7666,21 +7629,21 @@
       <c r="E168" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="F168" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="G168" s="2" t="s">
-        <v>256</v>
+      <c r="F168" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="G168" s="1" t="s">
+        <v>286</v>
       </c>
       <c r="H168" s="1" t="s">
-        <v>68</v>
+        <v>201</v>
       </c>
       <c r="I168" s="1" t="s">
-        <v>66</v>
+        <v>122</v>
       </c>
       <c r="K168" s="5"/>
       <c r="L168" s="5"/>
-      <c r="M168" s="1"/>
+      <c r="M168" s="5"/>
       <c r="N168" s="5"/>
     </row>
     <row r="169" spans="1:14" x14ac:dyDescent="0.25">
@@ -7691,7 +7654,7 @@
         <v>63</v>
       </c>
       <c r="C169" s="1" t="s">
-        <v>461</v>
+        <v>246</v>
       </c>
       <c r="D169" s="1" t="s">
         <v>68</v>
@@ -7699,17 +7662,17 @@
       <c r="E169" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="F169" s="1" t="s">
-        <v>216</v>
-      </c>
-      <c r="G169" s="1" t="s">
-        <v>259</v>
+      <c r="F169" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="G169" s="2" t="s">
+        <v>255</v>
       </c>
       <c r="H169" s="1" t="s">
         <v>68</v>
       </c>
       <c r="I169" s="1" t="s">
-        <v>262</v>
+        <v>257</v>
       </c>
       <c r="K169" s="5"/>
       <c r="L169" s="5"/>
@@ -7724,7 +7687,7 @@
         <v>63</v>
       </c>
       <c r="C170" s="1" t="s">
-        <v>462</v>
+        <v>247</v>
       </c>
       <c r="D170" s="1" t="s">
         <v>68</v>
@@ -7732,17 +7695,17 @@
       <c r="E170" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="F170" s="1" t="s">
-        <v>216</v>
-      </c>
-      <c r="G170" s="1" t="s">
-        <v>258</v>
+      <c r="F170" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="G170" s="2" t="s">
+        <v>256</v>
       </c>
       <c r="H170" s="1" t="s">
         <v>68</v>
       </c>
       <c r="I170" s="1" t="s">
-        <v>260</v>
+        <v>66</v>
       </c>
       <c r="K170" s="5"/>
       <c r="L170" s="5"/>
@@ -7757,7 +7720,7 @@
         <v>63</v>
       </c>
       <c r="C171" s="1" t="s">
-        <v>463</v>
+        <v>458</v>
       </c>
       <c r="D171" s="1" t="s">
         <v>68</v>
@@ -7769,13 +7732,13 @@
         <v>216</v>
       </c>
       <c r="G171" s="1" t="s">
-        <v>464</v>
+        <v>259</v>
       </c>
       <c r="H171" s="1" t="s">
         <v>68</v>
       </c>
       <c r="I171" s="1" t="s">
-        <v>473</v>
+        <v>262</v>
       </c>
       <c r="K171" s="5"/>
       <c r="L171" s="5"/>
@@ -7790,7 +7753,7 @@
         <v>63</v>
       </c>
       <c r="C172" s="1" t="s">
-        <v>466</v>
+        <v>459</v>
       </c>
       <c r="D172" s="1" t="s">
         <v>68</v>
@@ -7802,13 +7765,13 @@
         <v>216</v>
       </c>
       <c r="G172" s="1" t="s">
-        <v>465</v>
+        <v>258</v>
       </c>
       <c r="H172" s="1" t="s">
         <v>68</v>
       </c>
       <c r="I172" s="1" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="K172" s="5"/>
       <c r="L172" s="5"/>
@@ -7823,7 +7786,7 @@
         <v>63</v>
       </c>
       <c r="C173" s="1" t="s">
-        <v>467</v>
+        <v>513</v>
       </c>
       <c r="D173" s="1" t="s">
         <v>68</v>
@@ -7835,13 +7798,13 @@
         <v>216</v>
       </c>
       <c r="G173" s="1" t="s">
-        <v>470</v>
+        <v>460</v>
       </c>
       <c r="H173" s="1" t="s">
         <v>68</v>
       </c>
       <c r="I173" s="1" t="s">
-        <v>472</v>
+        <v>261</v>
       </c>
       <c r="K173" s="5"/>
       <c r="L173" s="5"/>
@@ -7856,7 +7819,7 @@
         <v>63</v>
       </c>
       <c r="C174" s="1" t="s">
-        <v>468</v>
+        <v>514</v>
       </c>
       <c r="D174" s="1" t="s">
         <v>68</v>
@@ -7868,13 +7831,13 @@
         <v>216</v>
       </c>
       <c r="G174" s="1" t="s">
-        <v>471</v>
+        <v>461</v>
       </c>
       <c r="H174" s="1" t="s">
         <v>68</v>
       </c>
       <c r="I174" s="1" t="s">
-        <v>475</v>
+        <v>462</v>
       </c>
       <c r="K174" s="5"/>
       <c r="L174" s="5"/>
@@ -7889,7 +7852,7 @@
         <v>63</v>
       </c>
       <c r="C175" s="1" t="s">
-        <v>469</v>
+        <v>515</v>
       </c>
       <c r="D175" s="1" t="s">
         <v>68</v>
@@ -7901,13 +7864,13 @@
         <v>216</v>
       </c>
       <c r="G175" s="1" t="s">
-        <v>474</v>
+        <v>463</v>
       </c>
       <c r="H175" s="1" t="s">
         <v>68</v>
       </c>
       <c r="I175" s="1" t="s">
-        <v>476</v>
+        <v>464</v>
       </c>
       <c r="K175" s="5"/>
       <c r="L175" s="5"/>
@@ -7934,7 +7897,7 @@
         <v>91</v>
       </c>
       <c r="G176" s="2" t="s">
-        <v>477</v>
+        <v>465</v>
       </c>
       <c r="H176" s="2" t="s">
         <v>265</v>
@@ -8054,7 +8017,7 @@
         <v>64</v>
       </c>
       <c r="C180" s="1" t="s">
-        <v>478</v>
+        <v>466</v>
       </c>
       <c r="D180" s="1" t="s">
         <v>69</v>
@@ -8066,10 +8029,10 @@
         <v>87</v>
       </c>
       <c r="G180" s="2" t="s">
-        <v>479</v>
+        <v>467</v>
       </c>
       <c r="H180" s="2" t="s">
-        <v>480</v>
+        <v>468</v>
       </c>
       <c r="I180" s="1" t="s">
         <v>275</v>
@@ -8102,10 +8065,10 @@
         <v>277</v>
       </c>
       <c r="H181" s="2" t="s">
-        <v>278</v>
+        <v>518</v>
       </c>
       <c r="I181" s="1" t="s">
-        <v>481</v>
+        <v>469</v>
       </c>
       <c r="K181" s="5"/>
       <c r="L181" s="5"/>
@@ -8129,16 +8092,16 @@
         <v>68</v>
       </c>
       <c r="F182" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="G182" s="1" t="s">
         <v>280</v>
       </c>
-      <c r="G182" s="1" t="s">
-        <v>281</v>
-      </c>
       <c r="H182" s="1" t="s">
         <v>68</v>
       </c>
       <c r="I182" s="1" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="K182" s="5"/>
       <c r="L182" s="5"/>
@@ -8153,25 +8116,25 @@
         <v>64</v>
       </c>
       <c r="C183" s="1" t="s">
-        <v>482</v>
+        <v>504</v>
       </c>
       <c r="D183" s="1" t="s">
         <v>69</v>
       </c>
       <c r="E183" s="2" t="s">
-        <v>483</v>
+        <v>471</v>
       </c>
       <c r="F183" s="1" t="s">
-        <v>187</v>
+        <v>87</v>
       </c>
       <c r="G183" s="2" t="s">
-        <v>484</v>
+        <v>472</v>
       </c>
       <c r="H183" s="2" t="s">
-        <v>489</v>
+        <v>473</v>
       </c>
       <c r="I183" s="1" t="s">
-        <v>282</v>
+        <v>470</v>
       </c>
       <c r="K183" s="5"/>
       <c r="L183" s="5"/>
@@ -8180,112 +8143,112 @@
     </row>
     <row r="184" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A184" s="1" t="s">
-        <v>239</v>
+        <v>288</v>
       </c>
       <c r="B184" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C184" s="1" t="s">
-        <v>486</v>
+        <v>5</v>
       </c>
       <c r="D184" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="E184" s="2" t="s">
-        <v>487</v>
+        <v>68</v>
+      </c>
+      <c r="E184" s="1" t="s">
+        <v>68</v>
       </c>
       <c r="F184" s="1" t="s">
-        <v>276</v>
+        <v>68</v>
       </c>
       <c r="G184" s="2" t="s">
-        <v>488</v>
-      </c>
-      <c r="H184" s="2" t="s">
-        <v>490</v>
+        <v>117</v>
+      </c>
+      <c r="H184" s="1" t="s">
+        <v>125</v>
       </c>
       <c r="I184" s="1" t="s">
-        <v>485</v>
+        <v>122</v>
       </c>
       <c r="K184" s="5"/>
       <c r="L184" s="5"/>
-      <c r="M184" s="1"/>
-      <c r="N184" s="2"/>
+      <c r="M184" s="5"/>
+      <c r="N184" s="5"/>
     </row>
     <row r="185" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A185" s="1" t="s">
-        <v>239</v>
+        <v>288</v>
       </c>
       <c r="B185" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C185" s="1" t="s">
-        <v>492</v>
+        <v>6</v>
       </c>
       <c r="D185" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="E185" s="2" t="s">
-        <v>487</v>
+        <v>68</v>
+      </c>
+      <c r="E185" s="1" t="s">
+        <v>68</v>
       </c>
       <c r="F185" s="1" t="s">
-        <v>187</v>
+        <v>68</v>
       </c>
       <c r="G185" s="2" t="s">
-        <v>484</v>
-      </c>
-      <c r="H185" s="2" t="s">
-        <v>489</v>
+        <v>118</v>
+      </c>
+      <c r="H185" s="1" t="s">
+        <v>126</v>
       </c>
       <c r="I185" s="1" t="s">
-        <v>491</v>
+        <v>122</v>
       </c>
       <c r="K185" s="5"/>
       <c r="L185" s="5"/>
-      <c r="M185" s="1"/>
-      <c r="N185" s="2"/>
+      <c r="M185" s="5"/>
+      <c r="N185" s="5"/>
     </row>
     <row r="186" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A186" s="1" t="s">
-        <v>239</v>
+        <v>288</v>
       </c>
       <c r="B186" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C186" s="1" t="s">
-        <v>494</v>
+        <v>289</v>
       </c>
       <c r="D186" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="E186" s="2" t="s">
-        <v>495</v>
+        <v>68</v>
+      </c>
+      <c r="E186" s="1" t="s">
+        <v>68</v>
       </c>
       <c r="F186" s="1" t="s">
-        <v>87</v>
+        <v>68</v>
       </c>
       <c r="G186" s="2" t="s">
-        <v>496</v>
-      </c>
-      <c r="H186" s="2" t="s">
-        <v>497</v>
+        <v>135</v>
+      </c>
+      <c r="H186" s="1" t="s">
+        <v>281</v>
       </c>
       <c r="I186" s="1" t="s">
-        <v>493</v>
+        <v>122</v>
       </c>
       <c r="K186" s="5"/>
       <c r="L186" s="5"/>
-      <c r="M186" s="1"/>
-      <c r="N186" s="2"/>
+      <c r="M186" s="5"/>
+      <c r="N186" s="5"/>
     </row>
     <row r="187" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A187" s="1" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="B187" s="1" t="s">
         <v>62</v>
       </c>
       <c r="C187" s="1" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="D187" s="1" t="s">
         <v>68</v>
@@ -8297,10 +8260,10 @@
         <v>68</v>
       </c>
       <c r="G187" s="2" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="H187" s="1" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="I187" s="1" t="s">
         <v>122</v>
@@ -8312,13 +8275,13 @@
     </row>
     <row r="188" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A188" s="1" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="B188" s="1" t="s">
         <v>62</v>
       </c>
       <c r="C188" s="1" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D188" s="1" t="s">
         <v>68</v>
@@ -8330,10 +8293,10 @@
         <v>68</v>
       </c>
       <c r="G188" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="H188" s="1" t="s">
-        <v>126</v>
+        <v>140</v>
       </c>
       <c r="I188" s="1" t="s">
         <v>122</v>
@@ -8345,14 +8308,14 @@
     </row>
     <row r="189" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A189" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="B189" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C189" s="1" t="s">
         <v>290</v>
       </c>
-      <c r="B189" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="C189" s="1" t="s">
-        <v>291</v>
-      </c>
       <c r="D189" s="1" t="s">
         <v>68</v>
       </c>
@@ -8363,10 +8326,10 @@
         <v>68</v>
       </c>
       <c r="G189" s="2" t="s">
-        <v>135</v>
+        <v>119</v>
       </c>
       <c r="H189" s="1" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="I189" s="1" t="s">
         <v>122</v>
@@ -8378,13 +8341,13 @@
     </row>
     <row r="190" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A190" s="1" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="B190" s="1" t="s">
         <v>62</v>
       </c>
       <c r="C190" s="1" t="s">
-        <v>8</v>
+        <v>242</v>
       </c>
       <c r="D190" s="1" t="s">
         <v>68</v>
@@ -8396,10 +8359,10 @@
         <v>68</v>
       </c>
       <c r="G190" s="2" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="H190" s="1" t="s">
-        <v>129</v>
+        <v>282</v>
       </c>
       <c r="I190" s="1" t="s">
         <v>122</v>
@@ -8411,13 +8374,13 @@
     </row>
     <row r="191" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A191" s="1" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="B191" s="1" t="s">
         <v>62</v>
       </c>
       <c r="C191" s="1" t="s">
-        <v>9</v>
+        <v>291</v>
       </c>
       <c r="D191" s="1" t="s">
         <v>68</v>
@@ -8429,10 +8392,10 @@
         <v>68</v>
       </c>
       <c r="G191" s="2" t="s">
-        <v>120</v>
+        <v>234</v>
       </c>
       <c r="H191" s="1" t="s">
-        <v>140</v>
+        <v>235</v>
       </c>
       <c r="I191" s="1" t="s">
         <v>122</v>
@@ -8444,13 +8407,13 @@
     </row>
     <row r="192" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A192" s="1" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="B192" s="1" t="s">
         <v>62</v>
       </c>
       <c r="C192" s="1" t="s">
-        <v>292</v>
+        <v>13</v>
       </c>
       <c r="D192" s="1" t="s">
         <v>68</v>
@@ -8462,10 +8425,10 @@
         <v>68</v>
       </c>
       <c r="G192" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="H192" s="1" t="s">
-        <v>284</v>
+        <v>129</v>
       </c>
       <c r="I192" s="1" t="s">
         <v>122</v>
@@ -8477,13 +8440,13 @@
     </row>
     <row r="193" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A193" s="1" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="B193" s="1" t="s">
         <v>62</v>
       </c>
       <c r="C193" s="1" t="s">
-        <v>242</v>
+        <v>16</v>
       </c>
       <c r="D193" s="1" t="s">
         <v>68</v>
@@ -8495,10 +8458,10 @@
         <v>68</v>
       </c>
       <c r="G193" s="2" t="s">
-        <v>119</v>
+        <v>133</v>
       </c>
       <c r="H193" s="1" t="s">
-        <v>284</v>
+        <v>302</v>
       </c>
       <c r="I193" s="1" t="s">
         <v>122</v>
@@ -8510,13 +8473,13 @@
     </row>
     <row r="194" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A194" s="1" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="B194" s="1" t="s">
         <v>62</v>
       </c>
       <c r="C194" s="1" t="s">
-        <v>293</v>
+        <v>18</v>
       </c>
       <c r="D194" s="1" t="s">
         <v>68</v>
@@ -8528,10 +8491,10 @@
         <v>68</v>
       </c>
       <c r="G194" s="2" t="s">
-        <v>234</v>
+        <v>115</v>
       </c>
       <c r="H194" s="1" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="I194" s="1" t="s">
         <v>122</v>
@@ -8543,13 +8506,13 @@
     </row>
     <row r="195" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A195" s="1" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="B195" s="1" t="s">
         <v>62</v>
       </c>
       <c r="C195" s="1" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="D195" s="1" t="s">
         <v>68</v>
@@ -8561,10 +8524,10 @@
         <v>68</v>
       </c>
       <c r="G195" s="2" t="s">
-        <v>121</v>
+        <v>136</v>
       </c>
       <c r="H195" s="1" t="s">
-        <v>129</v>
+        <v>137</v>
       </c>
       <c r="I195" s="1" t="s">
         <v>122</v>
@@ -8576,13 +8539,13 @@
     </row>
     <row r="196" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A196" s="1" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="B196" s="1" t="s">
         <v>62</v>
       </c>
       <c r="C196" s="1" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="D196" s="1" t="s">
         <v>68</v>
@@ -8594,10 +8557,10 @@
         <v>68</v>
       </c>
       <c r="G196" s="2" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
       <c r="H196" s="1" t="s">
-        <v>304</v>
+        <v>139</v>
       </c>
       <c r="I196" s="1" t="s">
         <v>122</v>
@@ -8609,13 +8572,13 @@
     </row>
     <row r="197" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A197" s="1" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="B197" s="1" t="s">
         <v>62</v>
       </c>
       <c r="C197" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D197" s="1" t="s">
         <v>68</v>
@@ -8627,10 +8590,10 @@
         <v>68</v>
       </c>
       <c r="G197" s="2" t="s">
-        <v>115</v>
+        <v>141</v>
       </c>
       <c r="H197" s="1" t="s">
-        <v>233</v>
+        <v>142</v>
       </c>
       <c r="I197" s="1" t="s">
         <v>122</v>
@@ -8642,13 +8605,13 @@
     </row>
     <row r="198" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A198" s="1" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="B198" s="1" t="s">
         <v>62</v>
       </c>
       <c r="C198" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="D198" s="1" t="s">
         <v>68</v>
@@ -8660,10 +8623,10 @@
         <v>68</v>
       </c>
       <c r="G198" s="2" t="s">
-        <v>136</v>
+        <v>117</v>
       </c>
       <c r="H198" s="1" t="s">
-        <v>137</v>
+        <v>125</v>
       </c>
       <c r="I198" s="1" t="s">
         <v>122</v>
@@ -8675,13 +8638,13 @@
     </row>
     <row r="199" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A199" s="1" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="B199" s="1" t="s">
         <v>62</v>
       </c>
       <c r="C199" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="D199" s="1" t="s">
         <v>68</v>
@@ -8693,10 +8656,10 @@
         <v>68</v>
       </c>
       <c r="G199" s="2" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="H199" s="1" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="I199" s="1" t="s">
         <v>122</v>
@@ -8708,13 +8671,13 @@
     </row>
     <row r="200" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A200" s="1" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="B200" s="1" t="s">
         <v>62</v>
       </c>
       <c r="C200" s="1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="D200" s="1" t="s">
         <v>68</v>
@@ -8726,10 +8689,10 @@
         <v>68</v>
       </c>
       <c r="G200" s="2" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="H200" s="1" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="I200" s="1" t="s">
         <v>122</v>
@@ -8741,13 +8704,13 @@
     </row>
     <row r="201" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A201" s="1" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="B201" s="1" t="s">
         <v>62</v>
       </c>
       <c r="C201" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="D201" s="1" t="s">
         <v>68</v>
@@ -8759,10 +8722,10 @@
         <v>68</v>
       </c>
       <c r="G201" s="2" t="s">
-        <v>117</v>
+        <v>145</v>
       </c>
       <c r="H201" s="1" t="s">
-        <v>125</v>
+        <v>146</v>
       </c>
       <c r="I201" s="1" t="s">
         <v>122</v>
@@ -8774,13 +8737,13 @@
     </row>
     <row r="202" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A202" s="1" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="B202" s="1" t="s">
         <v>62</v>
       </c>
       <c r="C202" s="1" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="D202" s="1" t="s">
         <v>68</v>
@@ -8792,10 +8755,10 @@
         <v>68</v>
       </c>
       <c r="G202" s="2" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="H202" s="1" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="I202" s="1" t="s">
         <v>122</v>
@@ -8807,13 +8770,13 @@
     </row>
     <row r="203" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A203" s="1" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="B203" s="1" t="s">
         <v>62</v>
       </c>
       <c r="C203" s="1" t="s">
-        <v>24</v>
+        <v>167</v>
       </c>
       <c r="D203" s="1" t="s">
         <v>68</v>
@@ -8825,10 +8788,10 @@
         <v>68</v>
       </c>
       <c r="G203" s="2" t="s">
-        <v>136</v>
+        <v>196</v>
       </c>
       <c r="H203" s="1" t="s">
-        <v>137</v>
+        <v>285</v>
       </c>
       <c r="I203" s="1" t="s">
         <v>122</v>
@@ -8840,13 +8803,13 @@
     </row>
     <row r="204" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A204" s="1" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="B204" s="1" t="s">
         <v>62</v>
       </c>
       <c r="C204" s="1" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D204" s="1" t="s">
         <v>68</v>
@@ -8858,10 +8821,10 @@
         <v>68</v>
       </c>
       <c r="G204" s="2" t="s">
-        <v>145</v>
+        <v>133</v>
       </c>
       <c r="H204" s="1" t="s">
-        <v>146</v>
+        <v>302</v>
       </c>
       <c r="I204" s="1" t="s">
         <v>122</v>
@@ -8873,13 +8836,13 @@
     </row>
     <row r="205" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A205" s="1" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="B205" s="1" t="s">
         <v>62</v>
       </c>
       <c r="C205" s="1" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="D205" s="1" t="s">
         <v>68</v>
@@ -8891,10 +8854,10 @@
         <v>68</v>
       </c>
       <c r="G205" s="2" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="H205" s="1" t="s">
-        <v>148</v>
+        <v>496</v>
       </c>
       <c r="I205" s="1" t="s">
         <v>122</v>
@@ -8906,13 +8869,13 @@
     </row>
     <row r="206" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A206" s="1" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="B206" s="1" t="s">
         <v>62</v>
       </c>
       <c r="C206" s="1" t="s">
-        <v>167</v>
+        <v>292</v>
       </c>
       <c r="D206" s="1" t="s">
         <v>68</v>
@@ -8924,10 +8887,10 @@
         <v>68</v>
       </c>
       <c r="G206" s="2" t="s">
-        <v>196</v>
+        <v>303</v>
       </c>
       <c r="H206" s="1" t="s">
-        <v>287</v>
+        <v>496</v>
       </c>
       <c r="I206" s="1" t="s">
         <v>122</v>
@@ -8939,13 +8902,13 @@
     </row>
     <row r="207" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A207" s="1" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="B207" s="1" t="s">
         <v>62</v>
       </c>
       <c r="C207" s="1" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="D207" s="1" t="s">
         <v>68</v>
@@ -8957,10 +8920,10 @@
         <v>68</v>
       </c>
       <c r="G207" s="2" t="s">
-        <v>133</v>
+        <v>152</v>
       </c>
       <c r="H207" s="1" t="s">
-        <v>304</v>
+        <v>496</v>
       </c>
       <c r="I207" s="1" t="s">
         <v>122</v>
@@ -8972,13 +8935,13 @@
     </row>
     <row r="208" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A208" s="1" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="B208" s="1" t="s">
         <v>62</v>
       </c>
       <c r="C208" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="D208" s="1" t="s">
         <v>68</v>
@@ -8990,10 +8953,10 @@
         <v>68</v>
       </c>
       <c r="G208" s="2" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="H208" s="1" t="s">
-        <v>520</v>
+        <v>496</v>
       </c>
       <c r="I208" s="1" t="s">
         <v>122</v>
@@ -9005,13 +8968,13 @@
     </row>
     <row r="209" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A209" s="1" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="B209" s="1" t="s">
         <v>62</v>
       </c>
       <c r="C209" s="1" t="s">
-        <v>294</v>
+        <v>37</v>
       </c>
       <c r="D209" s="1" t="s">
         <v>68</v>
@@ -9023,10 +8986,10 @@
         <v>68</v>
       </c>
       <c r="G209" s="2" t="s">
-        <v>305</v>
+        <v>136</v>
       </c>
       <c r="H209" s="1" t="s">
-        <v>520</v>
+        <v>137</v>
       </c>
       <c r="I209" s="1" t="s">
         <v>122</v>
@@ -9038,13 +9001,13 @@
     </row>
     <row r="210" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A210" s="1" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="B210" s="1" t="s">
         <v>62</v>
       </c>
       <c r="C210" s="1" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="D210" s="1" t="s">
         <v>68</v>
@@ -9056,10 +9019,10 @@
         <v>68</v>
       </c>
       <c r="G210" s="2" t="s">
-        <v>152</v>
+        <v>304</v>
       </c>
       <c r="H210" s="1" t="s">
-        <v>520</v>
+        <v>496</v>
       </c>
       <c r="I210" s="1" t="s">
         <v>122</v>
@@ -9071,13 +9034,13 @@
     </row>
     <row r="211" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A211" s="1" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="B211" s="1" t="s">
         <v>62</v>
       </c>
       <c r="C211" s="1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="D211" s="1" t="s">
         <v>68</v>
@@ -9089,10 +9052,10 @@
         <v>68</v>
       </c>
       <c r="G211" s="2" t="s">
-        <v>153</v>
+        <v>305</v>
       </c>
       <c r="H211" s="1" t="s">
-        <v>520</v>
+        <v>502</v>
       </c>
       <c r="I211" s="1" t="s">
         <v>122</v>
@@ -9104,13 +9067,13 @@
     </row>
     <row r="212" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A212" s="1" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="B212" s="1" t="s">
         <v>62</v>
       </c>
       <c r="C212" s="1" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="D212" s="1" t="s">
         <v>68</v>
@@ -9122,10 +9085,10 @@
         <v>68</v>
       </c>
       <c r="G212" s="2" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="H212" s="1" t="s">
-        <v>137</v>
+        <v>302</v>
       </c>
       <c r="I212" s="1" t="s">
         <v>122</v>
@@ -9137,13 +9100,13 @@
     </row>
     <row r="213" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A213" s="1" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="B213" s="1" t="s">
         <v>62</v>
       </c>
       <c r="C213" s="1" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="D213" s="1" t="s">
         <v>68</v>
@@ -9154,11 +9117,11 @@
       <c r="F213" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="G213" s="2" t="s">
-        <v>306</v>
+      <c r="G213" s="1" t="s">
+        <v>286</v>
       </c>
       <c r="H213" s="1" t="s">
-        <v>520</v>
+        <v>201</v>
       </c>
       <c r="I213" s="1" t="s">
         <v>122</v>
@@ -9170,13 +9133,13 @@
     </row>
     <row r="214" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A214" s="1" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="B214" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C214" s="1" t="s">
-        <v>39</v>
+        <v>431</v>
       </c>
       <c r="D214" s="1" t="s">
         <v>68</v>
@@ -9185,31 +9148,31 @@
         <v>68</v>
       </c>
       <c r="F214" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="G214" s="2" t="s">
-        <v>307</v>
+        <v>216</v>
+      </c>
+      <c r="G214" s="1" t="s">
+        <v>461</v>
       </c>
       <c r="H214" s="1" t="s">
-        <v>526</v>
+        <v>68</v>
       </c>
       <c r="I214" s="1" t="s">
-        <v>122</v>
+        <v>480</v>
       </c>
       <c r="K214" s="5"/>
-      <c r="L214" s="5"/>
-      <c r="M214" s="5"/>
+      <c r="L214" s="1"/>
+      <c r="M214" s="1"/>
       <c r="N214" s="5"/>
     </row>
     <row r="215" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A215" s="1" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="B215" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C215" s="1" t="s">
-        <v>41</v>
+        <v>474</v>
       </c>
       <c r="D215" s="1" t="s">
         <v>68</v>
@@ -9218,31 +9181,31 @@
         <v>68</v>
       </c>
       <c r="F215" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="G215" s="2" t="s">
-        <v>133</v>
+        <v>216</v>
+      </c>
+      <c r="G215" s="1" t="s">
+        <v>476</v>
       </c>
       <c r="H215" s="1" t="s">
-        <v>304</v>
+        <v>68</v>
       </c>
       <c r="I215" s="1" t="s">
-        <v>122</v>
+        <v>478</v>
       </c>
       <c r="K215" s="5"/>
-      <c r="L215" s="5"/>
-      <c r="M215" s="5"/>
+      <c r="L215" s="1"/>
+      <c r="M215" s="1"/>
       <c r="N215" s="5"/>
     </row>
     <row r="216" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A216" s="1" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="B216" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C216" s="1" t="s">
-        <v>44</v>
+        <v>475</v>
       </c>
       <c r="D216" s="1" t="s">
         <v>68</v>
@@ -9251,130 +9214,130 @@
         <v>68</v>
       </c>
       <c r="F216" s="1" t="s">
-        <v>68</v>
+        <v>216</v>
       </c>
       <c r="G216" s="1" t="s">
-        <v>288</v>
+        <v>477</v>
       </c>
       <c r="H216" s="1" t="s">
-        <v>201</v>
+        <v>68</v>
       </c>
       <c r="I216" s="1" t="s">
-        <v>122</v>
+        <v>479</v>
       </c>
       <c r="K216" s="5"/>
-      <c r="L216" s="5"/>
-      <c r="M216" s="5"/>
+      <c r="L216" s="1"/>
+      <c r="M216" s="1"/>
       <c r="N216" s="5"/>
     </row>
     <row r="217" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A217" s="1" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="B217" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C217" s="1" t="s">
-        <v>433</v>
+        <v>293</v>
       </c>
       <c r="D217" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E217" s="1" t="s">
         <v>68</v>
       </c>
       <c r="F217" s="1" t="s">
-        <v>216</v>
-      </c>
-      <c r="G217" s="1" t="s">
-        <v>470</v>
-      </c>
-      <c r="H217" s="1" t="s">
-        <v>68</v>
+        <v>91</v>
+      </c>
+      <c r="G217" s="2" t="s">
+        <v>481</v>
+      </c>
+      <c r="H217" s="2" t="s">
+        <v>296</v>
       </c>
       <c r="I217" s="1" t="s">
-        <v>504</v>
+        <v>297</v>
       </c>
       <c r="K217" s="5"/>
-      <c r="L217" s="1"/>
-      <c r="M217" s="1"/>
+      <c r="L217" s="5"/>
+      <c r="M217" s="5"/>
       <c r="N217" s="5"/>
     </row>
     <row r="218" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A218" s="1" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="B218" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C218" s="1" t="s">
-        <v>498</v>
+        <v>294</v>
       </c>
       <c r="D218" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E218" s="1" t="s">
         <v>68</v>
       </c>
       <c r="F218" s="1" t="s">
-        <v>216</v>
-      </c>
-      <c r="G218" s="1" t="s">
-        <v>500</v>
-      </c>
-      <c r="H218" s="1" t="s">
-        <v>68</v>
+        <v>91</v>
+      </c>
+      <c r="G218" s="2" t="s">
+        <v>482</v>
+      </c>
+      <c r="H218" s="2" t="s">
+        <v>298</v>
       </c>
       <c r="I218" s="1" t="s">
-        <v>502</v>
+        <v>299</v>
       </c>
       <c r="K218" s="5"/>
-      <c r="L218" s="1"/>
-      <c r="M218" s="1"/>
+      <c r="L218" s="5"/>
+      <c r="M218" s="5"/>
       <c r="N218" s="5"/>
     </row>
     <row r="219" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A219" s="1" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="B219" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C219" s="1" t="s">
-        <v>499</v>
+        <v>295</v>
       </c>
       <c r="D219" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E219" s="1" t="s">
         <v>68</v>
       </c>
       <c r="F219" s="1" t="s">
-        <v>216</v>
-      </c>
-      <c r="G219" s="1" t="s">
-        <v>501</v>
-      </c>
-      <c r="H219" s="1" t="s">
-        <v>68</v>
+        <v>91</v>
+      </c>
+      <c r="G219" s="2" t="s">
+        <v>483</v>
+      </c>
+      <c r="H219" s="2" t="s">
+        <v>300</v>
       </c>
       <c r="I219" s="1" t="s">
-        <v>503</v>
+        <v>301</v>
       </c>
       <c r="K219" s="5"/>
-      <c r="L219" s="1"/>
-      <c r="M219" s="1"/>
+      <c r="L219" s="5"/>
+      <c r="M219" s="5"/>
       <c r="N219" s="5"/>
     </row>
     <row r="220" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A220" s="1" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="B220" s="1" t="s">
         <v>64</v>
       </c>
       <c r="C220" s="1" t="s">
-        <v>295</v>
+        <v>484</v>
       </c>
       <c r="D220" s="1" t="s">
         <v>69</v>
@@ -9386,46 +9349,46 @@
         <v>91</v>
       </c>
       <c r="G220" s="2" t="s">
-        <v>505</v>
+        <v>485</v>
       </c>
       <c r="H220" s="2" t="s">
-        <v>298</v>
+        <v>486</v>
       </c>
       <c r="I220" s="1" t="s">
-        <v>299</v>
+        <v>487</v>
       </c>
       <c r="K220" s="5"/>
       <c r="L220" s="5"/>
-      <c r="M220" s="5"/>
-      <c r="N220" s="5"/>
+      <c r="M220" s="1"/>
+      <c r="N220" s="2"/>
     </row>
     <row r="221" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A221" s="1" t="s">
-        <v>290</v>
+        <v>306</v>
       </c>
       <c r="B221" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C221" s="1" t="s">
-        <v>296</v>
+        <v>5</v>
       </c>
       <c r="D221" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E221" s="1" t="s">
         <v>68</v>
       </c>
       <c r="F221" s="1" t="s">
-        <v>91</v>
+        <v>68</v>
       </c>
       <c r="G221" s="2" t="s">
-        <v>506</v>
-      </c>
-      <c r="H221" s="2" t="s">
-        <v>300</v>
+        <v>349</v>
+      </c>
+      <c r="H221" s="1" t="s">
+        <v>320</v>
       </c>
       <c r="I221" s="1" t="s">
-        <v>301</v>
+        <v>122</v>
       </c>
       <c r="K221" s="5"/>
       <c r="L221" s="5"/>
@@ -9434,31 +9397,31 @@
     </row>
     <row r="222" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A222" s="1" t="s">
-        <v>290</v>
+        <v>306</v>
       </c>
       <c r="B222" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C222" s="1" t="s">
-        <v>297</v>
+        <v>8</v>
       </c>
       <c r="D222" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E222" s="1" t="s">
         <v>68</v>
       </c>
       <c r="F222" s="1" t="s">
-        <v>91</v>
+        <v>68</v>
       </c>
       <c r="G222" s="2" t="s">
-        <v>507</v>
-      </c>
-      <c r="H222" s="2" t="s">
-        <v>302</v>
+        <v>121</v>
+      </c>
+      <c r="H222" s="1" t="s">
+        <v>129</v>
       </c>
       <c r="I222" s="1" t="s">
-        <v>303</v>
+        <v>122</v>
       </c>
       <c r="K222" s="5"/>
       <c r="L222" s="5"/>
@@ -9467,46 +9430,46 @@
     </row>
     <row r="223" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A223" s="1" t="s">
-        <v>290</v>
+        <v>306</v>
       </c>
       <c r="B223" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C223" s="1" t="s">
-        <v>508</v>
+        <v>161</v>
       </c>
       <c r="D223" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E223" s="1" t="s">
         <v>68</v>
       </c>
       <c r="F223" s="1" t="s">
-        <v>91</v>
+        <v>68</v>
       </c>
       <c r="G223" s="2" t="s">
-        <v>509</v>
-      </c>
-      <c r="H223" s="2" t="s">
-        <v>510</v>
+        <v>193</v>
+      </c>
+      <c r="H223" s="1" t="s">
+        <v>139</v>
       </c>
       <c r="I223" s="1" t="s">
-        <v>511</v>
+        <v>122</v>
       </c>
       <c r="K223" s="5"/>
       <c r="L223" s="5"/>
-      <c r="M223" s="1"/>
-      <c r="N223" s="2"/>
+      <c r="M223" s="5"/>
+      <c r="N223" s="5"/>
     </row>
     <row r="224" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A224" s="1" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="B224" s="1" t="s">
         <v>62</v>
       </c>
       <c r="C224" s="1" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="D224" s="1" t="s">
         <v>68</v>
@@ -9518,10 +9481,10 @@
         <v>68</v>
       </c>
       <c r="G224" s="2" t="s">
-        <v>351</v>
+        <v>120</v>
       </c>
       <c r="H224" s="1" t="s">
-        <v>322</v>
+        <v>140</v>
       </c>
       <c r="I224" s="1" t="s">
         <v>122</v>
@@ -9533,13 +9496,13 @@
     </row>
     <row r="225" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A225" s="1" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="B225" s="1" t="s">
         <v>62</v>
       </c>
       <c r="C225" s="1" t="s">
-        <v>8</v>
+        <v>307</v>
       </c>
       <c r="D225" s="1" t="s">
         <v>68</v>
@@ -9551,10 +9514,10 @@
         <v>68</v>
       </c>
       <c r="G225" s="2" t="s">
-        <v>121</v>
+        <v>321</v>
       </c>
       <c r="H225" s="1" t="s">
-        <v>129</v>
+        <v>322</v>
       </c>
       <c r="I225" s="1" t="s">
         <v>122</v>
@@ -9566,14 +9529,14 @@
     </row>
     <row r="226" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A226" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="B226" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C226" s="1" t="s">
         <v>308</v>
       </c>
-      <c r="B226" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="C226" s="1" t="s">
-        <v>161</v>
-      </c>
       <c r="D226" s="1" t="s">
         <v>68</v>
       </c>
@@ -9584,10 +9547,10 @@
         <v>68</v>
       </c>
       <c r="G226" s="2" t="s">
-        <v>193</v>
+        <v>323</v>
       </c>
       <c r="H226" s="1" t="s">
-        <v>139</v>
+        <v>324</v>
       </c>
       <c r="I226" s="1" t="s">
         <v>122</v>
@@ -9599,13 +9562,13 @@
     </row>
     <row r="227" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A227" s="1" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="B227" s="1" t="s">
         <v>62</v>
       </c>
       <c r="C227" s="1" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="D227" s="1" t="s">
         <v>68</v>
@@ -9617,10 +9580,10 @@
         <v>68</v>
       </c>
       <c r="G227" s="2" t="s">
-        <v>120</v>
+        <v>143</v>
       </c>
       <c r="H227" s="1" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="I227" s="1" t="s">
         <v>122</v>
@@ -9632,13 +9595,13 @@
     </row>
     <row r="228" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A228" s="1" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="B228" s="1" t="s">
         <v>62</v>
       </c>
       <c r="C228" s="1" t="s">
-        <v>309</v>
+        <v>24</v>
       </c>
       <c r="D228" s="1" t="s">
         <v>68</v>
@@ -9650,10 +9613,10 @@
         <v>68</v>
       </c>
       <c r="G228" s="2" t="s">
-        <v>323</v>
+        <v>136</v>
       </c>
       <c r="H228" s="1" t="s">
-        <v>324</v>
+        <v>137</v>
       </c>
       <c r="I228" s="1" t="s">
         <v>122</v>
@@ -9665,13 +9628,13 @@
     </row>
     <row r="229" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A229" s="1" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="B229" s="1" t="s">
         <v>62</v>
       </c>
       <c r="C229" s="1" t="s">
-        <v>310</v>
+        <v>25</v>
       </c>
       <c r="D229" s="1" t="s">
         <v>68</v>
@@ -9683,10 +9646,10 @@
         <v>68</v>
       </c>
       <c r="G229" s="2" t="s">
-        <v>325</v>
+        <v>145</v>
       </c>
       <c r="H229" s="1" t="s">
-        <v>326</v>
+        <v>146</v>
       </c>
       <c r="I229" s="1" t="s">
         <v>122</v>
@@ -9698,13 +9661,13 @@
     </row>
     <row r="230" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A230" s="1" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="B230" s="1" t="s">
         <v>62</v>
       </c>
       <c r="C230" s="1" t="s">
-        <v>23</v>
+        <v>309</v>
       </c>
       <c r="D230" s="1" t="s">
         <v>68</v>
@@ -9716,10 +9679,10 @@
         <v>68</v>
       </c>
       <c r="G230" s="2" t="s">
-        <v>143</v>
+        <v>325</v>
       </c>
       <c r="H230" s="1" t="s">
-        <v>144</v>
+        <v>496</v>
       </c>
       <c r="I230" s="1" t="s">
         <v>122</v>
@@ -9731,13 +9694,13 @@
     </row>
     <row r="231" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A231" s="1" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="B231" s="1" t="s">
         <v>62</v>
       </c>
       <c r="C231" s="1" t="s">
-        <v>24</v>
+        <v>310</v>
       </c>
       <c r="D231" s="1" t="s">
         <v>68</v>
@@ -9749,10 +9712,10 @@
         <v>68</v>
       </c>
       <c r="G231" s="2" t="s">
-        <v>136</v>
+        <v>121</v>
       </c>
       <c r="H231" s="1" t="s">
-        <v>137</v>
+        <v>129</v>
       </c>
       <c r="I231" s="1" t="s">
         <v>122</v>
@@ -9764,13 +9727,13 @@
     </row>
     <row r="232" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A232" s="1" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="B232" s="1" t="s">
         <v>62</v>
       </c>
       <c r="C232" s="1" t="s">
-        <v>25</v>
+        <v>311</v>
       </c>
       <c r="D232" s="1" t="s">
         <v>68</v>
@@ -9782,10 +9745,10 @@
         <v>68</v>
       </c>
       <c r="G232" s="2" t="s">
-        <v>145</v>
+        <v>326</v>
       </c>
       <c r="H232" s="1" t="s">
-        <v>146</v>
+        <v>496</v>
       </c>
       <c r="I232" s="1" t="s">
         <v>122</v>
@@ -9797,13 +9760,13 @@
     </row>
     <row r="233" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A233" s="1" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="B233" s="1" t="s">
         <v>62</v>
       </c>
       <c r="C233" s="1" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="D233" s="1" t="s">
         <v>68</v>
@@ -9818,7 +9781,7 @@
         <v>327</v>
       </c>
       <c r="H233" s="1" t="s">
-        <v>520</v>
+        <v>139</v>
       </c>
       <c r="I233" s="1" t="s">
         <v>122</v>
@@ -9830,13 +9793,13 @@
     </row>
     <row r="234" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A234" s="1" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="B234" s="1" t="s">
         <v>62</v>
       </c>
       <c r="C234" s="1" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="D234" s="1" t="s">
         <v>68</v>
@@ -9848,10 +9811,10 @@
         <v>68</v>
       </c>
       <c r="G234" s="2" t="s">
-        <v>121</v>
+        <v>328</v>
       </c>
       <c r="H234" s="1" t="s">
-        <v>129</v>
+        <v>496</v>
       </c>
       <c r="I234" s="1" t="s">
         <v>122</v>
@@ -9863,13 +9826,13 @@
     </row>
     <row r="235" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A235" s="1" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="B235" s="1" t="s">
         <v>62</v>
       </c>
       <c r="C235" s="1" t="s">
-        <v>313</v>
+        <v>37</v>
       </c>
       <c r="D235" s="1" t="s">
         <v>68</v>
@@ -9881,10 +9844,10 @@
         <v>68</v>
       </c>
       <c r="G235" s="2" t="s">
-        <v>328</v>
+        <v>136</v>
       </c>
       <c r="H235" s="1" t="s">
-        <v>520</v>
+        <v>137</v>
       </c>
       <c r="I235" s="1" t="s">
         <v>122</v>
@@ -9896,7 +9859,7 @@
     </row>
     <row r="236" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A236" s="1" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="B236" s="1" t="s">
         <v>62</v>
@@ -9917,7 +9880,7 @@
         <v>329</v>
       </c>
       <c r="H236" s="1" t="s">
-        <v>139</v>
+        <v>496</v>
       </c>
       <c r="I236" s="1" t="s">
         <v>122</v>
@@ -9929,7 +9892,7 @@
     </row>
     <row r="237" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A237" s="1" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="B237" s="1" t="s">
         <v>62</v>
@@ -9950,7 +9913,7 @@
         <v>330</v>
       </c>
       <c r="H237" s="1" t="s">
-        <v>520</v>
+        <v>496</v>
       </c>
       <c r="I237" s="1" t="s">
         <v>122</v>
@@ -9962,31 +9925,31 @@
     </row>
     <row r="238" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A238" s="1" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="B238" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C238" s="1" t="s">
-        <v>37</v>
+        <v>316</v>
       </c>
       <c r="D238" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E238" s="1" t="s">
         <v>68</v>
       </c>
       <c r="F238" s="1" t="s">
-        <v>68</v>
+        <v>87</v>
       </c>
       <c r="G238" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="H238" s="1" t="s">
-        <v>137</v>
+        <v>317</v>
+      </c>
+      <c r="H238" s="2" t="s">
+        <v>318</v>
       </c>
       <c r="I238" s="1" t="s">
-        <v>122</v>
+        <v>319</v>
       </c>
       <c r="K238" s="5"/>
       <c r="L238" s="5"/>
@@ -9995,13 +9958,13 @@
     </row>
     <row r="239" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A239" s="1" t="s">
-        <v>308</v>
+        <v>331</v>
       </c>
       <c r="B239" s="1" t="s">
         <v>62</v>
       </c>
       <c r="C239" s="1" t="s">
-        <v>316</v>
+        <v>0</v>
       </c>
       <c r="D239" s="1" t="s">
         <v>68</v>
@@ -10013,10 +9976,10 @@
         <v>68</v>
       </c>
       <c r="G239" s="2" t="s">
-        <v>331</v>
+        <v>113</v>
       </c>
       <c r="H239" s="1" t="s">
-        <v>520</v>
+        <v>123</v>
       </c>
       <c r="I239" s="1" t="s">
         <v>122</v>
@@ -10028,13 +9991,13 @@
     </row>
     <row r="240" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A240" s="1" t="s">
-        <v>308</v>
+        <v>331</v>
       </c>
       <c r="B240" s="1" t="s">
         <v>62</v>
       </c>
       <c r="C240" s="1" t="s">
-        <v>317</v>
+        <v>332</v>
       </c>
       <c r="D240" s="1" t="s">
         <v>68</v>
@@ -10046,10 +10009,10 @@
         <v>68</v>
       </c>
       <c r="G240" s="2" t="s">
-        <v>332</v>
+        <v>119</v>
       </c>
       <c r="H240" s="1" t="s">
-        <v>520</v>
+        <v>282</v>
       </c>
       <c r="I240" s="1" t="s">
         <v>122</v>
@@ -10061,31 +10024,31 @@
     </row>
     <row r="241" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A241" s="1" t="s">
-        <v>308</v>
+        <v>331</v>
       </c>
       <c r="B241" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C241" s="1" t="s">
-        <v>318</v>
+        <v>1</v>
       </c>
       <c r="D241" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E241" s="1" t="s">
         <v>68</v>
       </c>
       <c r="F241" s="1" t="s">
-        <v>87</v>
+        <v>68</v>
       </c>
       <c r="G241" s="2" t="s">
-        <v>319</v>
-      </c>
-      <c r="H241" s="2" t="s">
-        <v>320</v>
+        <v>114</v>
+      </c>
+      <c r="H241" s="1" t="s">
+        <v>348</v>
       </c>
       <c r="I241" s="1" t="s">
-        <v>321</v>
+        <v>122</v>
       </c>
       <c r="K241" s="5"/>
       <c r="L241" s="5"/>
@@ -10094,13 +10057,13 @@
     </row>
     <row r="242" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A242" s="1" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="B242" s="1" t="s">
         <v>62</v>
       </c>
       <c r="C242" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D242" s="1" t="s">
         <v>68</v>
@@ -10112,10 +10075,10 @@
         <v>68</v>
       </c>
       <c r="G242" s="2" t="s">
-        <v>113</v>
+        <v>135</v>
       </c>
       <c r="H242" s="1" t="s">
-        <v>123</v>
+        <v>281</v>
       </c>
       <c r="I242" s="1" t="s">
         <v>122</v>
@@ -10127,13 +10090,13 @@
     </row>
     <row r="243" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A243" s="1" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="B243" s="1" t="s">
         <v>62</v>
       </c>
       <c r="C243" s="1" t="s">
-        <v>334</v>
+        <v>4</v>
       </c>
       <c r="D243" s="1" t="s">
         <v>68</v>
@@ -10145,10 +10108,10 @@
         <v>68</v>
       </c>
       <c r="G243" s="2" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="H243" s="1" t="s">
-        <v>284</v>
+        <v>496</v>
       </c>
       <c r="I243" s="1" t="s">
         <v>122</v>
@@ -10160,13 +10123,13 @@
     </row>
     <row r="244" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A244" s="1" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="B244" s="1" t="s">
         <v>62</v>
       </c>
       <c r="C244" s="1" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D244" s="1" t="s">
         <v>68</v>
@@ -10178,10 +10141,10 @@
         <v>68</v>
       </c>
       <c r="G244" s="2" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="H244" s="1" t="s">
-        <v>350</v>
+        <v>125</v>
       </c>
       <c r="I244" s="1" t="s">
         <v>122</v>
@@ -10193,13 +10156,13 @@
     </row>
     <row r="245" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A245" s="1" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="B245" s="1" t="s">
         <v>62</v>
       </c>
       <c r="C245" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D245" s="1" t="s">
         <v>68</v>
@@ -10211,10 +10174,10 @@
         <v>68</v>
       </c>
       <c r="G245" s="2" t="s">
-        <v>135</v>
+        <v>118</v>
       </c>
       <c r="H245" s="1" t="s">
-        <v>283</v>
+        <v>126</v>
       </c>
       <c r="I245" s="1" t="s">
         <v>122</v>
@@ -10226,13 +10189,13 @@
     </row>
     <row r="246" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A246" s="1" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="B246" s="1" t="s">
         <v>62</v>
       </c>
       <c r="C246" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="D246" s="1" t="s">
         <v>68</v>
@@ -10244,10 +10207,10 @@
         <v>68</v>
       </c>
       <c r="G246" s="2" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="H246" s="1" t="s">
-        <v>520</v>
+        <v>282</v>
       </c>
       <c r="I246" s="1" t="s">
         <v>122</v>
@@ -10259,13 +10222,13 @@
     </row>
     <row r="247" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A247" s="1" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="B247" s="1" t="s">
         <v>62</v>
       </c>
       <c r="C247" s="1" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="D247" s="1" t="s">
         <v>68</v>
@@ -10277,10 +10240,10 @@
         <v>68</v>
       </c>
       <c r="G247" s="2" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="H247" s="1" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="I247" s="1" t="s">
         <v>122</v>
@@ -10292,13 +10255,13 @@
     </row>
     <row r="248" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A248" s="1" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="B248" s="1" t="s">
         <v>62</v>
       </c>
       <c r="C248" s="1" t="s">
-        <v>6</v>
+        <v>241</v>
       </c>
       <c r="D248" s="1" t="s">
         <v>68</v>
@@ -10310,10 +10273,10 @@
         <v>68</v>
       </c>
       <c r="G248" s="2" t="s">
-        <v>118</v>
+        <v>283</v>
       </c>
       <c r="H248" s="1" t="s">
-        <v>126</v>
+        <v>496</v>
       </c>
       <c r="I248" s="1" t="s">
         <v>122</v>
@@ -10325,14 +10288,14 @@
     </row>
     <row r="249" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A249" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="B249" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C249" s="1" t="s">
         <v>333</v>
       </c>
-      <c r="B249" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="C249" s="1" t="s">
-        <v>7</v>
-      </c>
       <c r="D249" s="1" t="s">
         <v>68</v>
       </c>
@@ -10343,10 +10306,10 @@
         <v>68</v>
       </c>
       <c r="G249" s="2" t="s">
-        <v>119</v>
+        <v>350</v>
       </c>
       <c r="H249" s="1" t="s">
-        <v>284</v>
+        <v>496</v>
       </c>
       <c r="I249" s="1" t="s">
         <v>122</v>
@@ -10358,13 +10321,13 @@
     </row>
     <row r="250" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A250" s="1" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="B250" s="1" t="s">
         <v>62</v>
       </c>
       <c r="C250" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D250" s="1" t="s">
         <v>68</v>
@@ -10376,10 +10339,10 @@
         <v>68</v>
       </c>
       <c r="G250" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="H250" s="1" t="s">
-        <v>129</v>
+        <v>140</v>
       </c>
       <c r="I250" s="1" t="s">
         <v>122</v>
@@ -10391,13 +10354,13 @@
     </row>
     <row r="251" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A251" s="1" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="B251" s="1" t="s">
         <v>62</v>
       </c>
       <c r="C251" s="1" t="s">
-        <v>241</v>
+        <v>13</v>
       </c>
       <c r="D251" s="1" t="s">
         <v>68</v>
@@ -10409,10 +10372,10 @@
         <v>68</v>
       </c>
       <c r="G251" s="2" t="s">
-        <v>285</v>
+        <v>121</v>
       </c>
       <c r="H251" s="1" t="s">
-        <v>520</v>
+        <v>129</v>
       </c>
       <c r="I251" s="1" t="s">
         <v>122</v>
@@ -10424,13 +10387,13 @@
     </row>
     <row r="252" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A252" s="1" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="B252" s="1" t="s">
         <v>62</v>
       </c>
       <c r="C252" s="1" t="s">
-        <v>335</v>
+        <v>14</v>
       </c>
       <c r="D252" s="1" t="s">
         <v>68</v>
@@ -10442,10 +10405,10 @@
         <v>68</v>
       </c>
       <c r="G252" s="2" t="s">
-        <v>352</v>
+        <v>131</v>
       </c>
       <c r="H252" s="1" t="s">
-        <v>520</v>
+        <v>496</v>
       </c>
       <c r="I252" s="1" t="s">
         <v>122</v>
@@ -10457,13 +10420,13 @@
     </row>
     <row r="253" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A253" s="1" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="B253" s="1" t="s">
         <v>62</v>
       </c>
       <c r="C253" s="1" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D253" s="1" t="s">
         <v>68</v>
@@ -10475,10 +10438,10 @@
         <v>68</v>
       </c>
       <c r="G253" s="2" t="s">
-        <v>120</v>
+        <v>135</v>
       </c>
       <c r="H253" s="1" t="s">
-        <v>140</v>
+        <v>281</v>
       </c>
       <c r="I253" s="1" t="s">
         <v>122</v>
@@ -10490,13 +10453,13 @@
     </row>
     <row r="254" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A254" s="1" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="B254" s="1" t="s">
         <v>62</v>
       </c>
       <c r="C254" s="1" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="D254" s="1" t="s">
         <v>68</v>
@@ -10508,10 +10471,10 @@
         <v>68</v>
       </c>
       <c r="G254" s="2" t="s">
-        <v>121</v>
+        <v>136</v>
       </c>
       <c r="H254" s="1" t="s">
-        <v>129</v>
+        <v>137</v>
       </c>
       <c r="I254" s="1" t="s">
         <v>122</v>
@@ -10523,13 +10486,13 @@
     </row>
     <row r="255" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A255" s="1" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="B255" s="1" t="s">
         <v>62</v>
       </c>
       <c r="C255" s="1" t="s">
-        <v>14</v>
+        <v>307</v>
       </c>
       <c r="D255" s="1" t="s">
         <v>68</v>
@@ -10541,10 +10504,10 @@
         <v>68</v>
       </c>
       <c r="G255" s="2" t="s">
-        <v>131</v>
+        <v>323</v>
       </c>
       <c r="H255" s="1" t="s">
-        <v>520</v>
+        <v>324</v>
       </c>
       <c r="I255" s="1" t="s">
         <v>122</v>
@@ -10556,13 +10519,13 @@
     </row>
     <row r="256" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A256" s="1" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="B256" s="1" t="s">
         <v>62</v>
       </c>
       <c r="C256" s="1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="D256" s="1" t="s">
         <v>68</v>
@@ -10574,10 +10537,10 @@
         <v>68</v>
       </c>
       <c r="G256" s="2" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="H256" s="1" t="s">
-        <v>283</v>
+        <v>139</v>
       </c>
       <c r="I256" s="1" t="s">
         <v>122</v>
@@ -10589,13 +10552,13 @@
     </row>
     <row r="257" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A257" s="1" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="B257" s="1" t="s">
         <v>62</v>
       </c>
       <c r="C257" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D257" s="1" t="s">
         <v>68</v>
@@ -10607,10 +10570,10 @@
         <v>68</v>
       </c>
       <c r="G257" s="2" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="H257" s="1" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="I257" s="1" t="s">
         <v>122</v>
@@ -10622,13 +10585,13 @@
     </row>
     <row r="258" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A258" s="1" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="B258" s="1" t="s">
         <v>62</v>
       </c>
       <c r="C258" s="1" t="s">
-        <v>309</v>
+        <v>22</v>
       </c>
       <c r="D258" s="1" t="s">
         <v>68</v>
@@ -10640,10 +10603,10 @@
         <v>68</v>
       </c>
       <c r="G258" s="2" t="s">
-        <v>325</v>
+        <v>117</v>
       </c>
       <c r="H258" s="1" t="s">
-        <v>326</v>
+        <v>125</v>
       </c>
       <c r="I258" s="1" t="s">
         <v>122</v>
@@ -10655,13 +10618,13 @@
     </row>
     <row r="259" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A259" s="1" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="B259" s="1" t="s">
         <v>62</v>
       </c>
       <c r="C259" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="D259" s="1" t="s">
         <v>68</v>
@@ -10673,10 +10636,10 @@
         <v>68</v>
       </c>
       <c r="G259" s="2" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="H259" s="1" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="I259" s="1" t="s">
         <v>122</v>
@@ -10688,13 +10651,13 @@
     </row>
     <row r="260" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A260" s="1" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="B260" s="1" t="s">
         <v>62</v>
       </c>
       <c r="C260" s="1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="D260" s="1" t="s">
         <v>68</v>
@@ -10706,10 +10669,10 @@
         <v>68</v>
       </c>
       <c r="G260" s="2" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="H260" s="1" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="I260" s="1" t="s">
         <v>122</v>
@@ -10721,13 +10684,13 @@
     </row>
     <row r="261" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A261" s="1" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="B261" s="1" t="s">
         <v>62</v>
       </c>
       <c r="C261" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="D261" s="1" t="s">
         <v>68</v>
@@ -10739,10 +10702,10 @@
         <v>68</v>
       </c>
       <c r="G261" s="2" t="s">
-        <v>117</v>
+        <v>145</v>
       </c>
       <c r="H261" s="1" t="s">
-        <v>125</v>
+        <v>146</v>
       </c>
       <c r="I261" s="1" t="s">
         <v>122</v>
@@ -10754,13 +10717,13 @@
     </row>
     <row r="262" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A262" s="1" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="B262" s="1" t="s">
         <v>62</v>
       </c>
       <c r="C262" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D262" s="1" t="s">
         <v>68</v>
@@ -10772,10 +10735,10 @@
         <v>68</v>
       </c>
       <c r="G262" s="2" t="s">
-        <v>143</v>
+        <v>119</v>
       </c>
       <c r="H262" s="1" t="s">
-        <v>144</v>
+        <v>282</v>
       </c>
       <c r="I262" s="1" t="s">
         <v>122</v>
@@ -10787,13 +10750,13 @@
     </row>
     <row r="263" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A263" s="1" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="B263" s="1" t="s">
         <v>62</v>
       </c>
       <c r="C263" s="1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D263" s="1" t="s">
         <v>68</v>
@@ -10805,10 +10768,10 @@
         <v>68</v>
       </c>
       <c r="G263" s="2" t="s">
-        <v>136</v>
+        <v>119</v>
       </c>
       <c r="H263" s="1" t="s">
-        <v>137</v>
+        <v>282</v>
       </c>
       <c r="I263" s="1" t="s">
         <v>122</v>
@@ -10820,13 +10783,13 @@
     </row>
     <row r="264" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A264" s="1" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="B264" s="1" t="s">
         <v>62</v>
       </c>
       <c r="C264" s="1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="D264" s="1" t="s">
         <v>68</v>
@@ -10838,10 +10801,10 @@
         <v>68</v>
       </c>
       <c r="G264" s="2" t="s">
-        <v>145</v>
+        <v>119</v>
       </c>
       <c r="H264" s="1" t="s">
-        <v>146</v>
+        <v>282</v>
       </c>
       <c r="I264" s="1" t="s">
         <v>122</v>
@@ -10853,13 +10816,13 @@
     </row>
     <row r="265" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A265" s="1" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="B265" s="1" t="s">
         <v>62</v>
       </c>
       <c r="C265" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="D265" s="1" t="s">
         <v>68</v>
@@ -10871,10 +10834,10 @@
         <v>68</v>
       </c>
       <c r="G265" s="2" t="s">
-        <v>119</v>
+        <v>147</v>
       </c>
       <c r="H265" s="1" t="s">
-        <v>284</v>
+        <v>148</v>
       </c>
       <c r="I265" s="1" t="s">
         <v>122</v>
@@ -10886,13 +10849,13 @@
     </row>
     <row r="266" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A266" s="1" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="B266" s="1" t="s">
         <v>62</v>
       </c>
       <c r="C266" s="1" t="s">
-        <v>27</v>
+        <v>167</v>
       </c>
       <c r="D266" s="1" t="s">
         <v>68</v>
@@ -10904,10 +10867,10 @@
         <v>68</v>
       </c>
       <c r="G266" s="2" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="H266" s="1" t="s">
-        <v>284</v>
+        <v>123</v>
       </c>
       <c r="I266" s="1" t="s">
         <v>122</v>
@@ -10919,13 +10882,13 @@
     </row>
     <row r="267" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A267" s="1" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="B267" s="1" t="s">
         <v>62</v>
       </c>
       <c r="C267" s="1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="D267" s="1" t="s">
         <v>68</v>
@@ -10940,7 +10903,7 @@
         <v>119</v>
       </c>
       <c r="H267" s="1" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="I267" s="1" t="s">
         <v>122</v>
@@ -10952,13 +10915,13 @@
     </row>
     <row r="268" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A268" s="1" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="B268" s="1" t="s">
         <v>62</v>
       </c>
       <c r="C268" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="D268" s="1" t="s">
         <v>68</v>
@@ -10970,10 +10933,10 @@
         <v>68</v>
       </c>
       <c r="G268" s="2" t="s">
-        <v>147</v>
+        <v>119</v>
       </c>
       <c r="H268" s="1" t="s">
-        <v>148</v>
+        <v>282</v>
       </c>
       <c r="I268" s="1" t="s">
         <v>122</v>
@@ -10985,13 +10948,13 @@
     </row>
     <row r="269" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A269" s="1" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="B269" s="1" t="s">
         <v>62</v>
       </c>
       <c r="C269" s="1" t="s">
-        <v>167</v>
+        <v>34</v>
       </c>
       <c r="D269" s="1" t="s">
         <v>68</v>
@@ -11003,10 +10966,10 @@
         <v>68</v>
       </c>
       <c r="G269" s="2" t="s">
-        <v>113</v>
+        <v>152</v>
       </c>
       <c r="H269" s="1" t="s">
-        <v>123</v>
+        <v>496</v>
       </c>
       <c r="I269" s="1" t="s">
         <v>122</v>
@@ -11018,13 +10981,13 @@
     </row>
     <row r="270" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A270" s="1" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="B270" s="1" t="s">
         <v>62</v>
       </c>
       <c r="C270" s="1" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="D270" s="1" t="s">
         <v>68</v>
@@ -11036,10 +10999,10 @@
         <v>68</v>
       </c>
       <c r="G270" s="2" t="s">
-        <v>119</v>
+        <v>152</v>
       </c>
       <c r="H270" s="1" t="s">
-        <v>284</v>
+        <v>496</v>
       </c>
       <c r="I270" s="1" t="s">
         <v>122</v>
@@ -11051,13 +11014,13 @@
     </row>
     <row r="271" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A271" s="1" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="B271" s="1" t="s">
         <v>62</v>
       </c>
       <c r="C271" s="1" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="D271" s="1" t="s">
         <v>68</v>
@@ -11069,10 +11032,10 @@
         <v>68</v>
       </c>
       <c r="G271" s="2" t="s">
-        <v>119</v>
+        <v>153</v>
       </c>
       <c r="H271" s="1" t="s">
-        <v>284</v>
+        <v>496</v>
       </c>
       <c r="I271" s="1" t="s">
         <v>122</v>
@@ -11084,13 +11047,13 @@
     </row>
     <row r="272" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A272" s="1" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="B272" s="1" t="s">
         <v>62</v>
       </c>
       <c r="C272" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="D272" s="1" t="s">
         <v>68</v>
@@ -11102,10 +11065,10 @@
         <v>68</v>
       </c>
       <c r="G272" s="2" t="s">
-        <v>152</v>
+        <v>136</v>
       </c>
       <c r="H272" s="1" t="s">
-        <v>520</v>
+        <v>137</v>
       </c>
       <c r="I272" s="1" t="s">
         <v>122</v>
@@ -11117,13 +11080,13 @@
     </row>
     <row r="273" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A273" s="1" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="B273" s="1" t="s">
         <v>62</v>
       </c>
       <c r="C273" s="1" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="D273" s="1" t="s">
         <v>68</v>
@@ -11135,10 +11098,10 @@
         <v>68</v>
       </c>
       <c r="G273" s="2" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="H273" s="1" t="s">
-        <v>520</v>
+        <v>496</v>
       </c>
       <c r="I273" s="1" t="s">
         <v>122</v>
@@ -11150,13 +11113,13 @@
     </row>
     <row r="274" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A274" s="1" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="B274" s="1" t="s">
         <v>62</v>
       </c>
       <c r="C274" s="1" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="D274" s="1" t="s">
         <v>68</v>
@@ -11168,10 +11131,10 @@
         <v>68</v>
       </c>
       <c r="G274" s="2" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="H274" s="1" t="s">
-        <v>520</v>
+        <v>139</v>
       </c>
       <c r="I274" s="1" t="s">
         <v>122</v>
@@ -11183,13 +11146,13 @@
     </row>
     <row r="275" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A275" s="1" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="B275" s="1" t="s">
         <v>62</v>
       </c>
       <c r="C275" s="1" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="D275" s="1" t="s">
         <v>68</v>
@@ -11200,11 +11163,11 @@
       <c r="F275" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="G275" s="2" t="s">
-        <v>136</v>
+      <c r="G275" s="1" t="s">
+        <v>286</v>
       </c>
       <c r="H275" s="1" t="s">
-        <v>137</v>
+        <v>201</v>
       </c>
       <c r="I275" s="1" t="s">
         <v>122</v>
@@ -11216,13 +11179,13 @@
     </row>
     <row r="276" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A276" s="1" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="B276" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C276" s="1" t="s">
-        <v>40</v>
+        <v>334</v>
       </c>
       <c r="D276" s="1" t="s">
         <v>68</v>
@@ -11231,16 +11194,16 @@
         <v>68</v>
       </c>
       <c r="F276" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="G276" s="2" t="s">
-        <v>155</v>
+        <v>216</v>
+      </c>
+      <c r="G276" s="1" t="s">
+        <v>346</v>
       </c>
       <c r="H276" s="1" t="s">
-        <v>520</v>
+        <v>68</v>
       </c>
       <c r="I276" s="1" t="s">
-        <v>122</v>
+        <v>347</v>
       </c>
       <c r="K276" s="5"/>
       <c r="L276" s="5"/>
@@ -11249,13 +11212,13 @@
     </row>
     <row r="277" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A277" s="1" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="B277" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C277" s="1" t="s">
-        <v>43</v>
+        <v>335</v>
       </c>
       <c r="D277" s="1" t="s">
         <v>68</v>
@@ -11264,16 +11227,16 @@
         <v>68</v>
       </c>
       <c r="F277" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="G277" s="2" t="s">
-        <v>157</v>
+        <v>216</v>
+      </c>
+      <c r="G277" s="1" t="s">
+        <v>344</v>
       </c>
       <c r="H277" s="1" t="s">
-        <v>139</v>
+        <v>68</v>
       </c>
       <c r="I277" s="1" t="s">
-        <v>122</v>
+        <v>345</v>
       </c>
       <c r="K277" s="5"/>
       <c r="L277" s="5"/>
@@ -11282,31 +11245,31 @@
     </row>
     <row r="278" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A278" s="1" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="B278" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C278" s="1" t="s">
-        <v>44</v>
+        <v>336</v>
       </c>
       <c r="D278" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E278" s="1" t="s">
         <v>68</v>
       </c>
       <c r="F278" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="G278" s="1" t="s">
-        <v>288</v>
-      </c>
-      <c r="H278" s="1" t="s">
-        <v>201</v>
+        <v>87</v>
+      </c>
+      <c r="G278" s="2" t="s">
+        <v>338</v>
+      </c>
+      <c r="H278" s="2" t="s">
+        <v>339</v>
       </c>
       <c r="I278" s="1" t="s">
-        <v>122</v>
+        <v>340</v>
       </c>
       <c r="K278" s="5"/>
       <c r="L278" s="5"/>
@@ -11315,31 +11278,31 @@
     </row>
     <row r="279" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A279" s="1" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="B279" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C279" s="1" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="D279" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E279" s="1" t="s">
         <v>68</v>
       </c>
       <c r="F279" s="1" t="s">
-        <v>216</v>
-      </c>
-      <c r="G279" s="1" t="s">
-        <v>348</v>
-      </c>
-      <c r="H279" s="1" t="s">
-        <v>68</v>
+        <v>87</v>
+      </c>
+      <c r="G279" s="2" t="s">
+        <v>342</v>
+      </c>
+      <c r="H279" s="2" t="s">
+        <v>343</v>
       </c>
       <c r="I279" s="1" t="s">
-        <v>349</v>
+        <v>341</v>
       </c>
       <c r="K279" s="5"/>
       <c r="L279" s="5"/>
@@ -11348,13 +11311,13 @@
     </row>
     <row r="280" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A280" s="1" t="s">
-        <v>333</v>
+        <v>351</v>
       </c>
       <c r="B280" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C280" s="1" t="s">
-        <v>337</v>
+        <v>159</v>
       </c>
       <c r="D280" s="1" t="s">
         <v>68</v>
@@ -11363,16 +11326,16 @@
         <v>68</v>
       </c>
       <c r="F280" s="1" t="s">
-        <v>216</v>
-      </c>
-      <c r="G280" s="1" t="s">
-        <v>346</v>
+        <v>68</v>
+      </c>
+      <c r="G280" s="2" t="s">
+        <v>135</v>
       </c>
       <c r="H280" s="1" t="s">
-        <v>68</v>
+        <v>281</v>
       </c>
       <c r="I280" s="1" t="s">
-        <v>347</v>
+        <v>122</v>
       </c>
       <c r="K280" s="5"/>
       <c r="L280" s="5"/>
@@ -11381,31 +11344,31 @@
     </row>
     <row r="281" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A281" s="1" t="s">
-        <v>333</v>
+        <v>351</v>
       </c>
       <c r="B281" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C281" s="1" t="s">
-        <v>338</v>
+        <v>352</v>
       </c>
       <c r="D281" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E281" s="1" t="s">
         <v>68</v>
       </c>
       <c r="F281" s="1" t="s">
-        <v>87</v>
+        <v>68</v>
       </c>
       <c r="G281" s="2" t="s">
-        <v>340</v>
-      </c>
-      <c r="H281" s="2" t="s">
-        <v>341</v>
+        <v>386</v>
+      </c>
+      <c r="H281" s="1" t="s">
+        <v>502</v>
       </c>
       <c r="I281" s="1" t="s">
-        <v>342</v>
+        <v>122</v>
       </c>
       <c r="K281" s="5"/>
       <c r="L281" s="5"/>
@@ -11414,31 +11377,31 @@
     </row>
     <row r="282" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A282" s="1" t="s">
-        <v>333</v>
+        <v>351</v>
       </c>
       <c r="B282" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C282" s="1" t="s">
-        <v>339</v>
+        <v>5</v>
       </c>
       <c r="D282" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E282" s="1" t="s">
         <v>68</v>
       </c>
       <c r="F282" s="1" t="s">
-        <v>87</v>
+        <v>68</v>
       </c>
       <c r="G282" s="2" t="s">
-        <v>344</v>
-      </c>
-      <c r="H282" s="2" t="s">
-        <v>345</v>
+        <v>117</v>
+      </c>
+      <c r="H282" s="1" t="s">
+        <v>125</v>
       </c>
       <c r="I282" s="1" t="s">
-        <v>343</v>
+        <v>122</v>
       </c>
       <c r="K282" s="5"/>
       <c r="L282" s="5"/>
@@ -11447,13 +11410,13 @@
     </row>
     <row r="283" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A283" s="1" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="B283" s="1" t="s">
         <v>62</v>
       </c>
       <c r="C283" s="1" t="s">
-        <v>159</v>
+        <v>6</v>
       </c>
       <c r="D283" s="1" t="s">
         <v>68</v>
@@ -11465,10 +11428,10 @@
         <v>68</v>
       </c>
       <c r="G283" s="2" t="s">
-        <v>135</v>
+        <v>117</v>
       </c>
       <c r="H283" s="1" t="s">
-        <v>283</v>
+        <v>125</v>
       </c>
       <c r="I283" s="1" t="s">
         <v>122</v>
@@ -11480,14 +11443,14 @@
     </row>
     <row r="284" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A284" s="1" t="s">
+        <v>351</v>
+      </c>
+      <c r="B284" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C284" s="1" t="s">
         <v>353</v>
       </c>
-      <c r="B284" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="C284" s="1" t="s">
-        <v>354</v>
-      </c>
       <c r="D284" s="1" t="s">
         <v>68</v>
       </c>
@@ -11498,10 +11461,10 @@
         <v>68</v>
       </c>
       <c r="G284" s="2" t="s">
-        <v>388</v>
+        <v>118</v>
       </c>
       <c r="H284" s="1" t="s">
-        <v>526</v>
+        <v>126</v>
       </c>
       <c r="I284" s="1" t="s">
         <v>122</v>
@@ -11513,13 +11476,13 @@
     </row>
     <row r="285" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A285" s="1" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="B285" s="1" t="s">
         <v>62</v>
       </c>
       <c r="C285" s="1" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="D285" s="1" t="s">
         <v>68</v>
@@ -11531,10 +11494,10 @@
         <v>68</v>
       </c>
       <c r="G285" s="2" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="H285" s="1" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="I285" s="1" t="s">
         <v>122</v>
@@ -11546,13 +11509,13 @@
     </row>
     <row r="286" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A286" s="1" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="B286" s="1" t="s">
         <v>62</v>
       </c>
       <c r="C286" s="1" t="s">
-        <v>6</v>
+        <v>354</v>
       </c>
       <c r="D286" s="1" t="s">
         <v>68</v>
@@ -11564,10 +11527,10 @@
         <v>68</v>
       </c>
       <c r="G286" s="2" t="s">
-        <v>117</v>
+        <v>387</v>
       </c>
       <c r="H286" s="1" t="s">
-        <v>125</v>
+        <v>496</v>
       </c>
       <c r="I286" s="1" t="s">
         <v>122</v>
@@ -11579,13 +11542,13 @@
     </row>
     <row r="287" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A287" s="1" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="B287" s="1" t="s">
         <v>62</v>
       </c>
       <c r="C287" s="1" t="s">
-        <v>355</v>
+        <v>9</v>
       </c>
       <c r="D287" s="1" t="s">
         <v>68</v>
@@ -11597,10 +11560,10 @@
         <v>68</v>
       </c>
       <c r="G287" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="H287" s="1" t="s">
-        <v>126</v>
+        <v>140</v>
       </c>
       <c r="I287" s="1" t="s">
         <v>122</v>
@@ -11612,13 +11575,13 @@
     </row>
     <row r="288" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A288" s="1" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="B288" s="1" t="s">
         <v>62</v>
       </c>
       <c r="C288" s="1" t="s">
-        <v>8</v>
+        <v>355</v>
       </c>
       <c r="D288" s="1" t="s">
         <v>68</v>
@@ -11630,10 +11593,10 @@
         <v>68</v>
       </c>
       <c r="G288" s="2" t="s">
-        <v>121</v>
+        <v>388</v>
       </c>
       <c r="H288" s="1" t="s">
-        <v>129</v>
+        <v>139</v>
       </c>
       <c r="I288" s="1" t="s">
         <v>122</v>
@@ -11645,13 +11608,13 @@
     </row>
     <row r="289" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A289" s="1" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="B289" s="1" t="s">
         <v>62</v>
       </c>
       <c r="C289" s="1" t="s">
-        <v>356</v>
+        <v>13</v>
       </c>
       <c r="D289" s="1" t="s">
         <v>68</v>
@@ -11663,10 +11626,10 @@
         <v>68</v>
       </c>
       <c r="G289" s="2" t="s">
-        <v>389</v>
+        <v>121</v>
       </c>
       <c r="H289" s="1" t="s">
-        <v>520</v>
+        <v>129</v>
       </c>
       <c r="I289" s="1" t="s">
         <v>122</v>
@@ -11678,13 +11641,13 @@
     </row>
     <row r="290" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A290" s="1" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="B290" s="1" t="s">
         <v>62</v>
       </c>
       <c r="C290" s="1" t="s">
-        <v>9</v>
+        <v>356</v>
       </c>
       <c r="D290" s="1" t="s">
         <v>68</v>
@@ -11696,10 +11659,10 @@
         <v>68</v>
       </c>
       <c r="G290" s="2" t="s">
-        <v>120</v>
+        <v>389</v>
       </c>
       <c r="H290" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="I290" s="1" t="s">
         <v>122</v>
@@ -11711,13 +11674,13 @@
     </row>
     <row r="291" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A291" s="1" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="B291" s="1" t="s">
         <v>62</v>
       </c>
       <c r="C291" s="1" t="s">
-        <v>357</v>
+        <v>18</v>
       </c>
       <c r="D291" s="1" t="s">
         <v>68</v>
@@ -11729,10 +11692,10 @@
         <v>68</v>
       </c>
       <c r="G291" s="2" t="s">
-        <v>390</v>
+        <v>135</v>
       </c>
       <c r="H291" s="1" t="s">
-        <v>139</v>
+        <v>281</v>
       </c>
       <c r="I291" s="1" t="s">
         <v>122</v>
@@ -11744,13 +11707,13 @@
     </row>
     <row r="292" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A292" s="1" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="B292" s="1" t="s">
         <v>62</v>
       </c>
       <c r="C292" s="1" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="D292" s="1" t="s">
         <v>68</v>
@@ -11762,10 +11725,10 @@
         <v>68</v>
       </c>
       <c r="G292" s="2" t="s">
-        <v>121</v>
+        <v>136</v>
       </c>
       <c r="H292" s="1" t="s">
-        <v>129</v>
+        <v>137</v>
       </c>
       <c r="I292" s="1" t="s">
         <v>122</v>
@@ -11777,13 +11740,13 @@
     </row>
     <row r="293" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A293" s="1" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="B293" s="1" t="s">
         <v>62</v>
       </c>
       <c r="C293" s="1" t="s">
-        <v>358</v>
+        <v>20</v>
       </c>
       <c r="D293" s="1" t="s">
         <v>68</v>
@@ -11795,7 +11758,7 @@
         <v>68</v>
       </c>
       <c r="G293" s="2" t="s">
-        <v>391</v>
+        <v>138</v>
       </c>
       <c r="H293" s="1" t="s">
         <v>139</v>
@@ -11810,13 +11773,13 @@
     </row>
     <row r="294" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A294" s="1" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="B294" s="1" t="s">
         <v>62</v>
       </c>
       <c r="C294" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D294" s="1" t="s">
         <v>68</v>
@@ -11828,10 +11791,10 @@
         <v>68</v>
       </c>
       <c r="G294" s="2" t="s">
-        <v>135</v>
+        <v>141</v>
       </c>
       <c r="H294" s="1" t="s">
-        <v>283</v>
+        <v>142</v>
       </c>
       <c r="I294" s="1" t="s">
         <v>122</v>
@@ -11843,13 +11806,13 @@
     </row>
     <row r="295" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A295" s="1" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="B295" s="1" t="s">
         <v>62</v>
       </c>
       <c r="C295" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="D295" s="1" t="s">
         <v>68</v>
@@ -11861,10 +11824,10 @@
         <v>68</v>
       </c>
       <c r="G295" s="2" t="s">
-        <v>136</v>
+        <v>117</v>
       </c>
       <c r="H295" s="1" t="s">
-        <v>137</v>
+        <v>125</v>
       </c>
       <c r="I295" s="1" t="s">
         <v>122</v>
@@ -11876,13 +11839,13 @@
     </row>
     <row r="296" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A296" s="1" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="B296" s="1" t="s">
         <v>62</v>
       </c>
       <c r="C296" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="D296" s="1" t="s">
         <v>68</v>
@@ -11894,10 +11857,10 @@
         <v>68</v>
       </c>
       <c r="G296" s="2" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="H296" s="1" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="I296" s="1" t="s">
         <v>122</v>
@@ -11909,13 +11872,13 @@
     </row>
     <row r="297" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A297" s="1" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="B297" s="1" t="s">
         <v>62</v>
       </c>
       <c r="C297" s="1" t="s">
-        <v>21</v>
+        <v>357</v>
       </c>
       <c r="D297" s="1" t="s">
         <v>68</v>
@@ -11927,10 +11890,10 @@
         <v>68</v>
       </c>
       <c r="G297" s="2" t="s">
-        <v>141</v>
+        <v>390</v>
       </c>
       <c r="H297" s="1" t="s">
-        <v>142</v>
+        <v>496</v>
       </c>
       <c r="I297" s="1" t="s">
         <v>122</v>
@@ -11942,13 +11905,13 @@
     </row>
     <row r="298" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A298" s="1" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="B298" s="1" t="s">
         <v>62</v>
       </c>
       <c r="C298" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D298" s="1" t="s">
         <v>68</v>
@@ -11960,10 +11923,10 @@
         <v>68</v>
       </c>
       <c r="G298" s="2" t="s">
-        <v>117</v>
+        <v>136</v>
       </c>
       <c r="H298" s="1" t="s">
-        <v>125</v>
+        <v>137</v>
       </c>
       <c r="I298" s="1" t="s">
         <v>122</v>
@@ -11975,13 +11938,13 @@
     </row>
     <row r="299" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A299" s="1" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="B299" s="1" t="s">
         <v>62</v>
       </c>
       <c r="C299" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D299" s="1" t="s">
         <v>68</v>
@@ -11993,10 +11956,10 @@
         <v>68</v>
       </c>
       <c r="G299" s="2" t="s">
-        <v>143</v>
+        <v>391</v>
       </c>
       <c r="H299" s="1" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="I299" s="1" t="s">
         <v>122</v>
@@ -12008,13 +11971,13 @@
     </row>
     <row r="300" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A300" s="1" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="B300" s="1" t="s">
         <v>62</v>
       </c>
       <c r="C300" s="1" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="D300" s="1" t="s">
         <v>68</v>
@@ -12029,7 +11992,7 @@
         <v>392</v>
       </c>
       <c r="H300" s="1" t="s">
-        <v>520</v>
+        <v>496</v>
       </c>
       <c r="I300" s="1" t="s">
         <v>122</v>
@@ -12041,13 +12004,13 @@
     </row>
     <row r="301" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A301" s="1" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="B301" s="1" t="s">
         <v>62</v>
       </c>
       <c r="C301" s="1" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="D301" s="1" t="s">
         <v>68</v>
@@ -12059,10 +12022,10 @@
         <v>68</v>
       </c>
       <c r="G301" s="2" t="s">
-        <v>136</v>
+        <v>147</v>
       </c>
       <c r="H301" s="1" t="s">
-        <v>137</v>
+        <v>148</v>
       </c>
       <c r="I301" s="1" t="s">
         <v>122</v>
@@ -12074,13 +12037,13 @@
     </row>
     <row r="302" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A302" s="1" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="B302" s="1" t="s">
         <v>62</v>
       </c>
       <c r="C302" s="1" t="s">
-        <v>25</v>
+        <v>359</v>
       </c>
       <c r="D302" s="1" t="s">
         <v>68</v>
@@ -12095,7 +12058,7 @@
         <v>393</v>
       </c>
       <c r="H302" s="1" t="s">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="I302" s="1" t="s">
         <v>122</v>
@@ -12107,7 +12070,7 @@
     </row>
     <row r="303" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A303" s="1" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="B303" s="1" t="s">
         <v>62</v>
@@ -12128,7 +12091,7 @@
         <v>394</v>
       </c>
       <c r="H303" s="1" t="s">
-        <v>520</v>
+        <v>395</v>
       </c>
       <c r="I303" s="1" t="s">
         <v>122</v>
@@ -12140,13 +12103,13 @@
     </row>
     <row r="304" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A304" s="1" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="B304" s="1" t="s">
         <v>62</v>
       </c>
       <c r="C304" s="1" t="s">
-        <v>29</v>
+        <v>361</v>
       </c>
       <c r="D304" s="1" t="s">
         <v>68</v>
@@ -12158,10 +12121,10 @@
         <v>68</v>
       </c>
       <c r="G304" s="2" t="s">
-        <v>147</v>
+        <v>396</v>
       </c>
       <c r="H304" s="1" t="s">
-        <v>148</v>
+        <v>496</v>
       </c>
       <c r="I304" s="1" t="s">
         <v>122</v>
@@ -12173,13 +12136,13 @@
     </row>
     <row r="305" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A305" s="1" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="B305" s="1" t="s">
         <v>62</v>
       </c>
       <c r="C305" s="1" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="D305" s="1" t="s">
         <v>68</v>
@@ -12191,10 +12154,10 @@
         <v>68</v>
       </c>
       <c r="G305" s="2" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="H305" s="1" t="s">
-        <v>139</v>
+        <v>496</v>
       </c>
       <c r="I305" s="1" t="s">
         <v>122</v>
@@ -12206,13 +12169,13 @@
     </row>
     <row r="306" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A306" s="1" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="B306" s="1" t="s">
         <v>62</v>
       </c>
       <c r="C306" s="1" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="D306" s="1" t="s">
         <v>68</v>
@@ -12224,10 +12187,10 @@
         <v>68</v>
       </c>
       <c r="G306" s="2" t="s">
-        <v>396</v>
+        <v>114</v>
       </c>
       <c r="H306" s="1" t="s">
-        <v>397</v>
+        <v>348</v>
       </c>
       <c r="I306" s="1" t="s">
         <v>122</v>
@@ -12239,13 +12202,13 @@
     </row>
     <row r="307" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A307" s="1" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="B307" s="1" t="s">
         <v>62</v>
       </c>
       <c r="C307" s="1" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="D307" s="1" t="s">
         <v>68</v>
@@ -12257,10 +12220,10 @@
         <v>68</v>
       </c>
       <c r="G307" s="2" t="s">
-        <v>398</v>
+        <v>114</v>
       </c>
       <c r="H307" s="1" t="s">
-        <v>520</v>
+        <v>348</v>
       </c>
       <c r="I307" s="1" t="s">
         <v>122</v>
@@ -12272,13 +12235,13 @@
     </row>
     <row r="308" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A308" s="1" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="B308" s="1" t="s">
         <v>62</v>
       </c>
       <c r="C308" s="1" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="D308" s="1" t="s">
         <v>68</v>
@@ -12290,10 +12253,10 @@
         <v>68</v>
       </c>
       <c r="G308" s="2" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="H308" s="1" t="s">
-        <v>520</v>
+        <v>496</v>
       </c>
       <c r="I308" s="1" t="s">
         <v>122</v>
@@ -12305,13 +12268,13 @@
     </row>
     <row r="309" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A309" s="1" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="B309" s="1" t="s">
         <v>62</v>
       </c>
       <c r="C309" s="1" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="D309" s="1" t="s">
         <v>68</v>
@@ -12323,10 +12286,10 @@
         <v>68</v>
       </c>
       <c r="G309" s="2" t="s">
-        <v>114</v>
+        <v>399</v>
       </c>
       <c r="H309" s="1" t="s">
-        <v>350</v>
+        <v>496</v>
       </c>
       <c r="I309" s="1" t="s">
         <v>122</v>
@@ -12338,13 +12301,13 @@
     </row>
     <row r="310" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A310" s="1" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="B310" s="1" t="s">
         <v>62</v>
       </c>
       <c r="C310" s="1" t="s">
-        <v>366</v>
+        <v>34</v>
       </c>
       <c r="D310" s="1" t="s">
         <v>68</v>
@@ -12356,10 +12319,10 @@
         <v>68</v>
       </c>
       <c r="G310" s="2" t="s">
-        <v>114</v>
+        <v>400</v>
       </c>
       <c r="H310" s="1" t="s">
-        <v>350</v>
+        <v>496</v>
       </c>
       <c r="I310" s="1" t="s">
         <v>122</v>
@@ -12371,13 +12334,13 @@
     </row>
     <row r="311" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A311" s="1" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="B311" s="1" t="s">
         <v>62</v>
       </c>
       <c r="C311" s="1" t="s">
-        <v>367</v>
+        <v>36</v>
       </c>
       <c r="D311" s="1" t="s">
         <v>68</v>
@@ -12389,10 +12352,10 @@
         <v>68</v>
       </c>
       <c r="G311" s="2" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="H311" s="1" t="s">
-        <v>520</v>
+        <v>496</v>
       </c>
       <c r="I311" s="1" t="s">
         <v>122</v>
@@ -12404,13 +12367,13 @@
     </row>
     <row r="312" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A312" s="1" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="B312" s="1" t="s">
         <v>62</v>
       </c>
       <c r="C312" s="1" t="s">
-        <v>368</v>
+        <v>37</v>
       </c>
       <c r="D312" s="1" t="s">
         <v>68</v>
@@ -12422,10 +12385,10 @@
         <v>68</v>
       </c>
       <c r="G312" s="2" t="s">
-        <v>401</v>
+        <v>136</v>
       </c>
       <c r="H312" s="1" t="s">
-        <v>520</v>
+        <v>137</v>
       </c>
       <c r="I312" s="1" t="s">
         <v>122</v>
@@ -12437,13 +12400,13 @@
     </row>
     <row r="313" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A313" s="1" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="B313" s="1" t="s">
         <v>62</v>
       </c>
       <c r="C313" s="1" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="D313" s="1" t="s">
         <v>68</v>
@@ -12455,10 +12418,10 @@
         <v>68</v>
       </c>
       <c r="G313" s="2" t="s">
-        <v>402</v>
+        <v>305</v>
       </c>
       <c r="H313" s="1" t="s">
-        <v>520</v>
+        <v>502</v>
       </c>
       <c r="I313" s="1" t="s">
         <v>122</v>
@@ -12470,13 +12433,13 @@
     </row>
     <row r="314" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A314" s="1" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="B314" s="1" t="s">
         <v>62</v>
       </c>
       <c r="C314" s="1" t="s">
-        <v>36</v>
+        <v>367</v>
       </c>
       <c r="D314" s="1" t="s">
         <v>68</v>
@@ -12488,10 +12451,10 @@
         <v>68</v>
       </c>
       <c r="G314" s="2" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="H314" s="1" t="s">
-        <v>520</v>
+        <v>139</v>
       </c>
       <c r="I314" s="1" t="s">
         <v>122</v>
@@ -12503,13 +12466,13 @@
     </row>
     <row r="315" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A315" s="1" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="B315" s="1" t="s">
         <v>62</v>
       </c>
       <c r="C315" s="1" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="D315" s="1" t="s">
         <v>68</v>
@@ -12520,11 +12483,11 @@
       <c r="F315" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="G315" s="2" t="s">
-        <v>136</v>
+      <c r="G315" s="1" t="s">
+        <v>149</v>
       </c>
       <c r="H315" s="1" t="s">
-        <v>137</v>
+        <v>150</v>
       </c>
       <c r="I315" s="1" t="s">
         <v>122</v>
@@ -12536,31 +12499,31 @@
     </row>
     <row r="316" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A316" s="1" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="B316" s="1" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="C316" s="1" t="s">
-        <v>39</v>
+        <v>368</v>
       </c>
       <c r="D316" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E316" s="1" t="s">
         <v>68</v>
       </c>
       <c r="F316" s="1" t="s">
-        <v>68</v>
+        <v>374</v>
       </c>
       <c r="G316" s="2" t="s">
-        <v>307</v>
+        <v>375</v>
       </c>
       <c r="H316" s="1" t="s">
-        <v>526</v>
+        <v>68</v>
       </c>
       <c r="I316" s="1" t="s">
-        <v>122</v>
+        <v>376</v>
       </c>
       <c r="K316" s="5"/>
       <c r="L316" s="5"/>
@@ -12569,31 +12532,31 @@
     </row>
     <row r="317" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A317" s="1" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="B317" s="1" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="C317" s="1" t="s">
         <v>369</v>
       </c>
       <c r="D317" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E317" s="1" t="s">
         <v>68</v>
       </c>
       <c r="F317" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="G317" s="2" t="s">
-        <v>404</v>
+        <v>377</v>
+      </c>
+      <c r="G317" s="1" t="s">
+        <v>110</v>
       </c>
       <c r="H317" s="1" t="s">
-        <v>139</v>
+        <v>68</v>
       </c>
       <c r="I317" s="1" t="s">
-        <v>122</v>
+        <v>378</v>
       </c>
       <c r="K317" s="5"/>
       <c r="L317" s="5"/>
@@ -12602,31 +12565,31 @@
     </row>
     <row r="318" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A318" s="1" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="B318" s="1" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="C318" s="1" t="s">
-        <v>44</v>
+        <v>370</v>
       </c>
       <c r="D318" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E318" s="1" t="s">
         <v>68</v>
       </c>
       <c r="F318" s="1" t="s">
-        <v>68</v>
+        <v>379</v>
       </c>
       <c r="G318" s="1" t="s">
-        <v>149</v>
+        <v>380</v>
       </c>
       <c r="H318" s="1" t="s">
-        <v>150</v>
+        <v>68</v>
       </c>
       <c r="I318" s="1" t="s">
-        <v>122</v>
+        <v>488</v>
       </c>
       <c r="K318" s="5"/>
       <c r="L318" s="5"/>
@@ -12635,13 +12598,13 @@
     </row>
     <row r="319" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A319" s="1" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="B319" s="1" t="s">
         <v>65</v>
       </c>
       <c r="C319" s="1" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="D319" s="1" t="s">
         <v>69</v>
@@ -12650,16 +12613,16 @@
         <v>68</v>
       </c>
       <c r="F319" s="1" t="s">
-        <v>376</v>
-      </c>
-      <c r="G319" s="2" t="s">
-        <v>377</v>
+        <v>382</v>
+      </c>
+      <c r="G319" s="1" t="s">
+        <v>110</v>
       </c>
       <c r="H319" s="1" t="s">
         <v>68</v>
       </c>
       <c r="I319" s="1" t="s">
-        <v>378</v>
+        <v>381</v>
       </c>
       <c r="K319" s="5"/>
       <c r="L319" s="5"/>
@@ -12668,13 +12631,13 @@
     </row>
     <row r="320" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A320" s="1" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="B320" s="1" t="s">
         <v>65</v>
       </c>
       <c r="C320" s="1" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="D320" s="1" t="s">
         <v>69</v>
@@ -12683,16 +12646,16 @@
         <v>68</v>
       </c>
       <c r="F320" s="1" t="s">
-        <v>379</v>
+        <v>383</v>
       </c>
       <c r="G320" s="1" t="s">
-        <v>110</v>
+        <v>489</v>
       </c>
       <c r="H320" s="1" t="s">
         <v>68</v>
       </c>
       <c r="I320" s="1" t="s">
-        <v>380</v>
+        <v>494</v>
       </c>
       <c r="K320" s="5"/>
       <c r="L320" s="5"/>
@@ -12701,13 +12664,13 @@
     </row>
     <row r="321" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A321" s="1" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="B321" s="1" t="s">
         <v>65</v>
       </c>
       <c r="C321" s="1" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="D321" s="1" t="s">
         <v>69</v>
@@ -12716,16 +12679,16 @@
         <v>68</v>
       </c>
       <c r="F321" s="1" t="s">
-        <v>381</v>
+        <v>384</v>
       </c>
       <c r="G321" s="1" t="s">
-        <v>382</v>
+        <v>385</v>
       </c>
       <c r="H321" s="1" t="s">
         <v>68</v>
       </c>
       <c r="I321" s="1" t="s">
-        <v>512</v>
+        <v>490</v>
       </c>
       <c r="K321" s="5"/>
       <c r="L321" s="5"/>
@@ -12734,13 +12697,13 @@
     </row>
     <row r="322" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A322" s="1" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="B322" s="1" t="s">
         <v>65</v>
       </c>
       <c r="C322" s="1" t="s">
-        <v>373</v>
+        <v>491</v>
       </c>
       <c r="D322" s="1" t="s">
         <v>69</v>
@@ -12749,49 +12712,49 @@
         <v>68</v>
       </c>
       <c r="F322" s="1" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="G322" s="1" t="s">
-        <v>110</v>
+        <v>492</v>
       </c>
       <c r="H322" s="1" t="s">
         <v>68</v>
       </c>
       <c r="I322" s="1" t="s">
-        <v>383</v>
-      </c>
-      <c r="K322" s="5"/>
-      <c r="L322" s="5"/>
-      <c r="M322" s="5"/>
+        <v>493</v>
+      </c>
+      <c r="K322" s="1"/>
+      <c r="L322" s="1"/>
+      <c r="M322" s="1"/>
       <c r="N322" s="5"/>
     </row>
     <row r="323" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A323" s="1" t="s">
-        <v>353</v>
+        <v>414</v>
       </c>
       <c r="B323" s="1" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="C323" s="1" t="s">
-        <v>374</v>
+        <v>5</v>
       </c>
       <c r="D323" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E323" s="1" t="s">
         <v>68</v>
       </c>
       <c r="F323" s="1" t="s">
-        <v>385</v>
-      </c>
-      <c r="G323" s="1" t="s">
-        <v>513</v>
+        <v>68</v>
+      </c>
+      <c r="G323" s="2" t="s">
+        <v>117</v>
       </c>
       <c r="H323" s="1" t="s">
-        <v>68</v>
+        <v>125</v>
       </c>
       <c r="I323" s="1" t="s">
-        <v>518</v>
+        <v>122</v>
       </c>
       <c r="K323" s="5"/>
       <c r="L323" s="5"/>
@@ -12800,31 +12763,31 @@
     </row>
     <row r="324" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A324" s="1" t="s">
-        <v>353</v>
+        <v>414</v>
       </c>
       <c r="B324" s="1" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="C324" s="1" t="s">
-        <v>375</v>
+        <v>6</v>
       </c>
       <c r="D324" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E324" s="1" t="s">
         <v>68</v>
       </c>
       <c r="F324" s="1" t="s">
-        <v>386</v>
-      </c>
-      <c r="G324" s="1" t="s">
-        <v>387</v>
+        <v>68</v>
+      </c>
+      <c r="G324" s="2" t="s">
+        <v>118</v>
       </c>
       <c r="H324" s="1" t="s">
-        <v>68</v>
+        <v>126</v>
       </c>
       <c r="I324" s="1" t="s">
-        <v>514</v>
+        <v>122</v>
       </c>
       <c r="K324" s="5"/>
       <c r="L324" s="5"/>
@@ -12833,46 +12796,46 @@
     </row>
     <row r="325" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A325" s="1" t="s">
-        <v>353</v>
+        <v>414</v>
       </c>
       <c r="B325" s="1" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="C325" s="1" t="s">
-        <v>515</v>
+        <v>8</v>
       </c>
       <c r="D325" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E325" s="1" t="s">
         <v>68</v>
       </c>
       <c r="F325" s="1" t="s">
-        <v>385</v>
-      </c>
-      <c r="G325" s="1" t="s">
-        <v>516</v>
+        <v>68</v>
+      </c>
+      <c r="G325" s="2" t="s">
+        <v>121</v>
       </c>
       <c r="H325" s="1" t="s">
-        <v>68</v>
+        <v>129</v>
       </c>
       <c r="I325" s="1" t="s">
-        <v>517</v>
-      </c>
-      <c r="K325" s="1"/>
-      <c r="L325" s="1"/>
-      <c r="M325" s="1"/>
+        <v>122</v>
+      </c>
+      <c r="K325" s="5"/>
+      <c r="L325" s="5"/>
+      <c r="M325" s="5"/>
       <c r="N325" s="5"/>
     </row>
     <row r="326" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A326" s="1" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="B326" s="1" t="s">
         <v>62</v>
       </c>
       <c r="C326" s="1" t="s">
-        <v>5</v>
+        <v>403</v>
       </c>
       <c r="D326" s="1" t="s">
         <v>68</v>
@@ -12884,10 +12847,10 @@
         <v>68</v>
       </c>
       <c r="G326" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="H326" s="1" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="I326" s="1" t="s">
         <v>122</v>
@@ -12899,13 +12862,13 @@
     </row>
     <row r="327" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A327" s="1" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="B327" s="1" t="s">
         <v>62</v>
       </c>
       <c r="C327" s="1" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D327" s="1" t="s">
         <v>68</v>
@@ -12917,10 +12880,10 @@
         <v>68</v>
       </c>
       <c r="G327" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="H327" s="1" t="s">
-        <v>126</v>
+        <v>140</v>
       </c>
       <c r="I327" s="1" t="s">
         <v>122</v>
@@ -12932,13 +12895,13 @@
     </row>
     <row r="328" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A328" s="1" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="B328" s="1" t="s">
         <v>62</v>
       </c>
       <c r="C328" s="1" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="D328" s="1" t="s">
         <v>68</v>
@@ -12965,13 +12928,13 @@
     </row>
     <row r="329" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A329" s="1" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="B329" s="1" t="s">
         <v>62</v>
       </c>
       <c r="C329" s="1" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="D329" s="1" t="s">
         <v>68</v>
@@ -12983,10 +12946,10 @@
         <v>68</v>
       </c>
       <c r="G329" s="2" t="s">
-        <v>118</v>
+        <v>415</v>
       </c>
       <c r="H329" s="1" t="s">
-        <v>126</v>
+        <v>139</v>
       </c>
       <c r="I329" s="1" t="s">
         <v>122</v>
@@ -12998,13 +12961,13 @@
     </row>
     <row r="330" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A330" s="1" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="B330" s="1" t="s">
         <v>62</v>
       </c>
       <c r="C330" s="1" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D330" s="1" t="s">
         <v>68</v>
@@ -13016,10 +12979,10 @@
         <v>68</v>
       </c>
       <c r="G330" s="2" t="s">
-        <v>120</v>
+        <v>136</v>
       </c>
       <c r="H330" s="1" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="I330" s="1" t="s">
         <v>122</v>
@@ -13031,13 +12994,13 @@
     </row>
     <row r="331" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A331" s="1" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="B331" s="1" t="s">
         <v>62</v>
       </c>
       <c r="C331" s="1" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="D331" s="1" t="s">
         <v>68</v>
@@ -13049,10 +13012,10 @@
         <v>68</v>
       </c>
       <c r="G331" s="2" t="s">
-        <v>121</v>
+        <v>138</v>
       </c>
       <c r="H331" s="1" t="s">
-        <v>129</v>
+        <v>139</v>
       </c>
       <c r="I331" s="1" t="s">
         <v>122</v>
@@ -13064,13 +13027,13 @@
     </row>
     <row r="332" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A332" s="1" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="B332" s="1" t="s">
         <v>62</v>
       </c>
       <c r="C332" s="1" t="s">
-        <v>406</v>
+        <v>21</v>
       </c>
       <c r="D332" s="1" t="s">
         <v>68</v>
@@ -13082,10 +13045,10 @@
         <v>68</v>
       </c>
       <c r="G332" s="2" t="s">
-        <v>417</v>
+        <v>141</v>
       </c>
       <c r="H332" s="1" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="I332" s="1" t="s">
         <v>122</v>
@@ -13097,13 +13060,13 @@
     </row>
     <row r="333" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A333" s="1" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="B333" s="1" t="s">
         <v>62</v>
       </c>
       <c r="C333" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="D333" s="1" t="s">
         <v>68</v>
@@ -13115,10 +13078,10 @@
         <v>68</v>
       </c>
       <c r="G333" s="2" t="s">
-        <v>136</v>
+        <v>117</v>
       </c>
       <c r="H333" s="1" t="s">
-        <v>137</v>
+        <v>125</v>
       </c>
       <c r="I333" s="1" t="s">
         <v>122</v>
@@ -13130,13 +13093,13 @@
     </row>
     <row r="334" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A334" s="1" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="B334" s="1" t="s">
         <v>62</v>
       </c>
       <c r="C334" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="D334" s="1" t="s">
         <v>68</v>
@@ -13148,10 +13111,10 @@
         <v>68</v>
       </c>
       <c r="G334" s="2" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="H334" s="1" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="I334" s="1" t="s">
         <v>122</v>
@@ -13163,13 +13126,13 @@
     </row>
     <row r="335" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A335" s="1" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="B335" s="1" t="s">
         <v>62</v>
       </c>
       <c r="C335" s="1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="D335" s="1" t="s">
         <v>68</v>
@@ -13181,10 +13144,10 @@
         <v>68</v>
       </c>
       <c r="G335" s="2" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="H335" s="1" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="I335" s="1" t="s">
         <v>122</v>
@@ -13196,13 +13159,13 @@
     </row>
     <row r="336" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A336" s="1" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="B336" s="1" t="s">
         <v>62</v>
       </c>
       <c r="C336" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="D336" s="1" t="s">
         <v>68</v>
@@ -13214,10 +13177,10 @@
         <v>68</v>
       </c>
       <c r="G336" s="2" t="s">
-        <v>117</v>
+        <v>145</v>
       </c>
       <c r="H336" s="1" t="s">
-        <v>125</v>
+        <v>146</v>
       </c>
       <c r="I336" s="1" t="s">
         <v>122</v>
@@ -13229,28 +13192,28 @@
     </row>
     <row r="337" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A337" s="1" t="s">
+        <v>414</v>
+      </c>
+      <c r="B337" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C337" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="D337" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="E337" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="F337" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="G337" s="2" t="s">
         <v>416</v>
       </c>
-      <c r="B337" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="C337" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="D337" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="E337" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="F337" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="G337" s="2" t="s">
-        <v>143</v>
-      </c>
       <c r="H337" s="1" t="s">
-        <v>144</v>
+        <v>496</v>
       </c>
       <c r="I337" s="1" t="s">
         <v>122</v>
@@ -13262,13 +13225,13 @@
     </row>
     <row r="338" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A338" s="1" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="B338" s="1" t="s">
         <v>62</v>
       </c>
       <c r="C338" s="1" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="D338" s="1" t="s">
         <v>68</v>
@@ -13280,10 +13243,10 @@
         <v>68</v>
       </c>
       <c r="G338" s="2" t="s">
-        <v>136</v>
+        <v>147</v>
       </c>
       <c r="H338" s="1" t="s">
-        <v>137</v>
+        <v>148</v>
       </c>
       <c r="I338" s="1" t="s">
         <v>122</v>
@@ -13295,13 +13258,13 @@
     </row>
     <row r="339" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A339" s="1" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="B339" s="1" t="s">
         <v>62</v>
       </c>
       <c r="C339" s="1" t="s">
-        <v>25</v>
+        <v>405</v>
       </c>
       <c r="D339" s="1" t="s">
         <v>68</v>
@@ -13313,10 +13276,10 @@
         <v>68</v>
       </c>
       <c r="G339" s="2" t="s">
-        <v>145</v>
+        <v>417</v>
       </c>
       <c r="H339" s="1" t="s">
-        <v>146</v>
+        <v>418</v>
       </c>
       <c r="I339" s="1" t="s">
         <v>122</v>
@@ -13328,13 +13291,13 @@
     </row>
     <row r="340" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A340" s="1" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="B340" s="1" t="s">
         <v>62</v>
       </c>
       <c r="C340" s="1" t="s">
-        <v>360</v>
+        <v>406</v>
       </c>
       <c r="D340" s="1" t="s">
         <v>68</v>
@@ -13346,10 +13309,10 @@
         <v>68</v>
       </c>
       <c r="G340" s="2" t="s">
-        <v>418</v>
+        <v>141</v>
       </c>
       <c r="H340" s="1" t="s">
-        <v>520</v>
+        <v>142</v>
       </c>
       <c r="I340" s="1" t="s">
         <v>122</v>
@@ -13361,13 +13324,13 @@
     </row>
     <row r="341" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A341" s="1" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="B341" s="1" t="s">
         <v>62</v>
       </c>
       <c r="C341" s="1" t="s">
-        <v>29</v>
+        <v>407</v>
       </c>
       <c r="D341" s="1" t="s">
         <v>68</v>
@@ -13379,10 +13342,10 @@
         <v>68</v>
       </c>
       <c r="G341" s="2" t="s">
-        <v>147</v>
+        <v>419</v>
       </c>
       <c r="H341" s="1" t="s">
-        <v>148</v>
+        <v>496</v>
       </c>
       <c r="I341" s="1" t="s">
         <v>122</v>
@@ -13394,13 +13357,13 @@
     </row>
     <row r="342" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A342" s="1" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="B342" s="1" t="s">
         <v>62</v>
       </c>
       <c r="C342" s="1" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="D342" s="1" t="s">
         <v>68</v>
@@ -13412,10 +13375,10 @@
         <v>68</v>
       </c>
       <c r="G342" s="2" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="H342" s="1" t="s">
-        <v>420</v>
+        <v>496</v>
       </c>
       <c r="I342" s="1" t="s">
         <v>122</v>
@@ -13427,13 +13390,13 @@
     </row>
     <row r="343" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A343" s="1" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="B343" s="1" t="s">
         <v>62</v>
       </c>
       <c r="C343" s="1" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="D343" s="1" t="s">
         <v>68</v>
@@ -13445,10 +13408,10 @@
         <v>68</v>
       </c>
       <c r="G343" s="2" t="s">
-        <v>141</v>
+        <v>423</v>
       </c>
       <c r="H343" s="1" t="s">
-        <v>142</v>
+        <v>502</v>
       </c>
       <c r="I343" s="1" t="s">
         <v>122</v>
@@ -13460,13 +13423,13 @@
     </row>
     <row r="344" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A344" s="1" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="B344" s="1" t="s">
         <v>62</v>
       </c>
       <c r="C344" s="1" t="s">
-        <v>409</v>
+        <v>36</v>
       </c>
       <c r="D344" s="1" t="s">
         <v>68</v>
@@ -13478,10 +13441,10 @@
         <v>68</v>
       </c>
       <c r="G344" s="2" t="s">
-        <v>421</v>
+        <v>401</v>
       </c>
       <c r="H344" s="1" t="s">
-        <v>520</v>
+        <v>496</v>
       </c>
       <c r="I344" s="1" t="s">
         <v>122</v>
@@ -13493,13 +13456,13 @@
     </row>
     <row r="345" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A345" s="1" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="B345" s="1" t="s">
         <v>62</v>
       </c>
       <c r="C345" s="1" t="s">
-        <v>410</v>
+        <v>37</v>
       </c>
       <c r="D345" s="1" t="s">
         <v>68</v>
@@ -13511,10 +13474,10 @@
         <v>68</v>
       </c>
       <c r="G345" s="2" t="s">
-        <v>422</v>
+        <v>136</v>
       </c>
       <c r="H345" s="1" t="s">
-        <v>520</v>
+        <v>137</v>
       </c>
       <c r="I345" s="1" t="s">
         <v>122</v>
@@ -13526,13 +13489,13 @@
     </row>
     <row r="346" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A346" s="1" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="B346" s="1" t="s">
         <v>62</v>
       </c>
       <c r="C346" s="1" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="D346" s="1" t="s">
         <v>68</v>
@@ -13544,10 +13507,10 @@
         <v>68</v>
       </c>
       <c r="G346" s="2" t="s">
-        <v>425</v>
+        <v>118</v>
       </c>
       <c r="H346" s="1" t="s">
-        <v>526</v>
+        <v>126</v>
       </c>
       <c r="I346" s="1" t="s">
         <v>122</v>
@@ -13559,13 +13522,13 @@
     </row>
     <row r="347" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A347" s="1" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="B347" s="1" t="s">
         <v>62</v>
       </c>
       <c r="C347" s="1" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="D347" s="1" t="s">
         <v>68</v>
@@ -13577,10 +13540,10 @@
         <v>68</v>
       </c>
       <c r="G347" s="2" t="s">
-        <v>403</v>
+        <v>421</v>
       </c>
       <c r="H347" s="1" t="s">
-        <v>520</v>
+        <v>422</v>
       </c>
       <c r="I347" s="1" t="s">
         <v>122</v>
@@ -13592,13 +13555,13 @@
     </row>
     <row r="348" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A348" s="1" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="B348" s="1" t="s">
         <v>62</v>
       </c>
       <c r="C348" s="1" t="s">
-        <v>37</v>
+        <v>411</v>
       </c>
       <c r="D348" s="1" t="s">
         <v>68</v>
@@ -13610,10 +13573,10 @@
         <v>68</v>
       </c>
       <c r="G348" s="2" t="s">
-        <v>136</v>
+        <v>119</v>
       </c>
       <c r="H348" s="1" t="s">
-        <v>137</v>
+        <v>282</v>
       </c>
       <c r="I348" s="1" t="s">
         <v>122</v>
@@ -13625,7 +13588,7 @@
     </row>
     <row r="349" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A349" s="1" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="B349" s="1" t="s">
         <v>62</v>
@@ -13643,10 +13606,10 @@
         <v>68</v>
       </c>
       <c r="G349" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="H349" s="1" t="s">
-        <v>126</v>
+        <v>282</v>
       </c>
       <c r="I349" s="1" t="s">
         <v>122</v>
@@ -13658,13 +13621,13 @@
     </row>
     <row r="350" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A350" s="1" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="B350" s="1" t="s">
         <v>62</v>
       </c>
       <c r="C350" s="1" t="s">
-        <v>44</v>
+        <v>159</v>
       </c>
       <c r="D350" s="1" t="s">
         <v>68</v>
@@ -13676,10 +13639,10 @@
         <v>68</v>
       </c>
       <c r="G350" s="2" t="s">
-        <v>423</v>
+        <v>135</v>
       </c>
       <c r="H350" s="1" t="s">
-        <v>424</v>
+        <v>281</v>
       </c>
       <c r="I350" s="1" t="s">
         <v>122</v>
@@ -13691,13 +13654,13 @@
     </row>
     <row r="351" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A351" s="1" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="B351" s="1" t="s">
         <v>62</v>
       </c>
       <c r="C351" s="1" t="s">
-        <v>413</v>
+        <v>5</v>
       </c>
       <c r="D351" s="1" t="s">
         <v>68</v>
@@ -13709,10 +13672,10 @@
         <v>68</v>
       </c>
       <c r="G351" s="2" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="H351" s="1" t="s">
-        <v>284</v>
+        <v>125</v>
       </c>
       <c r="I351" s="1" t="s">
         <v>122</v>
@@ -13724,13 +13687,13 @@
     </row>
     <row r="352" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A352" s="1" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="B352" s="1" t="s">
         <v>62</v>
       </c>
       <c r="C352" s="1" t="s">
-        <v>414</v>
+        <v>6</v>
       </c>
       <c r="D352" s="1" t="s">
         <v>68</v>
@@ -13742,10 +13705,10 @@
         <v>68</v>
       </c>
       <c r="G352" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="H352" s="1" t="s">
-        <v>284</v>
+        <v>126</v>
       </c>
       <c r="I352" s="1" t="s">
         <v>122</v>
@@ -13757,13 +13720,13 @@
     </row>
     <row r="353" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A353" s="1" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="B353" s="1" t="s">
         <v>62</v>
       </c>
       <c r="C353" s="1" t="s">
-        <v>159</v>
+        <v>8</v>
       </c>
       <c r="D353" s="1" t="s">
         <v>68</v>
@@ -13775,10 +13738,10 @@
         <v>68</v>
       </c>
       <c r="G353" s="2" t="s">
-        <v>135</v>
+        <v>121</v>
       </c>
       <c r="H353" s="1" t="s">
-        <v>283</v>
+        <v>129</v>
       </c>
       <c r="I353" s="1" t="s">
         <v>122</v>
@@ -13790,13 +13753,13 @@
     </row>
     <row r="354" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A354" s="1" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="B354" s="1" t="s">
         <v>62</v>
       </c>
       <c r="C354" s="1" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="D354" s="1" t="s">
         <v>68</v>
@@ -13808,10 +13771,10 @@
         <v>68</v>
       </c>
       <c r="G354" s="2" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="H354" s="1" t="s">
-        <v>125</v>
+        <v>140</v>
       </c>
       <c r="I354" s="1" t="s">
         <v>122</v>
@@ -13823,13 +13786,13 @@
     </row>
     <row r="355" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A355" s="1" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="B355" s="1" t="s">
         <v>62</v>
       </c>
       <c r="C355" s="1" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="D355" s="1" t="s">
         <v>68</v>
@@ -13841,10 +13804,10 @@
         <v>68</v>
       </c>
       <c r="G355" s="2" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="H355" s="1" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="I355" s="1" t="s">
         <v>122</v>
@@ -13856,13 +13819,13 @@
     </row>
     <row r="356" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A356" s="1" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="B356" s="1" t="s">
         <v>62</v>
       </c>
       <c r="C356" s="1" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="D356" s="1" t="s">
         <v>68</v>
@@ -13874,10 +13837,10 @@
         <v>68</v>
       </c>
       <c r="G356" s="2" t="s">
-        <v>121</v>
+        <v>136</v>
       </c>
       <c r="H356" s="1" t="s">
-        <v>129</v>
+        <v>137</v>
       </c>
       <c r="I356" s="1" t="s">
         <v>122</v>
@@ -13889,13 +13852,13 @@
     </row>
     <row r="357" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A357" s="1" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="B357" s="1" t="s">
         <v>62</v>
       </c>
       <c r="C357" s="1" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="D357" s="1" t="s">
         <v>68</v>
@@ -13907,10 +13870,10 @@
         <v>68</v>
       </c>
       <c r="G357" s="2" t="s">
-        <v>120</v>
+        <v>138</v>
       </c>
       <c r="H357" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="I357" s="1" t="s">
         <v>122</v>
@@ -13922,13 +13885,13 @@
     </row>
     <row r="358" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A358" s="1" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="B358" s="1" t="s">
         <v>62</v>
       </c>
       <c r="C358" s="1" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="D358" s="1" t="s">
         <v>68</v>
@@ -13940,10 +13903,10 @@
         <v>68</v>
       </c>
       <c r="G358" s="2" t="s">
-        <v>121</v>
+        <v>141</v>
       </c>
       <c r="H358" s="1" t="s">
-        <v>129</v>
+        <v>142</v>
       </c>
       <c r="I358" s="1" t="s">
         <v>122</v>
@@ -13955,13 +13918,13 @@
     </row>
     <row r="359" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A359" s="1" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="B359" s="1" t="s">
         <v>62</v>
       </c>
       <c r="C359" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="D359" s="1" t="s">
         <v>68</v>
@@ -13973,10 +13936,10 @@
         <v>68</v>
       </c>
       <c r="G359" s="2" t="s">
-        <v>136</v>
+        <v>117</v>
       </c>
       <c r="H359" s="1" t="s">
-        <v>137</v>
+        <v>125</v>
       </c>
       <c r="I359" s="1" t="s">
         <v>122</v>
@@ -13988,13 +13951,13 @@
     </row>
     <row r="360" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A360" s="1" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="B360" s="1" t="s">
         <v>62</v>
       </c>
       <c r="C360" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="D360" s="1" t="s">
         <v>68</v>
@@ -14006,10 +13969,10 @@
         <v>68</v>
       </c>
       <c r="G360" s="2" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="H360" s="1" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="I360" s="1" t="s">
         <v>122</v>
@@ -14021,13 +13984,13 @@
     </row>
     <row r="361" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A361" s="1" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="B361" s="1" t="s">
         <v>62</v>
       </c>
       <c r="C361" s="1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="D361" s="1" t="s">
         <v>68</v>
@@ -14039,10 +14002,10 @@
         <v>68</v>
       </c>
       <c r="G361" s="2" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="H361" s="1" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="I361" s="1" t="s">
         <v>122</v>
@@ -14054,13 +14017,13 @@
     </row>
     <row r="362" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A362" s="1" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="B362" s="1" t="s">
         <v>62</v>
       </c>
       <c r="C362" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="D362" s="1" t="s">
         <v>68</v>
@@ -14072,10 +14035,10 @@
         <v>68</v>
       </c>
       <c r="G362" s="2" t="s">
-        <v>117</v>
+        <v>145</v>
       </c>
       <c r="H362" s="1" t="s">
-        <v>125</v>
+        <v>146</v>
       </c>
       <c r="I362" s="1" t="s">
         <v>122</v>
@@ -14087,13 +14050,13 @@
     </row>
     <row r="363" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A363" s="1" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="B363" s="1" t="s">
         <v>62</v>
       </c>
       <c r="C363" s="1" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="D363" s="1" t="s">
         <v>68</v>
@@ -14105,10 +14068,10 @@
         <v>68</v>
       </c>
       <c r="G363" s="2" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="H363" s="1" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="I363" s="1" t="s">
         <v>122</v>
@@ -14120,13 +14083,13 @@
     </row>
     <row r="364" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A364" s="1" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="B364" s="1" t="s">
         <v>62</v>
       </c>
       <c r="C364" s="1" t="s">
-        <v>24</v>
+        <v>167</v>
       </c>
       <c r="D364" s="1" t="s">
         <v>68</v>
@@ -14138,10 +14101,10 @@
         <v>68</v>
       </c>
       <c r="G364" s="2" t="s">
-        <v>136</v>
+        <v>196</v>
       </c>
       <c r="H364" s="1" t="s">
-        <v>137</v>
+        <v>285</v>
       </c>
       <c r="I364" s="1" t="s">
         <v>122</v>
@@ -14153,13 +14116,13 @@
     </row>
     <row r="365" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A365" s="1" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="B365" s="1" t="s">
         <v>62</v>
       </c>
       <c r="C365" s="1" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="D365" s="1" t="s">
         <v>68</v>
@@ -14171,10 +14134,10 @@
         <v>68</v>
       </c>
       <c r="G365" s="2" t="s">
-        <v>145</v>
+        <v>400</v>
       </c>
       <c r="H365" s="1" t="s">
-        <v>146</v>
+        <v>496</v>
       </c>
       <c r="I365" s="1" t="s">
         <v>122</v>
@@ -14186,13 +14149,13 @@
     </row>
     <row r="366" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A366" s="1" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="B366" s="1" t="s">
         <v>62</v>
       </c>
       <c r="C366" s="1" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="D366" s="1" t="s">
         <v>68</v>
@@ -14204,10 +14167,10 @@
         <v>68</v>
       </c>
       <c r="G366" s="2" t="s">
-        <v>147</v>
+        <v>401</v>
       </c>
       <c r="H366" s="1" t="s">
-        <v>148</v>
+        <v>496</v>
       </c>
       <c r="I366" s="1" t="s">
         <v>122</v>
@@ -14219,13 +14182,13 @@
     </row>
     <row r="367" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A367" s="1" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="B367" s="1" t="s">
         <v>62</v>
       </c>
       <c r="C367" s="1" t="s">
-        <v>167</v>
+        <v>37</v>
       </c>
       <c r="D367" s="1" t="s">
         <v>68</v>
@@ -14237,10 +14200,10 @@
         <v>68</v>
       </c>
       <c r="G367" s="2" t="s">
-        <v>196</v>
+        <v>136</v>
       </c>
       <c r="H367" s="1" t="s">
-        <v>287</v>
+        <v>137</v>
       </c>
       <c r="I367" s="1" t="s">
         <v>122</v>
@@ -14252,13 +14215,13 @@
     </row>
     <row r="368" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A368" s="1" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="B368" s="1" t="s">
         <v>62</v>
       </c>
       <c r="C368" s="1" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="D368" s="1" t="s">
         <v>68</v>
@@ -14269,11 +14232,11 @@
       <c r="F368" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="G368" s="2" t="s">
-        <v>402</v>
+      <c r="G368" s="1" t="s">
+        <v>286</v>
       </c>
       <c r="H368" s="1" t="s">
-        <v>520</v>
+        <v>201</v>
       </c>
       <c r="I368" s="1" t="s">
         <v>122</v>
@@ -14282,105 +14245,6 @@
       <c r="L368" s="5"/>
       <c r="M368" s="5"/>
       <c r="N368" s="5"/>
-    </row>
-    <row r="369" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A369" s="1" t="s">
-        <v>415</v>
-      </c>
-      <c r="B369" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="C369" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="D369" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="E369" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="F369" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="G369" s="2" t="s">
-        <v>403</v>
-      </c>
-      <c r="H369" s="1" t="s">
-        <v>520</v>
-      </c>
-      <c r="I369" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="K369" s="5"/>
-      <c r="L369" s="5"/>
-      <c r="M369" s="5"/>
-      <c r="N369" s="5"/>
-    </row>
-    <row r="370" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A370" s="1" t="s">
-        <v>415</v>
-      </c>
-      <c r="B370" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="C370" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="D370" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="E370" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="F370" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="G370" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="H370" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="I370" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="K370" s="5"/>
-      <c r="L370" s="5"/>
-      <c r="M370" s="5"/>
-      <c r="N370" s="5"/>
-    </row>
-    <row r="371" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A371" s="1" t="s">
-        <v>415</v>
-      </c>
-      <c r="B371" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="C371" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="D371" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="E371" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="F371" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="G371" s="1" t="s">
-        <v>288</v>
-      </c>
-      <c r="H371" s="1" t="s">
-        <v>201</v>
-      </c>
-      <c r="I371" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="K371" s="5"/>
-      <c r="L371" s="5"/>
-      <c r="M371" s="5"/>
-      <c r="N371" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
